--- a/results/easq-sensitivity-analysis.xlsx
+++ b/results/easq-sensitivity-analysis.xlsx
@@ -435,7 +435,7 @@
         <v>0.3329959493332269</v>
       </c>
       <c r="I2">
-        <v>0.07240487805669546</v>
+        <v>0.9874831480589694</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>0.6640093382022003</v>
       </c>
       <c r="I3">
-        <v>-0.2259394192549146</v>
+        <v>0.8256813382068313</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>0.8866704771970065</v>
       </c>
       <c r="I4">
-        <v>4.241318678312017</v>
+        <v>5.237583842798488</v>
       </c>
     </row>
     <row r="5">
@@ -534,7 +534,7 @@
         <v>0.6111611180418326</v>
       </c>
       <c r="I5">
-        <v>-0.2476590192290335</v>
+        <v>0.7405823736038484</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>0.0699666252065687</v>
       </c>
       <c r="I6">
-        <v>-1.130464346152301</v>
+        <v>-0.06797138355259864</v>
       </c>
     </row>
     <row r="7">
@@ -600,7 +600,7 @@
         <v>0.685140600682432</v>
       </c>
       <c r="I7">
-        <v>-0.3890698594981065</v>
+        <v>0.5567976052307477</v>
       </c>
     </row>
     <row r="8">
@@ -633,7 +633,7 @@
         <v>0.3665363238178662</v>
       </c>
       <c r="I8">
-        <v>-3.659177929526631</v>
+        <v>-2.628749906221892</v>
       </c>
     </row>
     <row r="9">
@@ -666,7 +666,7 @@
         <v>0.2507866464987985</v>
       </c>
       <c r="I9">
-        <v>-2.639453729558731</v>
+        <v>-1.60240249299664</v>
       </c>
     </row>
     <row r="10">
@@ -699,7 +699,7 @@
         <v>0.04573193602110219</v>
       </c>
       <c r="I10">
-        <v>-0.7294062928574947</v>
+        <v>0.1131061643575407</v>
       </c>
     </row>
     <row r="11">
@@ -732,7 +732,7 @@
         <v>0.1937881751179691</v>
       </c>
       <c r="I11">
-        <v>-0.4299676468223133</v>
+        <v>0.4665301907987042</v>
       </c>
     </row>
     <row r="12">
@@ -765,7 +765,7 @@
         <v>0.01524603902894358</v>
       </c>
       <c r="I12">
-        <v>-0.5159837563158657</v>
+        <v>0.2754157359701176</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>0.03886193394109631</v>
       </c>
       <c r="I13">
-        <v>-0.47213521260495</v>
+        <v>0.3273412572673648</v>
       </c>
     </row>
     <row r="14">
@@ -831,7 +831,7 @@
         <v>0.5762262133322021</v>
       </c>
       <c r="I14">
-        <v>-0.4484953031410558</v>
+        <v>0.4811790067561043</v>
       </c>
     </row>
     <row r="15">
@@ -864,7 +864,7 @@
         <v>0.9999895188837933</v>
       </c>
       <c r="I15">
-        <v>-2.887311667506</v>
+        <v>-1.887311667492779</v>
       </c>
     </row>
     <row r="16">
@@ -897,7 +897,7 @@
         <v>0.6706885987857295</v>
       </c>
       <c r="I16">
-        <v>0.05044229026493639</v>
+        <v>0.9999817772244443</v>
       </c>
     </row>
     <row r="17">
@@ -930,7 +930,7 @@
         <v>0.801943323732609</v>
       </c>
       <c r="I17">
-        <v>0.2062578853370409</v>
+        <v>1.177316552394956</v>
       </c>
     </row>
     <row r="18">
@@ -963,7 +963,7 @@
         <v>0.1809099304725955</v>
       </c>
       <c r="I18">
-        <v>-1.125973682745735</v>
+        <v>-0.09787184688687907</v>
       </c>
     </row>
     <row r="19">
@@ -996,7 +996,7 @@
         <v>0.5448583309930062</v>
       </c>
       <c r="I19">
-        <v>-0.8260481222749729</v>
+        <v>0.1624652847152326</v>
       </c>
     </row>
     <row r="20">
@@ -1029,7 +1029,7 @@
         <v>0.986773198790769</v>
       </c>
       <c r="I20">
-        <v>-11.65252318434017</v>
+        <v>-10.65215540408278</v>
       </c>
     </row>
     <row r="21">
@@ -1062,7 +1062,7 @@
         <v>0.6339435596472874</v>
       </c>
       <c r="I21">
-        <v>-9.130907978368187</v>
+        <v>-8.14047236353267</v>
       </c>
     </row>
     <row r="22">
@@ -1095,7 +1095,7 @@
         <v>0.119228075809969</v>
       </c>
       <c r="I22">
-        <v>-0.8958647530858935</v>
+        <v>-0.04593201298098492</v>
       </c>
     </row>
     <row r="23">
@@ -1128,7 +1128,7 @@
         <v>0.669630718554056</v>
       </c>
       <c r="I23">
-        <v>4.290041930162698</v>
+        <v>5.305112194960103</v>
       </c>
     </row>
     <row r="24">
@@ -1161,7 +1161,7 @@
         <v>0.2619730618214851</v>
       </c>
       <c r="I24">
-        <v>-0.614305636539377</v>
+        <v>0.280240113355746</v>
       </c>
     </row>
     <row r="25">
@@ -1194,7 +1194,7 @@
         <v>0.2056791428375945</v>
       </c>
       <c r="I25">
-        <v>-0.6264619256360615</v>
+        <v>0.2659774088433141</v>
       </c>
     </row>
     <row r="26">
@@ -1227,7 +1227,7 @@
         <v>0.6646856248062584</v>
       </c>
       <c r="I26">
-        <v>-0.6731594583124471</v>
+        <v>0.3173841550432328</v>
       </c>
     </row>
     <row r="27">
@@ -1260,7 +1260,7 @@
         <v>0.9999710858575335</v>
       </c>
       <c r="I27">
-        <v>22845004.86786181</v>
+        <v>22845005.86786181</v>
       </c>
     </row>
     <row r="28">
@@ -1293,7 +1293,7 @@
         <v>0.8692505723144492</v>
       </c>
       <c r="I28">
-        <v>-1.885819477515969</v>
+        <v>-0.8822758060887524</v>
       </c>
     </row>
     <row r="29">
@@ -1326,7 +1326,7 @@
         <v>0.678626327400139</v>
       </c>
       <c r="I29">
-        <v>-0.8558117701263515</v>
+        <v>0.1523942902325783</v>
       </c>
     </row>
     <row r="30">
@@ -1359,7 +1359,7 @@
         <v>0.9783614367587606</v>
       </c>
       <c r="I30">
-        <v>-3.839772658592564</v>
+        <v>-2.842749545540203</v>
       </c>
     </row>
     <row r="31">
@@ -1392,7 +1392,7 @@
         <v>0.6415886703284076</v>
       </c>
       <c r="I31">
-        <v>-1.11797681701544</v>
+        <v>-0.1304429187194684</v>
       </c>
     </row>
     <row r="32">
@@ -1425,7 +1425,7 @@
         <v>0.7316225840750129</v>
       </c>
       <c r="I32">
-        <v>-0.6755680903536765</v>
+        <v>0.3574451312106138</v>
       </c>
     </row>
     <row r="33">
@@ -1458,7 +1458,7 @@
         <v>0.1153495885751826</v>
       </c>
       <c r="I33">
-        <v>-0.04714629711843856</v>
+        <v>0.9138668282056585</v>
       </c>
     </row>
     <row r="34">
@@ -1491,7 +1491,7 @@
         <v>0.8337229021764141</v>
       </c>
       <c r="I34">
-        <v>-2.408414240509714</v>
+        <v>-1.392091479640958</v>
       </c>
     </row>
     <row r="35">
@@ -1524,7 +1524,7 @@
         <v>0.03613871297173015</v>
       </c>
       <c r="I35">
-        <v>-1.218763048330679</v>
+        <v>-0.1160592665195636</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1557,7 @@
         <v>0.1360219679608112</v>
       </c>
       <c r="I36">
-        <v>-1.29726636017428</v>
+        <v>-0.1838989230533103</v>
       </c>
     </row>
     <row r="37">
@@ -1590,7 +1590,7 @@
         <v>0.2384751022790607</v>
       </c>
       <c r="I37">
-        <v>-1.033428200607175</v>
+        <v>0.05508188111927244</v>
       </c>
     </row>
     <row r="38">
@@ -1623,7 +1623,7 @@
         <v>0.1932864360403027</v>
       </c>
       <c r="I38">
-        <v>-0.6889948238965231</v>
+        <v>0.4273994200957751</v>
       </c>
     </row>
     <row r="39">
@@ -1656,7 +1656,7 @@
         <v>0.004916357007366671</v>
       </c>
       <c r="I39">
-        <v>-0.4709680904973164</v>
+        <v>0.7399378465139841</v>
       </c>
     </row>
     <row r="40">
@@ -1689,7 +1689,7 @@
         <v>0.1082799889872837</v>
       </c>
       <c r="I40">
-        <v>-0.0252828358416544</v>
+        <v>1.104702190863046</v>
       </c>
     </row>
     <row r="41">
@@ -1722,7 +1722,7 @@
         <v>0.3258703127825445</v>
       </c>
       <c r="I41">
-        <v>0.1755316015010817</v>
+        <v>1.153760133230639</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1815,7 @@
         <v>0.9699366870424425</v>
       </c>
       <c r="I2">
-        <v>3.421053360633214</v>
+        <v>4.416991750717826</v>
       </c>
     </row>
     <row r="3">
@@ -1848,7 +1848,7 @@
         <v>0.6102119335481796</v>
       </c>
       <c r="I3">
-        <v>-1.451224109672551</v>
+        <v>-0.4401929804392148</v>
       </c>
     </row>
     <row r="4">
@@ -1881,7 +1881,7 @@
         <v>0.7515755187640981</v>
       </c>
       <c r="I4">
-        <v>-3.443343244841223</v>
+        <v>-2.431083167959735</v>
       </c>
     </row>
     <row r="5">
@@ -1914,7 +1914,7 @@
         <v>0.9068374245261932</v>
       </c>
       <c r="I5">
-        <v>1.792335046423174</v>
+        <v>2.796912965650782</v>
       </c>
     </row>
     <row r="6">
@@ -1947,7 +1947,7 @@
         <v>0.4300399546896693</v>
       </c>
       <c r="I6">
-        <v>-1.630101967276083</v>
+        <v>-0.5904825871172722</v>
       </c>
     </row>
     <row r="7">
@@ -1980,7 +1980,7 @@
         <v>0.837979212387796</v>
       </c>
       <c r="I7">
-        <v>41.43095453489942</v>
+        <v>42.42810859471084</v>
       </c>
     </row>
     <row r="8">
@@ -2013,7 +2013,7 @@
         <v>0.768967490819317</v>
       </c>
       <c r="I8">
-        <v>-2.987560317668118</v>
+        <v>-1.97582524824278</v>
       </c>
     </row>
     <row r="9">
@@ -2046,7 +2046,7 @@
         <v>0.952746537254665</v>
       </c>
       <c r="I9">
-        <v>4.250013499453265</v>
+        <v>5.242606773167275</v>
       </c>
     </row>
     <row r="10">
@@ -2079,7 +2079,7 @@
         <v>0.3178448146009121</v>
       </c>
       <c r="I10">
-        <v>-0.8473605379126368</v>
+        <v>0.1061099016016447</v>
       </c>
     </row>
     <row r="11">
@@ -2112,7 +2112,7 @@
         <v>0.2398288052876285</v>
       </c>
       <c r="I11">
-        <v>-0.773169582789571</v>
+        <v>0.1232147314646722</v>
       </c>
     </row>
     <row r="12">
@@ -2145,7 +2145,7 @@
         <v>0.08863352678346388</v>
       </c>
       <c r="I12">
-        <v>-0.7057599517593807</v>
+        <v>0.1503963506652065</v>
       </c>
     </row>
     <row r="13">
@@ -2178,7 +2178,7 @@
         <v>0.1692509140876513</v>
       </c>
       <c r="I13">
-        <v>-0.844340296900489</v>
+        <v>0.03564614708302967</v>
       </c>
     </row>
     <row r="14">
@@ -2211,7 +2211,7 @@
         <v>0.5839335613951601</v>
       </c>
       <c r="I14">
-        <v>-0.633321494215818</v>
+        <v>0.2820494638316566</v>
       </c>
     </row>
     <row r="15">
@@ -2244,7 +2244,7 @@
         <v>0.03152776848639147</v>
       </c>
       <c r="I15">
-        <v>-0.6441687291088212</v>
+        <v>0.21284688117928</v>
       </c>
     </row>
     <row r="16">
@@ -2277,7 +2277,7 @@
         <v>0.1781056135946943</v>
       </c>
       <c r="I16">
-        <v>-0.2999221568551752</v>
+        <v>0.5200247410873744</v>
       </c>
     </row>
     <row r="17">
@@ -2310,7 +2310,7 @@
         <v>0.4620021750699047</v>
       </c>
       <c r="I17">
-        <v>0.03668947376598822</v>
+        <v>0.9539497880019334</v>
       </c>
     </row>
     <row r="18">
@@ -2343,7 +2343,7 @@
         <v>0.6330884868122588</v>
       </c>
       <c r="I18">
-        <v>0.0936043636198686</v>
+        <v>1.042972882896569</v>
       </c>
     </row>
     <row r="19">
@@ -2376,7 +2376,7 @@
         <v>0.1072687611114999</v>
       </c>
       <c r="I19">
-        <v>0.03098569298533733</v>
+        <v>0.8925919997075304</v>
       </c>
     </row>
     <row r="20">
@@ -2409,7 +2409,7 @@
         <v>0.08322055867751886</v>
       </c>
       <c r="I20">
-        <v>-0.5252099105226936</v>
+        <v>0.2956886729593293</v>
       </c>
     </row>
     <row r="21">
@@ -2442,7 +2442,7 @@
         <v>0.177584349656899</v>
       </c>
       <c r="I21">
-        <v>-0.6421815601797958</v>
+        <v>0.2204620476521573</v>
       </c>
     </row>
     <row r="22">
@@ -2475,7 +2475,7 @@
         <v>0.761811663369992</v>
       </c>
       <c r="I22">
-        <v>-0.8326391327642795</v>
+        <v>0.1553013860693075</v>
       </c>
     </row>
     <row r="23">
@@ -2508,7 +2508,7 @@
         <v>0.652278756421114</v>
       </c>
       <c r="I23">
-        <v>0.007453769324494187</v>
+        <v>1.024403198536006</v>
       </c>
     </row>
     <row r="24">
@@ -2541,7 +2541,7 @@
         <v>0.8969133731340106</v>
       </c>
       <c r="I24">
-        <v>-0.6810557582334535</v>
+        <v>0.3307056689415048</v>
       </c>
     </row>
     <row r="25">
@@ -2574,7 +2574,7 @@
         <v>0.7611781140002019</v>
       </c>
       <c r="I25">
-        <v>-0.8780710605781161</v>
+        <v>0.1110304131192488</v>
       </c>
     </row>
     <row r="26">
@@ -2607,7 +2607,7 @@
         <v>0.9700392789061131</v>
       </c>
       <c r="I26">
-        <v>2.743320104654029</v>
+        <v>3.742222014029331</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2640,7 @@
         <v>0.3163964120880821</v>
       </c>
       <c r="I27">
-        <v>-0.250904559153699</v>
+        <v>0.7747528197683283</v>
       </c>
     </row>
     <row r="28">
@@ -2673,7 +2673,7 @@
         <v>0.5007015146421375</v>
       </c>
       <c r="I28">
-        <v>-1.368019280614152</v>
+        <v>-0.3506475489531012</v>
       </c>
     </row>
     <row r="29">
@@ -2706,7 +2706,7 @@
         <v>0.6751061974126994</v>
       </c>
       <c r="I29">
-        <v>-0.3614375737503713</v>
+        <v>0.6490638477124263</v>
       </c>
     </row>
     <row r="30">
@@ -2739,7 +2739,7 @@
         <v>0.5983402906185249</v>
       </c>
       <c r="I30">
-        <v>-1.796996970315163</v>
+        <v>-0.8197721941398385</v>
       </c>
     </row>
     <row r="31">
@@ -2772,7 +2772,7 @@
         <v>0.2418487866696458</v>
       </c>
       <c r="I31">
-        <v>0.154933606418805</v>
+        <v>1.227913566974723</v>
       </c>
     </row>
     <row r="32">
@@ -2805,7 +2805,7 @@
         <v>0.4956970990491106</v>
       </c>
       <c r="I32">
-        <v>-1.934818885804357</v>
+        <v>-0.9641979887517199</v>
       </c>
     </row>
     <row r="33">
@@ -2838,7 +2838,7 @@
         <v>0.07333479525477263</v>
       </c>
       <c r="I33">
-        <v>-0.7899470153737735</v>
+        <v>0.1559519042369353</v>
       </c>
     </row>
     <row r="34">
@@ -2871,7 +2871,7 @@
         <v>0.9918639497161179</v>
       </c>
       <c r="I34">
-        <v>27.40658707984653</v>
+        <v>28.4055731360688</v>
       </c>
     </row>
     <row r="35">
@@ -2904,7 +2904,7 @@
         <v>0.0374011069605539</v>
       </c>
       <c r="I35">
-        <v>-0.8113364894963138</v>
+        <v>0.3100824751036994</v>
       </c>
     </row>
     <row r="36">
@@ -2937,7 +2937,7 @@
         <v>0.5565605669469803</v>
       </c>
       <c r="I36">
-        <v>-2.886882857088818</v>
+        <v>-1.837046505454919</v>
       </c>
     </row>
     <row r="37">
@@ -2970,7 +2970,7 @@
         <v>0.9261702440535832</v>
       </c>
       <c r="I37">
-        <v>3.90074580303634</v>
+        <v>4.892360973229628</v>
       </c>
     </row>
     <row r="38">
@@ -3003,7 +3003,7 @@
         <v>0.975986062363371</v>
       </c>
       <c r="I38">
-        <v>1.318977211533132</v>
+        <v>2.320104293731616</v>
       </c>
     </row>
     <row r="39">
@@ -3036,7 +3036,7 @@
         <v>0.01480784304304851</v>
       </c>
       <c r="I39">
-        <v>-1.088084268674262</v>
+        <v>0.08360661344918344</v>
       </c>
     </row>
     <row r="40">
@@ -3069,7 +3069,7 @@
         <v>0.9788438093502901</v>
       </c>
       <c r="I40">
-        <v>-2.938029547092393</v>
+        <v>-1.93896412283199</v>
       </c>
     </row>
     <row r="41">
@@ -3102,7 +3102,7 @@
         <v>0.7140489640567028</v>
       </c>
       <c r="I41">
-        <v>-0.5111511154072885</v>
+        <v>0.4770507110151713</v>
       </c>
     </row>
   </sheetData>

--- a/results/easq-sensitivity-analysis.xlsx
+++ b/results/easq-sensitivity-analysis.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -361,7 +361,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -371,44 +371,54 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>N_no4</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>N_all</t>
+          <t>q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>point.diff_no4</t>
+          <t>q3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>point.diff_all</t>
+          <t>pred.q1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Pval_no4</t>
+          <t>pred.q3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Pval_all</t>
+          <t>point.diff</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>sensitivity</t>
+          <t>lb.diff</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ub.diff</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_no4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -420,28 +430,34 @@
         <v>764</v>
       </c>
       <c r="D2">
-        <v>765</v>
+        <v>0.230348825</v>
       </c>
       <c r="E2">
+        <v>0.8012372000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.0419345670332736</v>
+      </c>
+      <c r="G2">
+        <v>0.04299751975423131</v>
+      </c>
+      <c r="H2">
         <v>0.001062952720957721</v>
       </c>
-      <c r="F2">
-        <v>0.08492172999772614</v>
-      </c>
-      <c r="G2">
+      <c r="I2">
+        <v>-0.03714448939531297</v>
+      </c>
+      <c r="J2">
+        <v>0.03927039483722841</v>
+      </c>
+      <c r="K2">
         <v>0.9604688695318725</v>
-      </c>
-      <c r="H2">
-        <v>0.3329959493332269</v>
-      </c>
-      <c r="I2">
-        <v>0.9874831480589694</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_no4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -453,28 +469,34 @@
         <v>759</v>
       </c>
       <c r="D3">
-        <v>765</v>
+        <v>0.23013515</v>
       </c>
       <c r="E3">
+        <v>0.8013165</v>
+      </c>
+      <c r="F3">
+        <v>0.1325259159874605</v>
+      </c>
+      <c r="G3">
+        <v>0.1235274546259792</v>
+      </c>
+      <c r="H3">
         <v>-0.008998461361481271</v>
       </c>
-      <c r="F3">
-        <v>-0.05162075746174589</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
+        <v>-0.04043766501103746</v>
+      </c>
+      <c r="J3">
+        <v>0.02244074228807492</v>
+      </c>
+      <c r="K3">
         <v>0.5867563997725677</v>
-      </c>
-      <c r="H3">
-        <v>0.6640093382022003</v>
-      </c>
-      <c r="I3">
-        <v>0.8256813382068313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_no4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -486,28 +508,34 @@
         <v>761</v>
       </c>
       <c r="D4">
-        <v>765</v>
+        <v>0.2305625</v>
       </c>
       <c r="E4">
+        <v>0.8014751</v>
+      </c>
+      <c r="F4">
+        <v>0.03892189728541484</v>
+      </c>
+      <c r="G4">
+        <v>0.02309521865777314</v>
+      </c>
+      <c r="H4">
         <v>-0.0158266786276417</v>
       </c>
-      <c r="F4">
-        <v>0.003734835513529286</v>
-      </c>
-      <c r="G4">
+      <c r="I4">
+        <v>-0.07652230803457477</v>
+      </c>
+      <c r="J4">
+        <v>0.04486895077929137</v>
+      </c>
+      <c r="K4">
         <v>0.6218203181949693</v>
-      </c>
-      <c r="H4">
-        <v>0.8866704771970065</v>
-      </c>
-      <c r="I4">
-        <v>5.237583842798488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_no4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -519,1210 +547,2992 @@
         <v>761</v>
       </c>
       <c r="D5">
-        <v>765</v>
+        <v>0.2305625</v>
       </c>
       <c r="E5">
+        <v>0.8011579</v>
+      </c>
+      <c r="F5">
+        <v>-0.07566214564481774</v>
+      </c>
+      <c r="G5">
+        <v>-0.07261175568379917</v>
+      </c>
+      <c r="H5">
         <v>0.003050389961018559</v>
       </c>
-      <c r="F5">
-        <v>0.01175860716711812</v>
-      </c>
-      <c r="G5">
+      <c r="I5">
+        <v>-0.04670956379135138</v>
+      </c>
+      <c r="J5">
+        <v>0.0528103437133885</v>
+      </c>
+      <c r="K5">
         <v>0.9119640817619526</v>
-      </c>
-      <c r="H5">
-        <v>0.6111611180418326</v>
-      </c>
-      <c r="I5">
-        <v>0.7405823736038484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_all</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mpo1</t>
+          <t>aat1</t>
         </is>
       </c>
       <c r="C6">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D6">
-        <v>767</v>
+        <v>0.2297078</v>
       </c>
       <c r="E6">
-        <v>-0.06674069572990476</v>
+        <v>0.8011579</v>
       </c>
       <c r="F6">
-        <v>-0.0624929625997022</v>
+        <v>0.006159270120829587</v>
       </c>
       <c r="G6">
-        <v>0.04938619032521363</v>
+        <v>0.09108100011855573</v>
       </c>
       <c r="H6">
-        <v>0.0699666252065687</v>
+        <v>0.08492172999772614</v>
       </c>
       <c r="I6">
-        <v>-0.06797138355259864</v>
+        <v>-0.08521205619896281</v>
+      </c>
+      <c r="J6">
+        <v>0.2550555161944151</v>
+      </c>
+      <c r="K6">
+        <v>0.3329959493332269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_all</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mpo1</t>
+          <t>aat1</t>
         </is>
       </c>
       <c r="C7">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="D7">
-        <v>767</v>
+        <v>0.2297078</v>
       </c>
       <c r="E7">
-        <v>0.02399166926710282</v>
+        <v>0.8011579</v>
       </c>
       <c r="F7">
-        <v>0.05413253527114577</v>
+        <v>0.1498094796655503</v>
       </c>
       <c r="G7">
-        <v>0.8616626870182504</v>
+        <v>0.0981887222038044</v>
       </c>
       <c r="H7">
-        <v>0.685140600682432</v>
+        <v>-0.05162075746174589</v>
       </c>
       <c r="I7">
-        <v>0.5567976052307477</v>
+        <v>-0.2752888902006794</v>
+      </c>
+      <c r="J7">
+        <v>0.1720473752771876</v>
+      </c>
+      <c r="K7">
+        <v>0.6640093382022003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_all</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mpo1</t>
+          <t>aat1</t>
         </is>
       </c>
       <c r="C8">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D8">
-        <v>767</v>
+        <v>0.2297078</v>
       </c>
       <c r="E8">
-        <v>-0.1104156867135884</v>
+        <v>0.8011579</v>
       </c>
       <c r="F8">
-        <v>-0.03042802330473879</v>
+        <v>0.01246785780908882</v>
       </c>
       <c r="G8">
-        <v>0.1495256910704528</v>
+        <v>0.01620269332261811</v>
       </c>
       <c r="H8">
-        <v>0.3665363238178662</v>
+        <v>0.003734835513529286</v>
       </c>
       <c r="I8">
-        <v>-2.628749906221892</v>
+        <v>-0.04380016063604917</v>
+      </c>
+      <c r="J8">
+        <v>0.05126983166310774</v>
+      </c>
+      <c r="K8">
+        <v>0.8866704771970065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_all</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mpo1</t>
+          <t>aat1</t>
         </is>
       </c>
       <c r="C9">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D9">
-        <v>767</v>
+        <v>0.2297078</v>
       </c>
       <c r="E9">
-        <v>-0.09642223039779414</v>
+        <v>0.8011579</v>
       </c>
       <c r="F9">
-        <v>-0.0370512365620911</v>
+        <v>-0.1248406856669598</v>
       </c>
       <c r="G9">
-        <v>0.1904498519366875</v>
+        <v>-0.1130820784998417</v>
       </c>
       <c r="H9">
-        <v>0.2507866464987985</v>
+        <v>0.01175860716711812</v>
       </c>
       <c r="I9">
-        <v>-1.60240249299664</v>
+        <v>-0.03204552435376228</v>
+      </c>
+      <c r="J9">
+        <v>0.05556273868799851</v>
+      </c>
+      <c r="K9">
+        <v>0.6111611180418326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_no4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>neo1</t>
+          <t>mpo1</t>
         </is>
       </c>
       <c r="C10">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D10">
-        <v>768</v>
+        <v>4285.48065</v>
       </c>
       <c r="E10">
-        <v>0.1396747308864631</v>
+        <v>19821.74375</v>
       </c>
       <c r="F10">
-        <v>0.1574875427849645</v>
+        <v>0.0746215381418108</v>
       </c>
       <c r="G10">
-        <v>0.0697202822196643</v>
+        <v>0.00788084241190604</v>
       </c>
       <c r="H10">
-        <v>0.04573193602110219</v>
+        <v>-0.06674069572990476</v>
       </c>
       <c r="I10">
-        <v>0.1131061643575407</v>
+        <v>-0.1334139115675538</v>
+      </c>
+      <c r="J10">
+        <v>-6.747989225577844e-05</v>
+      </c>
+      <c r="K10">
+        <v>0.04938619032521363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_no4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>neo1</t>
+          <t>mpo1</t>
         </is>
       </c>
       <c r="C11">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D11">
-        <v>768</v>
+        <v>4293.9336</v>
       </c>
       <c r="E11">
-        <v>0.05521527881623735</v>
+        <v>19823.689</v>
       </c>
       <c r="F11">
-        <v>0.1035021623789825</v>
+        <v>0.1103240737599749</v>
       </c>
       <c r="G11">
-        <v>0.470259001929198</v>
+        <v>0.1343157430270778</v>
       </c>
       <c r="H11">
-        <v>0.1937881751179691</v>
+        <v>0.02399166926710282</v>
       </c>
       <c r="I11">
-        <v>0.4665301907987042</v>
+        <v>-0.2270636967169867</v>
+      </c>
+      <c r="J11">
+        <v>0.2750470352511924</v>
+      </c>
+      <c r="K11">
+        <v>0.8616626870182504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_no4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>neo1</t>
+          <t>mpo1</t>
         </is>
       </c>
       <c r="C12">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D12">
-        <v>768</v>
+        <v>4288.2983</v>
       </c>
       <c r="E12">
-        <v>0.1511486453582206</v>
+        <v>19819.7985</v>
       </c>
       <c r="F12">
-        <v>0.2086005077140167</v>
+        <v>0.06007029351630092</v>
       </c>
       <c r="G12">
-        <v>0.06746107569916637</v>
+        <v>-0.05034539319728752</v>
       </c>
       <c r="H12">
-        <v>0.01524603902894358</v>
+        <v>-0.1104156867135884</v>
       </c>
       <c r="I12">
-        <v>0.2754157359701176</v>
+        <v>-0.2604215903647618</v>
+      </c>
+      <c r="J12">
+        <v>0.03959021693758492</v>
+      </c>
+      <c r="K12">
+        <v>0.1495256910704528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_no4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>neo1</t>
+          <t>mpo1</t>
         </is>
       </c>
       <c r="C13">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D13">
-        <v>768</v>
+        <v>4288.2983</v>
       </c>
       <c r="E13">
-        <v>0.1348839056639985</v>
+        <v>19819.7985</v>
       </c>
       <c r="F13">
-        <v>0.2005235301276853</v>
+        <v>-0.04348933699820914</v>
       </c>
       <c r="G13">
-        <v>0.1099988153248812</v>
+        <v>-0.1399115673960033</v>
       </c>
       <c r="H13">
-        <v>0.03886193394109631</v>
+        <v>-0.09642223039779414</v>
       </c>
       <c r="I13">
-        <v>0.3273412572673648</v>
+        <v>-0.240371606666659</v>
+      </c>
+      <c r="J13">
+        <v>0.04752714587107067</v>
+      </c>
+      <c r="K13">
+        <v>0.1904498519366875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_all</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>L_conc_t1</t>
+          <t>mpo1</t>
         </is>
       </c>
       <c r="C14">
-        <v>946</v>
+        <v>767</v>
       </c>
       <c r="D14">
-        <v>948</v>
+        <v>4244.6775</v>
       </c>
       <c r="E14">
-        <v>0.03648644438971776</v>
+        <v>19819.7985</v>
       </c>
       <c r="F14">
-        <v>0.07032569010283983</v>
+        <v>0.07546567646788477</v>
       </c>
       <c r="G14">
-        <v>0.7688116603615279</v>
+        <v>0.01297271386818256</v>
       </c>
       <c r="H14">
-        <v>0.5762262133322021</v>
+        <v>-0.0624929625997022</v>
       </c>
       <c r="I14">
-        <v>0.4811790067561043</v>
+        <v>-0.1301798847710062</v>
+      </c>
+      <c r="J14">
+        <v>0.005193959571601833</v>
+      </c>
+      <c r="K14">
+        <v>0.0699666252065687</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_all</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>L_conc_t1</t>
+          <t>mpo1</t>
         </is>
       </c>
       <c r="C15">
-        <v>944</v>
+        <v>767</v>
       </c>
       <c r="D15">
-        <v>948</v>
+        <v>4244.6775</v>
       </c>
       <c r="E15">
-        <v>-3.817553734995232e-11</v>
+        <v>19819.7985</v>
       </c>
       <c r="F15">
-        <v>-1.322182768828083e-11</v>
+        <v>0.06000436420479705</v>
       </c>
       <c r="G15">
-        <v>0.9999752986052546</v>
+        <v>0.1141368994759428</v>
       </c>
       <c r="H15">
-        <v>0.9999895188837933</v>
+        <v>0.05413253527114577</v>
       </c>
       <c r="I15">
-        <v>-1.887311667492779</v>
+        <v>-0.1964695000191493</v>
+      </c>
+      <c r="J15">
+        <v>0.3047345705614408</v>
+      </c>
+      <c r="K15">
+        <v>0.685140600682432</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_all</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>L_conc_t1</t>
+          <t>mpo1</t>
         </is>
       </c>
       <c r="C16">
-        <v>943</v>
+        <v>767</v>
       </c>
       <c r="D16">
-        <v>948</v>
+        <v>4244.6775</v>
       </c>
       <c r="E16">
-        <v>9.19530603561722e-07</v>
+        <v>19819.7985</v>
       </c>
       <c r="F16">
-        <v>0.05046051304049208</v>
+        <v>0.03960759996684311</v>
       </c>
       <c r="G16">
-        <v>0.4346082352416721</v>
+        <v>0.009179576662104319</v>
       </c>
       <c r="H16">
-        <v>0.6706885987857295</v>
+        <v>-0.03042802330473879</v>
       </c>
       <c r="I16">
-        <v>0.9999817772244443</v>
+        <v>-0.09564010722536469</v>
+      </c>
+      <c r="J16">
+        <v>0.03478406061588711</v>
+      </c>
+      <c r="K16">
+        <v>0.3665363238178662</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_all</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>L_conc_t1</t>
+          <t>mpo1</t>
         </is>
       </c>
       <c r="C17">
-        <v>944</v>
+        <v>767</v>
       </c>
       <c r="D17">
-        <v>948</v>
+        <v>4244.6775</v>
       </c>
       <c r="E17">
-        <v>-0.005131777379005095</v>
+        <v>19819.7985</v>
       </c>
       <c r="F17">
-        <v>0.02894133294208512</v>
+        <v>-0.08810203186175078</v>
       </c>
       <c r="G17">
-        <v>0.8292617559056494</v>
+        <v>-0.1251532684238419</v>
       </c>
       <c r="H17">
-        <v>0.801943323732609</v>
+        <v>-0.0370512365620911</v>
       </c>
       <c r="I17">
-        <v>1.177316552394956</v>
+        <v>-0.09992400822925179</v>
+      </c>
+      <c r="J17">
+        <v>0.02582153510506958</v>
+      </c>
+      <c r="K17">
+        <v>0.2507866464987985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_no4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M_conc_t1</t>
+          <t>neo1</t>
         </is>
       </c>
       <c r="C18">
-        <v>946</v>
+        <v>767</v>
       </c>
       <c r="D18">
-        <v>948</v>
+        <v>918.33174</v>
       </c>
       <c r="E18">
-        <v>-0.03085221443527438</v>
+        <v>2332.3492</v>
       </c>
       <c r="F18">
-        <v>-0.0281018358588562</v>
+        <v>-0.01122415623964136</v>
       </c>
       <c r="G18">
-        <v>0.1341844510497002</v>
+        <v>0.1284505746468217</v>
       </c>
       <c r="H18">
-        <v>0.1809099304725955</v>
+        <v>0.1396747308864631</v>
       </c>
       <c r="I18">
-        <v>-0.09787184688687907</v>
+        <v>-0.01147623342694096</v>
+      </c>
+      <c r="J18">
+        <v>0.2908256951998672</v>
+      </c>
+      <c r="K18">
+        <v>0.0697202822196643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_no4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>M_conc_t1</t>
+          <t>neo1</t>
         </is>
       </c>
       <c r="C19">
-        <v>944</v>
+        <v>762</v>
       </c>
       <c r="D19">
-        <v>948</v>
+        <v>919.5907500000001</v>
       </c>
       <c r="E19">
-        <v>0.009620420406050234</v>
+        <v>2332.197125</v>
       </c>
       <c r="F19">
-        <v>0.0114865930097945</v>
+        <v>0.1093381508791628</v>
       </c>
       <c r="G19">
-        <v>0.6277387371373134</v>
+        <v>0.1645534296954001</v>
       </c>
       <c r="H19">
-        <v>0.5448583309930062</v>
+        <v>0.05521527881623735</v>
       </c>
       <c r="I19">
-        <v>0.1624652847152326</v>
+        <v>-0.09161326171673408</v>
+      </c>
+      <c r="J19">
+        <v>0.2020438193492088</v>
+      </c>
+      <c r="K19">
+        <v>0.470259001929198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_no4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M_conc_t1</t>
+          <t>neo1</t>
         </is>
       </c>
       <c r="C20">
-        <v>943</v>
+        <v>764</v>
       </c>
       <c r="D20">
-        <v>948</v>
+        <v>920.45225</v>
       </c>
       <c r="E20">
-        <v>-0.004285432713630722</v>
+        <v>2337.7548</v>
       </c>
       <c r="F20">
-        <v>-0.0003677802573873289</v>
+        <v>-0.0181975572609884</v>
       </c>
       <c r="G20">
-        <v>0.8391101309721352</v>
+        <v>0.1329510880972322</v>
       </c>
       <c r="H20">
-        <v>0.986773198790769</v>
+        <v>0.1511486453582206</v>
       </c>
       <c r="I20">
-        <v>-10.65215540408278</v>
+        <v>-0.01109578654878604</v>
+      </c>
+      <c r="J20">
+        <v>0.3133930772652272</v>
+      </c>
+      <c r="K20">
+        <v>0.06746107569916637</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_no4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M_conc_t1</t>
+          <t>neo1</t>
         </is>
       </c>
       <c r="C21">
-        <v>944</v>
+        <v>764</v>
       </c>
       <c r="D21">
-        <v>948</v>
+        <v>918.74587</v>
       </c>
       <c r="E21">
-        <v>0.08742299827013797</v>
+        <v>2332.2831</v>
       </c>
       <c r="F21">
-        <v>0.009564385164482917</v>
+        <v>-0.1211391162921192</v>
       </c>
       <c r="G21">
-        <v>0.4541203730411344</v>
+        <v>0.0137447893718793</v>
       </c>
       <c r="H21">
-        <v>0.6339435596472874</v>
+        <v>0.1348839056639985</v>
       </c>
       <c r="I21">
-        <v>-8.14047236353267</v>
+        <v>-0.03059512777015372</v>
+      </c>
+      <c r="J21">
+        <v>0.3003629390981506</v>
+      </c>
+      <c r="K21">
+        <v>0.1099988153248812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_all</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>aat2</t>
+          <t>neo1</t>
         </is>
       </c>
       <c r="C22">
-        <v>1338</v>
+        <v>768</v>
       </c>
       <c r="D22">
-        <v>1341</v>
+        <v>917.476365</v>
       </c>
       <c r="E22">
-        <v>0.1569601512246135</v>
+        <v>2332.2831</v>
       </c>
       <c r="F22">
-        <v>0.1500672598950913</v>
+        <v>-0.01547239145993308</v>
       </c>
       <c r="G22">
-        <v>0.09259852070261805</v>
+        <v>0.1420151513250315</v>
       </c>
       <c r="H22">
-        <v>0.119228075809969</v>
+        <v>0.1574875427849645</v>
       </c>
       <c r="I22">
-        <v>-0.04593201298098492</v>
+        <v>0.002725500771095818</v>
+      </c>
+      <c r="J22">
+        <v>0.3122495847988332</v>
+      </c>
+      <c r="K22">
+        <v>0.04573193602110219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_all</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>aat2</t>
+          <t>neo1</t>
         </is>
       </c>
       <c r="C23">
-        <v>1329</v>
+        <v>768</v>
       </c>
       <c r="D23">
-        <v>1341</v>
+        <v>917.476365</v>
       </c>
       <c r="E23">
-        <v>0.06487918076058591</v>
+        <v>2332.2831</v>
       </c>
       <c r="F23">
-        <v>-0.01507026479740493</v>
+        <v>0.08452313430737585</v>
       </c>
       <c r="G23">
-        <v>0.5038169794530788</v>
+        <v>0.1880252966863584</v>
       </c>
       <c r="H23">
-        <v>0.669630718554056</v>
+        <v>0.1035021623789825</v>
       </c>
       <c r="I23">
-        <v>5.305112194960103</v>
+        <v>-0.05215811736958288</v>
+      </c>
+      <c r="J23">
+        <v>0.259162442127548</v>
+      </c>
+      <c r="K23">
+        <v>0.1937881751179691</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_all</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>aat2</t>
+          <t>neo1</t>
         </is>
       </c>
       <c r="C24">
-        <v>1332</v>
+        <v>768</v>
       </c>
       <c r="D24">
-        <v>1341</v>
+        <v>917.476365</v>
       </c>
       <c r="E24">
-        <v>0.07590173910164107</v>
+        <v>2332.2831</v>
       </c>
       <c r="F24">
-        <v>0.105454250104877</v>
+        <v>-0.05749951911031789</v>
       </c>
       <c r="G24">
-        <v>0.3839244780239995</v>
+        <v>0.1511009886036988</v>
       </c>
       <c r="H24">
-        <v>0.2619730618214851</v>
+        <v>0.2086005077140167</v>
       </c>
       <c r="I24">
-        <v>0.280240113355746</v>
+        <v>0.03995824281400667</v>
+      </c>
+      <c r="J24">
+        <v>0.3772427726140268</v>
+      </c>
+      <c r="K24">
+        <v>0.01524603902894358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_all</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>aat2</t>
+          <t>neo1</t>
         </is>
       </c>
       <c r="C25">
-        <v>1338</v>
+        <v>768</v>
       </c>
       <c r="D25">
-        <v>1341</v>
+        <v>917.476365</v>
       </c>
       <c r="E25">
-        <v>0.07895195841198628</v>
+        <v>2332.2831</v>
       </c>
       <c r="F25">
-        <v>0.1075606655206243</v>
+        <v>-0.2059476543175023</v>
       </c>
       <c r="G25">
-        <v>0.1103750993742061</v>
+        <v>-0.005424124189817031</v>
       </c>
       <c r="H25">
-        <v>0.2056791428375945</v>
+        <v>0.2005235301276853</v>
       </c>
       <c r="I25">
-        <v>0.2659774088433141</v>
+        <v>0.009938922282632823</v>
+      </c>
+      <c r="J25">
+        <v>0.3911081379727377</v>
+      </c>
+      <c r="K25">
+        <v>0.03886193394109631</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_no4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mpo2</t>
+          <t>L_conc_t1</t>
         </is>
       </c>
       <c r="C26">
-        <v>1337</v>
+        <v>946</v>
       </c>
       <c r="D26">
-        <v>1340</v>
+        <v>0.21206395</v>
       </c>
       <c r="E26">
-        <v>0.006455079359450477</v>
+        <v>0.9839051</v>
       </c>
       <c r="F26">
-        <v>0.009456386644320134</v>
+        <v>-0.005895299820809848</v>
       </c>
       <c r="G26">
-        <v>0.7659903918888573</v>
+        <v>0.03059114456890792</v>
       </c>
       <c r="H26">
-        <v>0.6646856248062584</v>
+        <v>0.03648644438971776</v>
       </c>
       <c r="I26">
-        <v>0.3173841550432328</v>
+        <v>-0.1936982506663138</v>
+      </c>
+      <c r="J26">
+        <v>0.2666711394457493</v>
+      </c>
+      <c r="K26">
+        <v>0.7688116603615279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_no4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mpo2</t>
+          <t>L_conc_t1</t>
         </is>
       </c>
       <c r="C27">
-        <v>1328</v>
+        <v>944</v>
       </c>
       <c r="D27">
-        <v>1340</v>
+        <v>0.211418975</v>
       </c>
       <c r="E27">
-        <v>0.002524776987732523</v>
+        <v>0.9848725749999999</v>
       </c>
       <c r="F27">
-        <v>-1.105176821951289e-10</v>
+        <v>0.1129751624110039</v>
       </c>
       <c r="G27">
-        <v>0.9045864356626154</v>
+        <v>0.1129751623728284</v>
       </c>
       <c r="H27">
-        <v>0.9999710858575335</v>
+        <v>-3.817553734995232e-11</v>
       </c>
       <c r="I27">
-        <v>22845005.86786181</v>
+        <v>-2.171950184052144e-06</v>
+      </c>
+      <c r="J27">
+        <v>2.171873832977445e-06</v>
+      </c>
+      <c r="K27">
+        <v>0.9999752986052546</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_no4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mpo2</t>
+          <t>L_conc_t1</t>
         </is>
       </c>
       <c r="C28">
-        <v>1331</v>
+        <v>943</v>
       </c>
       <c r="D28">
-        <v>1340</v>
+        <v>0.21103295</v>
       </c>
       <c r="E28">
-        <v>-0.006670166992178135</v>
+        <v>0.9835826</v>
       </c>
       <c r="F28">
-        <v>-0.003543671427216775</v>
+        <v>0.07721856083292672</v>
       </c>
       <c r="G28">
-        <v>0.7427056356476787</v>
+        <v>0.07721947944551182</v>
       </c>
       <c r="H28">
-        <v>0.8692505723144492</v>
+        <v>9.19530603561722e-07</v>
       </c>
       <c r="I28">
-        <v>-0.8822758060887524</v>
+        <v>-1.346717223281928e-06</v>
+      </c>
+      <c r="J28">
+        <v>3.185778430405371e-06</v>
+      </c>
+      <c r="K28">
+        <v>0.4346082352416721</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_no4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mpo2</t>
+          <t>L_conc_t1</t>
         </is>
       </c>
       <c r="C29">
-        <v>1337</v>
+        <v>944</v>
       </c>
       <c r="D29">
-        <v>1340</v>
+        <v>0.211418975</v>
       </c>
       <c r="E29">
-        <v>-0.006955503614924903</v>
+        <v>0.9832601</v>
       </c>
       <c r="F29">
-        <v>-0.008206060358929689</v>
+        <v>-6.356270976708882e-05</v>
       </c>
       <c r="G29">
-        <v>0.7211265602397594</v>
+        <v>-0.005195340088772183</v>
       </c>
       <c r="H29">
-        <v>0.678626327400139</v>
+        <v>-0.005131777379005095</v>
       </c>
       <c r="I29">
-        <v>0.1523942902325783</v>
+        <v>-0.04880011794803286</v>
+      </c>
+      <c r="J29">
+        <v>0.03853656319002267</v>
+      </c>
+      <c r="K29">
+        <v>0.8292617559056494</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_all</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>neo2</t>
+          <t>L_conc_t1</t>
         </is>
       </c>
       <c r="C30">
-        <v>1338</v>
+        <v>948</v>
       </c>
       <c r="D30">
-        <v>1341</v>
+        <v>0.211418975</v>
       </c>
       <c r="E30">
-        <v>0.01143943096516591</v>
+        <v>0.9832601</v>
       </c>
       <c r="F30">
-        <v>0.002976886947639412</v>
+        <v>-0.02650295648627907</v>
       </c>
       <c r="G30">
-        <v>0.6828775636587086</v>
+        <v>0.04382273361656076</v>
       </c>
       <c r="H30">
-        <v>0.9783614367587606</v>
+        <v>0.07032569010283983</v>
       </c>
       <c r="I30">
-        <v>-2.842749545540203</v>
+        <v>-0.1688922479081523</v>
+      </c>
+      <c r="J30">
+        <v>0.309543628113832</v>
+      </c>
+      <c r="K30">
+        <v>0.5762262133322021</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_all</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>neo2</t>
+          <t>L_conc_t1</t>
         </is>
       </c>
       <c r="C31">
-        <v>1329</v>
+        <v>948</v>
       </c>
       <c r="D31">
-        <v>1341</v>
+        <v>0.211418975</v>
       </c>
       <c r="E31">
-        <v>0.01409221639535589</v>
+        <v>0.9832601</v>
       </c>
       <c r="F31">
-        <v>0.01246610170402866</v>
+        <v>0.1190109987781155</v>
       </c>
       <c r="G31">
-        <v>0.5880566023286411</v>
+        <v>0.1190109987648936</v>
       </c>
       <c r="H31">
-        <v>0.6415886703284076</v>
+        <v>-1.322182768828083e-11</v>
       </c>
       <c r="I31">
-        <v>-0.1304429187194684</v>
+        <v>-1.772816684255837e-06</v>
+      </c>
+      <c r="J31">
+        <v>1.772790240600461e-06</v>
+      </c>
+      <c r="K31">
+        <v>0.9999895188837933</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_all</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>neo2</t>
+          <t>L_conc_t1</t>
         </is>
       </c>
       <c r="C32">
-        <v>1332</v>
+        <v>948</v>
       </c>
       <c r="D32">
-        <v>1341</v>
+        <v>0.211418975</v>
       </c>
       <c r="E32">
-        <v>-0.02121280625055749</v>
+        <v>0.9832601</v>
       </c>
       <c r="F32">
-        <v>-0.0330132215642903</v>
+        <v>-0.03373798640295309</v>
       </c>
       <c r="G32">
-        <v>0.818201335054717</v>
+        <v>0.01672252663753901</v>
       </c>
       <c r="H32">
-        <v>0.7316225840750129</v>
+        <v>0.05046051304049208</v>
       </c>
       <c r="I32">
-        <v>0.3574451312106138</v>
+        <v>-0.1727125222650484</v>
+      </c>
+      <c r="J32">
+        <v>0.2736335483460325</v>
+      </c>
+      <c r="K32">
+        <v>0.6706885987857295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_all</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>neo2</t>
+          <t>L_conc_t1</t>
         </is>
       </c>
       <c r="C33">
-        <v>1338</v>
+        <v>948</v>
       </c>
       <c r="D33">
-        <v>1341</v>
+        <v>0.211418975</v>
       </c>
       <c r="E33">
-        <v>0.003358063174183998</v>
+        <v>0.9832601</v>
       </c>
       <c r="F33">
-        <v>0.03898687467590285</v>
+        <v>-0.1156341456392247</v>
       </c>
       <c r="G33">
-        <v>0.9713296401395324</v>
+        <v>-0.08669281269713955</v>
       </c>
       <c r="H33">
-        <v>0.1153495885751826</v>
+        <v>0.02894133294208512</v>
       </c>
       <c r="I33">
-        <v>0.9138668282056585</v>
+        <v>-0.1838326045377664</v>
+      </c>
+      <c r="J33">
+        <v>0.2417152704219366</v>
+      </c>
+      <c r="K33">
+        <v>0.801943323732609</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_no4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>L_conc_t2</t>
+          <t>M_conc_t1</t>
         </is>
       </c>
       <c r="C34">
-        <v>1302</v>
+        <v>946</v>
       </c>
       <c r="D34">
-        <v>1305</v>
+        <v>2.0094515</v>
       </c>
       <c r="E34">
-        <v>-0.03904553719836785</v>
+        <v>8.264853499999999</v>
       </c>
       <c r="F34">
-        <v>-0.01632276086875591</v>
+        <v>0.1079218441511242</v>
       </c>
       <c r="G34">
-        <v>0.6242272523372143</v>
+        <v>0.07706962971584981</v>
       </c>
       <c r="H34">
-        <v>0.8337229021764141</v>
+        <v>-0.03085221443527438</v>
       </c>
       <c r="I34">
-        <v>-1.392091479640958</v>
+        <v>-0.07120631382414391</v>
+      </c>
+      <c r="J34">
+        <v>0.009501884953595149</v>
+      </c>
+      <c r="K34">
+        <v>0.1341844510497002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_no4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>L_conc_t2</t>
+          <t>M_conc_t1</t>
         </is>
       </c>
       <c r="C35">
-        <v>1297</v>
+        <v>944</v>
       </c>
       <c r="D35">
-        <v>1305</v>
+        <v>2.0060325</v>
       </c>
       <c r="E35">
-        <v>-0.1146235073968982</v>
+        <v>8.2442685</v>
       </c>
       <c r="F35">
-        <v>-0.1027037818111149</v>
+        <v>0.1044424866977154</v>
       </c>
       <c r="G35">
-        <v>0.01956247129909006</v>
+        <v>0.1140629071037656</v>
       </c>
       <c r="H35">
-        <v>0.03613871297173015</v>
+        <v>0.009620420406050234</v>
       </c>
       <c r="I35">
-        <v>-0.1160592665195636</v>
+        <v>-0.02788453588585046</v>
+      </c>
+      <c r="J35">
+        <v>0.04712537669795092</v>
+      </c>
+      <c r="K35">
+        <v>0.6277387371373134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_no4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>L_conc_t2</t>
+          <t>M_conc_t1</t>
         </is>
       </c>
       <c r="C36">
-        <v>1297</v>
+        <v>943</v>
       </c>
       <c r="D36">
-        <v>1305</v>
+        <v>2.003224</v>
       </c>
       <c r="E36">
-        <v>-0.1342155867168292</v>
+        <v>8.254560999999999</v>
       </c>
       <c r="F36">
-        <v>-0.1133674371209691</v>
+        <v>0.08114315466035667</v>
       </c>
       <c r="G36">
-        <v>0.0746667472633718</v>
+        <v>0.07685772194672597</v>
       </c>
       <c r="H36">
-        <v>0.1360219679608112</v>
+        <v>-0.004285432713630722</v>
       </c>
       <c r="I36">
-        <v>-0.1838989230533103</v>
+        <v>-0.04294586799628327</v>
+      </c>
+      <c r="J36">
+        <v>0.03437500256902182</v>
+      </c>
+      <c r="K36">
+        <v>0.8391101309721352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_no4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>L_conc_t2</t>
+          <t>M_conc_t1</t>
         </is>
       </c>
       <c r="C37">
-        <v>1302</v>
+        <v>944</v>
       </c>
       <c r="D37">
-        <v>1305</v>
+        <v>2.0060325</v>
       </c>
       <c r="E37">
-        <v>-0.08363477992693383</v>
+        <v>8.2912705</v>
       </c>
       <c r="F37">
-        <v>-0.08851008172644707</v>
+        <v>0.007285394038350178</v>
       </c>
       <c r="G37">
-        <v>0.2667579303024778</v>
+        <v>0.09470839230848817</v>
       </c>
       <c r="H37">
-        <v>0.2384751022790607</v>
+        <v>0.08742299827013797</v>
       </c>
       <c r="I37">
-        <v>0.05508188111927244</v>
+        <v>-0.1371194355768482</v>
+      </c>
+      <c r="J37">
+        <v>0.3119654321171242</v>
+      </c>
+      <c r="K37">
+        <v>0.4541203730411344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>z_age2mo_personal_all</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M_conc_t2</t>
+          <t>M_conc_t1</t>
         </is>
       </c>
       <c r="C38">
-        <v>1302</v>
+        <v>948</v>
       </c>
       <c r="D38">
-        <v>1305</v>
+        <v>2.0060325</v>
       </c>
       <c r="E38">
-        <v>-0.06664741160750384</v>
+        <v>8.2442685</v>
       </c>
       <c r="F38">
-        <v>-0.1163942439922983</v>
+        <v>0.1096918193946071</v>
       </c>
       <c r="G38">
-        <v>0.4454264822899703</v>
+        <v>0.08158998353575091</v>
       </c>
       <c r="H38">
-        <v>0.1932864360403027</v>
+        <v>-0.0281018358588562</v>
       </c>
       <c r="I38">
-        <v>0.4273994200957751</v>
+        <v>-0.06917245248175105</v>
+      </c>
+      <c r="J38">
+        <v>0.01296878076403866</v>
+      </c>
+      <c r="K38">
+        <v>0.1809099304725955</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>z_age2mo_motor_all</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M_conc_t2</t>
+          <t>M_conc_t1</t>
         </is>
       </c>
       <c r="C39">
-        <v>1297</v>
+        <v>948</v>
       </c>
       <c r="D39">
-        <v>1305</v>
+        <v>2.0060325</v>
       </c>
       <c r="E39">
-        <v>-0.05484865216214484</v>
+        <v>8.2442685</v>
       </c>
       <c r="F39">
-        <v>-0.2109059370113006</v>
+        <v>0.1088340122304826</v>
       </c>
       <c r="G39">
-        <v>0.1392139934717748</v>
+        <v>0.1203206052402771</v>
       </c>
       <c r="H39">
-        <v>0.004916357007366671</v>
+        <v>0.0114865930097945</v>
       </c>
       <c r="I39">
-        <v>0.7399378465139841</v>
+        <v>-0.0246944153917832</v>
+      </c>
+      <c r="J39">
+        <v>0.04766760141137219</v>
+      </c>
+      <c r="K39">
+        <v>0.5448583309930062</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>z_age2mo_combined_all</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M_conc_t2</t>
+          <t>M_conc_t1</t>
         </is>
       </c>
       <c r="C40">
-        <v>1297</v>
+        <v>948</v>
       </c>
       <c r="D40">
-        <v>1305</v>
+        <v>2.0060325</v>
       </c>
       <c r="E40">
-        <v>0.01360971707537369</v>
+        <v>8.2442685</v>
       </c>
       <c r="F40">
-        <v>-0.1299850267047005</v>
+        <v>0.06653234657542602</v>
       </c>
       <c r="G40">
-        <v>0.5559063939360782</v>
+        <v>0.06616456631803866</v>
       </c>
       <c r="H40">
-        <v>0.1082799889872837</v>
+        <v>-0.0003677802573873289</v>
       </c>
       <c r="I40">
-        <v>1.104702190863046</v>
+        <v>-0.03959848806342327</v>
+      </c>
+      <c r="J40">
+        <v>0.03886292754864861</v>
+      </c>
+      <c r="K40">
+        <v>0.986773198790769</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>z_age2mo_com_all</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>M_conc_t1</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>948</v>
+      </c>
+      <c r="D41">
+        <v>2.0060325</v>
+      </c>
+      <c r="E41">
+        <v>8.2442685</v>
+      </c>
+      <c r="F41">
+        <v>-0.04260893563755792</v>
+      </c>
+      <c r="G41">
+        <v>-0.03304455047307499</v>
+      </c>
+      <c r="H41">
+        <v>0.009564385164482917</v>
+      </c>
+      <c r="I41">
+        <v>-0.02837804137691621</v>
+      </c>
+      <c r="J41">
+        <v>0.04750681170588204</v>
+      </c>
+      <c r="K41">
+        <v>0.6339435596472874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_no4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>aat2</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>1338</v>
+      </c>
+      <c r="D42">
+        <v>0.25412755</v>
+      </c>
+      <c r="E42">
+        <v>0.889681175</v>
+      </c>
+      <c r="F42">
+        <v>0.1099673327950801</v>
+      </c>
+      <c r="G42">
+        <v>0.2669274840196936</v>
+      </c>
+      <c r="H42">
+        <v>0.1569601512246135</v>
+      </c>
+      <c r="I42">
+        <v>-0.02611861227876405</v>
+      </c>
+      <c r="J42">
+        <v>0.340038914727991</v>
+      </c>
+      <c r="K42">
+        <v>0.09259852070261805</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_no4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>aat2</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>1329</v>
+      </c>
+      <c r="D43">
+        <v>0.2532013</v>
+      </c>
+      <c r="E43">
+        <v>0.888563</v>
+      </c>
+      <c r="F43">
+        <v>0.1213647202325969</v>
+      </c>
+      <c r="G43">
+        <v>0.1862439009931828</v>
+      </c>
+      <c r="H43">
+        <v>0.06487918076058591</v>
+      </c>
+      <c r="I43">
+        <v>-0.120929256097763</v>
+      </c>
+      <c r="J43">
+        <v>0.2506876176189349</v>
+      </c>
+      <c r="K43">
+        <v>0.5038169794530788</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_no4</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>aat2</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>1332</v>
+      </c>
+      <c r="D44">
+        <v>0.25420985</v>
+      </c>
+      <c r="E44">
+        <v>0.891273675</v>
+      </c>
+      <c r="F44">
+        <v>0.09345800622509902</v>
+      </c>
+      <c r="G44">
+        <v>0.1693597453267401</v>
+      </c>
+      <c r="H44">
+        <v>0.07590173910164107</v>
+      </c>
+      <c r="I44">
+        <v>-0.09259778114957566</v>
+      </c>
+      <c r="J44">
+        <v>0.2444012593528578</v>
+      </c>
+      <c r="K44">
+        <v>0.3839244780239995</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_no4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>aat2</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>1338</v>
+      </c>
+      <c r="D45">
+        <v>0.254496125</v>
+      </c>
+      <c r="E45">
+        <v>0.8937132249999999</v>
+      </c>
+      <c r="F45">
+        <v>0.04215199010808558</v>
+      </c>
+      <c r="G45">
+        <v>0.1211039485200719</v>
+      </c>
+      <c r="H45">
+        <v>0.07895195841198628</v>
+      </c>
+      <c r="I45">
+        <v>-0.01800965120333048</v>
+      </c>
+      <c r="J45">
+        <v>0.175913568027303</v>
+      </c>
+      <c r="K45">
+        <v>0.1103750993742061</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_all</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>aat2</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>1341</v>
+      </c>
+      <c r="D46">
+        <v>0.2540864</v>
+      </c>
+      <c r="E46">
+        <v>0.8900539</v>
+      </c>
+      <c r="F46">
+        <v>0.1002249340798554</v>
+      </c>
+      <c r="G46">
+        <v>0.2502921939749468</v>
+      </c>
+      <c r="H46">
+        <v>0.1500672598950913</v>
+      </c>
+      <c r="I46">
+        <v>-0.03872999422696269</v>
+      </c>
+      <c r="J46">
+        <v>0.3388645140171453</v>
+      </c>
+      <c r="K46">
+        <v>0.119228075809969</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_all</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>aat2</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>1341</v>
+      </c>
+      <c r="D47">
+        <v>0.2540864</v>
+      </c>
+      <c r="E47">
+        <v>0.8900539</v>
+      </c>
+      <c r="F47">
+        <v>0.1124568088105909</v>
+      </c>
+      <c r="G47">
+        <v>0.09738654401318594</v>
+      </c>
+      <c r="H47">
+        <v>-0.01507026479740493</v>
+      </c>
+      <c r="I47">
+        <v>-0.08150408702417232</v>
+      </c>
+      <c r="J47">
+        <v>0.05136355742936245</v>
+      </c>
+      <c r="K47">
+        <v>0.669630718554056</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_all</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>aat2</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>1341</v>
+      </c>
+      <c r="D48">
+        <v>0.2540864</v>
+      </c>
+      <c r="E48">
+        <v>0.8900539</v>
+      </c>
+      <c r="F48">
+        <v>0.1090804302353372</v>
+      </c>
+      <c r="G48">
+        <v>0.2145346803402142</v>
+      </c>
+      <c r="H48">
+        <v>0.105454250104877</v>
+      </c>
+      <c r="I48">
+        <v>-0.07764208516258224</v>
+      </c>
+      <c r="J48">
+        <v>0.2885505853723362</v>
+      </c>
+      <c r="K48">
+        <v>0.2619730618214851</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_all</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>aat2</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>1341</v>
+      </c>
+      <c r="D49">
+        <v>0.2540864</v>
+      </c>
+      <c r="E49">
+        <v>0.8900539</v>
+      </c>
+      <c r="F49">
+        <v>0.04027941499515678</v>
+      </c>
+      <c r="G49">
+        <v>0.1478400805157811</v>
+      </c>
+      <c r="H49">
+        <v>0.1075606655206243</v>
+      </c>
+      <c r="I49">
+        <v>-0.0584472064610992</v>
+      </c>
+      <c r="J49">
+        <v>0.2735685375023479</v>
+      </c>
+      <c r="K49">
+        <v>0.2056791428375945</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_no4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>mpo2</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>1337</v>
+      </c>
+      <c r="D50">
+        <v>2731.177</v>
+      </c>
+      <c r="E50">
+        <v>10322.586</v>
+      </c>
+      <c r="F50">
+        <v>0.1553880788489112</v>
+      </c>
+      <c r="G50">
+        <v>0.1618431582083617</v>
+      </c>
+      <c r="H50">
+        <v>0.006455079359450477</v>
+      </c>
+      <c r="I50">
+        <v>-0.03378123256838825</v>
+      </c>
+      <c r="J50">
+        <v>0.04669139128728921</v>
+      </c>
+      <c r="K50">
+        <v>0.7659903918888573</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_no4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>mpo2</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>1328</v>
+      </c>
+      <c r="D51">
+        <v>2726.6665</v>
+      </c>
+      <c r="E51">
+        <v>10319.42625</v>
+      </c>
+      <c r="F51">
+        <v>0.119227685147151</v>
+      </c>
+      <c r="G51">
+        <v>0.1217524621348836</v>
+      </c>
+      <c r="H51">
+        <v>0.002524776987732523</v>
+      </c>
+      <c r="I51">
+        <v>-0.03552796054043399</v>
+      </c>
+      <c r="J51">
+        <v>0.04057751451589903</v>
+      </c>
+      <c r="K51">
+        <v>0.9045864356626154</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_no4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>mpo2</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>1331</v>
+      </c>
+      <c r="D52">
+        <v>2728.487</v>
+      </c>
+      <c r="E52">
+        <v>10315.122</v>
+      </c>
+      <c r="F52">
+        <v>0.1043681625887946</v>
+      </c>
+      <c r="G52">
+        <v>0.09769799559661645</v>
+      </c>
+      <c r="H52">
+        <v>-0.006670166992178135</v>
+      </c>
+      <c r="I52">
+        <v>-0.0445015456634254</v>
+      </c>
+      <c r="J52">
+        <v>0.03116121167906913</v>
+      </c>
+      <c r="K52">
+        <v>0.7427056356476787</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_no4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>mpo2</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>1337</v>
+      </c>
+      <c r="D53">
+        <v>2731.177</v>
+      </c>
+      <c r="E53">
+        <v>10311.871</v>
+      </c>
+      <c r="F53">
+        <v>0.06098360756255437</v>
+      </c>
+      <c r="G53">
+        <v>0.05402810394762947</v>
+      </c>
+      <c r="H53">
+        <v>-0.006955503614924903</v>
+      </c>
+      <c r="I53">
+        <v>-0.04335057922513252</v>
+      </c>
+      <c r="J53">
+        <v>0.02943957199528271</v>
+      </c>
+      <c r="K53">
+        <v>0.7211265602397594</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_all</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>mpo2</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>1340</v>
+      </c>
+      <c r="D54">
+        <v>2730.59025</v>
+      </c>
+      <c r="E54">
+        <v>10319.42625</v>
+      </c>
+      <c r="F54">
+        <v>0.1462041490430123</v>
+      </c>
+      <c r="G54">
+        <v>0.1556605356873325</v>
+      </c>
+      <c r="H54">
+        <v>0.009456386644320134</v>
+      </c>
+      <c r="I54">
+        <v>-0.03160183017880359</v>
+      </c>
+      <c r="J54">
+        <v>0.05051460346744387</v>
+      </c>
+      <c r="K54">
+        <v>0.6646856248062584</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_all</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>mpo2</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>1340</v>
+      </c>
+      <c r="D55">
+        <v>2730.59025</v>
+      </c>
+      <c r="E55">
+        <v>10319.42625</v>
+      </c>
+      <c r="F55">
+        <v>0.1018980596883846</v>
+      </c>
+      <c r="G55">
+        <v>0.1018980595778669</v>
+      </c>
+      <c r="H55">
+        <v>-1.105176821951289e-10</v>
+      </c>
+      <c r="I55">
+        <v>-5.371672124749506e-06</v>
+      </c>
+      <c r="J55">
+        <v>5.371451089385115e-06</v>
+      </c>
+      <c r="K55">
+        <v>0.9999710858575335</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_all</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>mpo2</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>1340</v>
+      </c>
+      <c r="D56">
+        <v>2730.59025</v>
+      </c>
+      <c r="E56">
+        <v>10319.42625</v>
+      </c>
+      <c r="F56">
+        <v>0.1074711760319053</v>
+      </c>
+      <c r="G56">
+        <v>0.1039275046046885</v>
+      </c>
+      <c r="H56">
+        <v>-0.003543671427216775</v>
+      </c>
+      <c r="I56">
+        <v>-0.04273770449990458</v>
+      </c>
+      <c r="J56">
+        <v>0.03565036164547104</v>
+      </c>
+      <c r="K56">
+        <v>0.8692505723144492</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_all</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>mpo2</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>1340</v>
+      </c>
+      <c r="D57">
+        <v>2730.59025</v>
+      </c>
+      <c r="E57">
+        <v>10319.42625</v>
+      </c>
+      <c r="F57">
+        <v>0.04649193169989694</v>
+      </c>
+      <c r="G57">
+        <v>0.03828587134096724</v>
+      </c>
+      <c r="H57">
+        <v>-0.008206060358929689</v>
+      </c>
+      <c r="I57">
+        <v>-0.04541285540703061</v>
+      </c>
+      <c r="J57">
+        <v>0.02900073468917122</v>
+      </c>
+      <c r="K57">
+        <v>0.678626327400139</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_no4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>neo2</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>1338</v>
+      </c>
+      <c r="D58">
+        <v>648.7747499999999</v>
+      </c>
+      <c r="E58">
+        <v>2078.04175</v>
+      </c>
+      <c r="F58">
+        <v>0.1598160670496528</v>
+      </c>
+      <c r="G58">
+        <v>0.1712554980148188</v>
+      </c>
+      <c r="H58">
+        <v>0.01143943096516591</v>
+      </c>
+      <c r="I58">
+        <v>-0.04113468644453911</v>
+      </c>
+      <c r="J58">
+        <v>0.06401354837487093</v>
+      </c>
+      <c r="K58">
+        <v>0.6828775636587086</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_no4</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>neo2</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>1329</v>
+      </c>
+      <c r="D59">
+        <v>648.766</v>
+      </c>
+      <c r="E59">
+        <v>2082.658</v>
+      </c>
+      <c r="F59">
+        <v>0.1109433929148274</v>
+      </c>
+      <c r="G59">
+        <v>0.1250356093101833</v>
+      </c>
+      <c r="H59">
+        <v>0.01409221639535589</v>
+      </c>
+      <c r="I59">
+        <v>-0.03530853483722517</v>
+      </c>
+      <c r="J59">
+        <v>0.06349296762793696</v>
+      </c>
+      <c r="K59">
+        <v>0.5880566023286411</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_no4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>neo2</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>1332</v>
+      </c>
+      <c r="D60">
+        <v>648.7922500000001</v>
+      </c>
+      <c r="E60">
+        <v>2079.89725</v>
+      </c>
+      <c r="F60">
+        <v>0.131986508046903</v>
+      </c>
+      <c r="G60">
+        <v>0.1107737017963455</v>
+      </c>
+      <c r="H60">
+        <v>-0.02121280625055749</v>
+      </c>
+      <c r="I60">
+        <v>-0.1909066501350602</v>
+      </c>
+      <c r="J60">
+        <v>0.1484810376339452</v>
+      </c>
+      <c r="K60">
+        <v>0.818201335054717</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_no4</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>neo2</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>1338</v>
+      </c>
+      <c r="D61">
+        <v>649.2840000000001</v>
+      </c>
+      <c r="E61">
+        <v>2078.04175</v>
+      </c>
+      <c r="F61">
+        <v>0.0778719373055696</v>
+      </c>
+      <c r="G61">
+        <v>0.08123000047975362</v>
+      </c>
+      <c r="H61">
+        <v>0.003358063174183998</v>
+      </c>
+      <c r="I61">
+        <v>-0.1626041828894163</v>
+      </c>
+      <c r="J61">
+        <v>0.1693203092377843</v>
+      </c>
+      <c r="K61">
+        <v>0.9713296401395324</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_all</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>neo2</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>1341</v>
+      </c>
+      <c r="D62">
+        <v>648.766</v>
+      </c>
+      <c r="E62">
+        <v>2078.977</v>
+      </c>
+      <c r="F62">
+        <v>0.171218894283864</v>
+      </c>
+      <c r="G62">
+        <v>0.1741957812315034</v>
+      </c>
+      <c r="H62">
+        <v>0.002976886947639412</v>
+      </c>
+      <c r="I62">
+        <v>-0.1915855231395192</v>
+      </c>
+      <c r="J62">
+        <v>0.1975392970347981</v>
+      </c>
+      <c r="K62">
+        <v>0.9783614367587606</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_all</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>neo2</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>1341</v>
+      </c>
+      <c r="D63">
+        <v>648.766</v>
+      </c>
+      <c r="E63">
+        <v>2078.977</v>
+      </c>
+      <c r="F63">
+        <v>0.09281955664873601</v>
+      </c>
+      <c r="G63">
+        <v>0.1052856583527647</v>
+      </c>
+      <c r="H63">
+        <v>0.01246610170402866</v>
+      </c>
+      <c r="I63">
+        <v>-0.03807902035991332</v>
+      </c>
+      <c r="J63">
+        <v>0.06301122376797064</v>
+      </c>
+      <c r="K63">
+        <v>0.6415886703284076</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_all</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>neo2</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>1341</v>
+      </c>
+      <c r="D64">
+        <v>648.766</v>
+      </c>
+      <c r="E64">
+        <v>2078.977</v>
+      </c>
+      <c r="F64">
+        <v>0.1440937291238849</v>
+      </c>
+      <c r="G64">
+        <v>0.1110805075595946</v>
+      </c>
+      <c r="H64">
+        <v>-0.0330132215642903</v>
+      </c>
+      <c r="I64">
+        <v>-0.2125277854445705</v>
+      </c>
+      <c r="J64">
+        <v>0.1465013423159898</v>
+      </c>
+      <c r="K64">
+        <v>0.7316225840750129</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_all</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>neo2</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>1341</v>
+      </c>
+      <c r="D65">
+        <v>648.766</v>
+      </c>
+      <c r="E65">
+        <v>2078.977</v>
+      </c>
+      <c r="F65">
+        <v>0.0229776047665771</v>
+      </c>
+      <c r="G65">
+        <v>0.06196447944247994</v>
+      </c>
+      <c r="H65">
+        <v>0.03898687467590285</v>
+      </c>
+      <c r="I65">
+        <v>-0.009551821790859921</v>
+      </c>
+      <c r="J65">
+        <v>0.08752557114266561</v>
+      </c>
+      <c r="K65">
+        <v>0.1153495885751826</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_no4</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>L_conc_t2</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>1302</v>
+      </c>
+      <c r="D66">
+        <v>0.146860175</v>
+      </c>
+      <c r="E66">
+        <v>0.5959701500000001</v>
+      </c>
+      <c r="F66">
+        <v>0.1928129574016766</v>
+      </c>
+      <c r="G66">
+        <v>0.1537674202033088</v>
+      </c>
+      <c r="H66">
+        <v>-0.03904553719836785</v>
+      </c>
+      <c r="I66">
+        <v>-0.1897847687601809</v>
+      </c>
+      <c r="J66">
+        <v>0.1116936943634452</v>
+      </c>
+      <c r="K66">
+        <v>0.6242272523372143</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_no4</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>L_conc_t2</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>1297</v>
+      </c>
+      <c r="D67">
+        <v>0.1478276</v>
+      </c>
+      <c r="E67">
+        <v>0.5933744</v>
+      </c>
+      <c r="F67">
+        <v>0.1857905896178314</v>
+      </c>
+      <c r="G67">
+        <v>0.07116708222093321</v>
+      </c>
+      <c r="H67">
+        <v>-0.1146235073968982</v>
+      </c>
+      <c r="I67">
+        <v>-0.210965459059574</v>
+      </c>
+      <c r="J67">
+        <v>-0.0182815557342224</v>
+      </c>
+      <c r="K67">
+        <v>0.01956247129909006</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_no4</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>L_conc_t2</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>1297</v>
+      </c>
+      <c r="D68">
+        <v>0.1478276</v>
+      </c>
+      <c r="E68">
+        <v>0.5959544</v>
+      </c>
+      <c r="F68">
+        <v>0.1818830165910699</v>
+      </c>
+      <c r="G68">
+        <v>0.04766742987424076</v>
+      </c>
+      <c r="H68">
+        <v>-0.1342155867168292</v>
+      </c>
+      <c r="I68">
+        <v>-0.2819882004239701</v>
+      </c>
+      <c r="J68">
+        <v>0.01355702699031167</v>
+      </c>
+      <c r="K68">
+        <v>0.0746667472633718</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_no4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>L_conc_t2</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>1302</v>
+      </c>
+      <c r="D69">
+        <v>0.146860175</v>
+      </c>
+      <c r="E69">
+        <v>0.5959701500000001</v>
+      </c>
+      <c r="F69">
+        <v>0.09436903677868781</v>
+      </c>
+      <c r="G69">
+        <v>0.01073425685175397</v>
+      </c>
+      <c r="H69">
+        <v>-0.08363477992693383</v>
+      </c>
+      <c r="I69">
+        <v>-0.2302702692361479</v>
+      </c>
+      <c r="J69">
+        <v>0.06300070938228028</v>
+      </c>
+      <c r="K69">
+        <v>0.2667579303024778</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_all</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>L_conc_t2</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>1305</v>
+      </c>
+      <c r="D70">
+        <v>0.1478276</v>
+      </c>
+      <c r="E70">
+        <v>0.5959544</v>
+      </c>
+      <c r="F70">
+        <v>0.1733247355457942</v>
+      </c>
+      <c r="G70">
+        <v>0.1570019746770383</v>
+      </c>
+      <c r="H70">
+        <v>-0.01632276086875591</v>
+      </c>
+      <c r="I70">
+        <v>-0.1588842077942463</v>
+      </c>
+      <c r="J70">
+        <v>0.1262386860567345</v>
+      </c>
+      <c r="K70">
+        <v>0.8337229021764141</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_all</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>L_conc_t2</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>1305</v>
+      </c>
+      <c r="D71">
+        <v>0.1478276</v>
+      </c>
+      <c r="E71">
+        <v>0.5959544</v>
+      </c>
+      <c r="F71">
+        <v>0.1692909907321464</v>
+      </c>
+      <c r="G71">
+        <v>0.06658720892103155</v>
+      </c>
+      <c r="H71">
+        <v>-0.1027037818111149</v>
+      </c>
+      <c r="I71">
+        <v>-0.1989306245997795</v>
+      </c>
+      <c r="J71">
+        <v>-0.006476939022450307</v>
+      </c>
+      <c r="K71">
+        <v>0.03613871297173015</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_all</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>L_conc_t2</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>1305</v>
+      </c>
+      <c r="D72">
+        <v>0.1478276</v>
+      </c>
+      <c r="E72">
+        <v>0.5959544</v>
+      </c>
+      <c r="F72">
+        <v>0.1794890837464025</v>
+      </c>
+      <c r="G72">
+        <v>0.06612164662543342</v>
+      </c>
+      <c r="H72">
+        <v>-0.1133674371209691</v>
+      </c>
+      <c r="I72">
+        <v>-0.2623394162133708</v>
+      </c>
+      <c r="J72">
+        <v>0.03560454197143259</v>
+      </c>
+      <c r="K72">
+        <v>0.1360219679608112</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_all</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>L_conc_t2</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>1305</v>
+      </c>
+      <c r="D73">
+        <v>0.1478276</v>
+      </c>
+      <c r="E73">
+        <v>0.5959544</v>
+      </c>
+      <c r="F73">
+        <v>0.0800577479807964</v>
+      </c>
+      <c r="G73">
+        <v>-0.008452333745650674</v>
+      </c>
+      <c r="H73">
+        <v>-0.08851008172644707</v>
+      </c>
+      <c r="I73">
+        <v>-0.2349291598226859</v>
+      </c>
+      <c r="J73">
+        <v>0.05790899636979173</v>
+      </c>
+      <c r="K73">
+        <v>0.2384751022790607</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_no4</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>M_conc_t2</t>
         </is>
       </c>
-      <c r="C41">
+      <c r="C74">
         <v>1302</v>
       </c>
-      <c r="D41">
+      <c r="D74">
+        <v>1.026887</v>
+      </c>
+      <c r="E74">
+        <v>4.680760250000001</v>
+      </c>
+      <c r="F74">
+        <v>0.1612128197601656</v>
+      </c>
+      <c r="G74">
+        <v>0.09448951974349599</v>
+      </c>
+      <c r="H74">
+        <v>-0.06664741160750384</v>
+      </c>
+      <c r="I74">
+        <v>-0.234693604968722</v>
+      </c>
+      <c r="J74">
+        <v>0.1013987817537143</v>
+      </c>
+      <c r="K74">
+        <v>0.4454264822899703</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_no4</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>M_conc_t2</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>1297</v>
+      </c>
+      <c r="D75">
+        <v>1.03055</v>
+      </c>
+      <c r="E75">
+        <v>4.683877</v>
+      </c>
+      <c r="F75">
+        <v>0.166017723463751</v>
+      </c>
+      <c r="G75">
+        <v>0.1111690713016062</v>
+      </c>
+      <c r="H75">
+        <v>-0.05484865216214484</v>
+      </c>
+      <c r="I75">
+        <v>-0.1275017641266625</v>
+      </c>
+      <c r="J75">
+        <v>0.01780445980237285</v>
+      </c>
+      <c r="K75">
+        <v>0.1392139934717748</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_no4</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>M_conc_t2</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>1297</v>
+      </c>
+      <c r="D76">
+        <v>1.03055</v>
+      </c>
+      <c r="E76">
+        <v>4.683877</v>
+      </c>
+      <c r="F76">
+        <v>0.09942930714162043</v>
+      </c>
+      <c r="G76">
+        <v>0.1130390242169941</v>
+      </c>
+      <c r="H76">
+        <v>0.01360971707537369</v>
+      </c>
+      <c r="I76">
+        <v>-0.03041545967783975</v>
+      </c>
+      <c r="J76">
+        <v>0.05763489382858712</v>
+      </c>
+      <c r="K76">
+        <v>0.5559063939360782</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_no4</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>M_conc_t2</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>1302</v>
+      </c>
+      <c r="D77">
+        <v>1.026887</v>
+      </c>
+      <c r="E77">
+        <v>4.680760250000001</v>
+      </c>
+      <c r="F77">
+        <v>0.03804042990782174</v>
+      </c>
+      <c r="G77">
+        <v>0.03458137753532114</v>
+      </c>
+      <c r="H77">
+        <v>-0.003347583861889903</v>
+      </c>
+      <c r="I77">
+        <v>-0.1431816165787549</v>
+      </c>
+      <c r="J77">
+        <v>0.1364864488549751</v>
+      </c>
+      <c r="K77">
+        <v>0.9660315175715569</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>z_age2mo_personal_all</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>M_conc_t2</t>
+        </is>
+      </c>
+      <c r="C78">
         <v>1305</v>
       </c>
-      <c r="E41">
-        <v>-0.003347583861889903</v>
-      </c>
-      <c r="F41">
+      <c r="D78">
+        <v>1.03055</v>
+      </c>
+      <c r="E78">
+        <v>4.683877</v>
+      </c>
+      <c r="F78">
+        <v>0.1605900660892191</v>
+      </c>
+      <c r="G78">
+        <v>0.04419582209692079</v>
+      </c>
+      <c r="H78">
+        <v>-0.1163942439922983</v>
+      </c>
+      <c r="I78">
+        <v>-0.2912503113734057</v>
+      </c>
+      <c r="J78">
+        <v>0.05846182338880916</v>
+      </c>
+      <c r="K78">
+        <v>0.1932864360403027</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>z_age2mo_motor_all</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>M_conc_t2</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>1305</v>
+      </c>
+      <c r="D79">
+        <v>1.03055</v>
+      </c>
+      <c r="E79">
+        <v>4.683877</v>
+      </c>
+      <c r="F79">
+        <v>0.2032466613805519</v>
+      </c>
+      <c r="G79">
+        <v>-0.007659275630748693</v>
+      </c>
+      <c r="H79">
+        <v>-0.2109059370113006</v>
+      </c>
+      <c r="I79">
+        <v>-0.3577473588514867</v>
+      </c>
+      <c r="J79">
+        <v>-0.06406451517111447</v>
+      </c>
+      <c r="K79">
+        <v>0.004916357007366671</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>z_age2mo_combined_all</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>M_conc_t2</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>1305</v>
+      </c>
+      <c r="D80">
+        <v>1.03055</v>
+      </c>
+      <c r="E80">
+        <v>4.683877</v>
+      </c>
+      <c r="F80">
+        <v>0.1619622299008563</v>
+      </c>
+      <c r="G80">
+        <v>0.03197720319615588</v>
+      </c>
+      <c r="H80">
+        <v>-0.1299850267047005</v>
+      </c>
+      <c r="I80">
+        <v>-0.2886905967133016</v>
+      </c>
+      <c r="J80">
+        <v>0.02872054330390059</v>
+      </c>
+      <c r="K80">
+        <v>0.1082799889872837</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>z_age2mo_com_all</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>M_conc_t2</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>1305</v>
+      </c>
+      <c r="D81">
+        <v>1.03055</v>
+      </c>
+      <c r="E81">
+        <v>4.683877</v>
+      </c>
+      <c r="F81">
+        <v>0.01850519644281663</v>
+      </c>
+      <c r="G81">
+        <v>0.04027666471325936</v>
+      </c>
+      <c r="H81">
         <v>0.02177146827044273</v>
       </c>
-      <c r="G41">
-        <v>0.9660315175715569</v>
-      </c>
-      <c r="H41">
+      <c r="I81">
+        <v>-0.02122728404632909</v>
+      </c>
+      <c r="J81">
+        <v>0.06477022058721454</v>
+      </c>
+      <c r="K81">
         <v>0.3258703127825445</v>
-      </c>
-      <c r="I41">
-        <v>1.153760133230639</v>
       </c>
     </row>
   </sheetData>

--- a/results/easq-sensitivity-analysis.xlsx
+++ b/results/easq-sensitivity-analysis.xlsx
@@ -3542,7 +3542,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3581,15 +3581,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>lb.diff_no4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lb.diff_all</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ub.diff_no4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ub.diff_all</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Pval_no4</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Pval_all</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>abs_diff</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>sensitivity</t>
         </is>
@@ -3619,12 +3644,27 @@
         <v>0.004061609915387797</v>
       </c>
       <c r="G2">
+        <v>-0.1971337810105747</v>
+      </c>
+      <c r="H2">
+        <v>-0.1874413227746138</v>
+      </c>
+      <c r="I2">
+        <v>0.1693768058595471</v>
+      </c>
+      <c r="J2">
+        <v>0.1955645426053894</v>
+      </c>
+      <c r="K2">
         <v>0.8908358107859484</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>0.9699366870424425</v>
       </c>
-      <c r="I2">
+      <c r="M2">
+        <v>0.01794009749090163</v>
+      </c>
+      <c r="N2">
         <v>4.416991750717826</v>
       </c>
     </row>
@@ -3652,12 +3692,27 @@
         <v>-0.01103112923333654</v>
       </c>
       <c r="G3">
+        <v>-0.04934913209994767</v>
+      </c>
+      <c r="H3">
+        <v>-0.05202038844381002</v>
+      </c>
+      <c r="I3">
+        <v>0.01757522232360946</v>
+      </c>
+      <c r="J3">
+        <v>0.02995812997713695</v>
+      </c>
+      <c r="K3">
         <v>0.3579229742257246</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>0.6102119335481796</v>
       </c>
-      <c r="I3">
+      <c r="M3">
+        <v>0.004855825654832563</v>
+      </c>
+      <c r="N3">
         <v>-0.4401929804392148</v>
       </c>
     </row>
@@ -3685,12 +3740,27 @@
         <v>-0.01226007688148837</v>
       </c>
       <c r="G4">
+        <v>-0.1235392847216505</v>
+      </c>
+      <c r="H4">
+        <v>-0.08427083015366475</v>
+      </c>
+      <c r="I4">
+        <v>0.03940859786971644</v>
+      </c>
+      <c r="J4">
+        <v>0.05975067639068802</v>
+      </c>
+      <c r="K4">
         <v>0.3161369188871908</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>0.7515755187640981</v>
       </c>
-      <c r="I4">
+      <c r="M4">
+        <v>0.02980526654447865</v>
+      </c>
+      <c r="N4">
         <v>-2.431083167959735</v>
       </c>
     </row>
@@ -3718,12 +3788,27 @@
         <v>-0.004577919227608795</v>
       </c>
       <c r="G5">
+        <v>-0.02687783783725536</v>
+      </c>
+      <c r="H5">
+        <v>-0.07521343336035076</v>
+      </c>
+      <c r="I5">
+        <v>0.04333008266883987</v>
+      </c>
+      <c r="J5">
+        <v>0.06605759490513317</v>
+      </c>
+      <c r="K5">
         <v>0.6589718475708518</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>0.9068374245261932</v>
       </c>
-      <c r="I5">
+      <c r="M5">
+        <v>-0.01280404164340105</v>
+      </c>
+      <c r="N5">
         <v>2.796912965650782</v>
       </c>
     </row>
@@ -3751,12 +3836,27 @@
         <v>-0.03961938015881145</v>
       </c>
       <c r="G6">
+        <v>-0.1391141379120809</v>
+      </c>
+      <c r="H6">
+        <v>-0.1363341652626426</v>
+      </c>
+      <c r="I6">
+        <v>0.01308626940214265</v>
+      </c>
+      <c r="J6">
+        <v>0.05709540494501975</v>
+      </c>
+      <c r="K6">
         <v>0.1044132714776437</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>0.4300399546896693</v>
       </c>
-      <c r="I6">
+      <c r="M6">
+        <v>0.0233945540961577</v>
+      </c>
+      <c r="N6">
         <v>-0.5904825871172722</v>
       </c>
     </row>
@@ -3784,12 +3884,27 @@
         <v>0.002845940188573127</v>
       </c>
       <c r="G7">
+        <v>-0.3663534046284498</v>
+      </c>
+      <c r="H7">
+        <v>-0.0226521299550684</v>
+      </c>
+      <c r="I7">
+        <v>0.1305495662559311</v>
+      </c>
+      <c r="J7">
+        <v>0.02834401033221466</v>
+      </c>
+      <c r="K7">
         <v>0.358159918774773</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>0.837979212387796</v>
       </c>
-      <c r="I7">
+      <c r="M7">
+        <v>0.1207478593748325</v>
+      </c>
+      <c r="N7">
         <v>42.42810859471084</v>
       </c>
     </row>
@@ -3817,12 +3932,27 @@
         <v>-0.01173506942533759</v>
       </c>
       <c r="G8">
+        <v>-0.1117247690417609</v>
+      </c>
+      <c r="H8">
+        <v>-0.08581850540649706</v>
+      </c>
+      <c r="I8">
+        <v>0.04188173727015791</v>
+      </c>
+      <c r="J8">
+        <v>0.06234836655582187</v>
+      </c>
+      <c r="K8">
         <v>0.379319541882008</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>0.768967490819317</v>
       </c>
-      <c r="I8">
+      <c r="M8">
+        <v>0.02318644646046392</v>
+      </c>
+      <c r="N8">
         <v>-1.97582524824278</v>
       </c>
     </row>
@@ -3850,12 +3980,27 @@
         <v>0.007406726285990276</v>
       </c>
       <c r="G9">
+        <v>-0.2478181722541472</v>
+      </c>
+      <c r="H9">
+        <v>-0.2157396742184386</v>
+      </c>
+      <c r="I9">
+        <v>0.1849705180382703</v>
+      </c>
+      <c r="J9">
+        <v>0.2305531267904192</v>
+      </c>
+      <c r="K9">
         <v>0.7883804617471568</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>0.952746537254665</v>
       </c>
-      <c r="I9">
+      <c r="M9">
+        <v>0.03883055339392872</v>
+      </c>
+      <c r="N9">
         <v>5.242606773167275</v>
       </c>
     </row>
@@ -3883,12 +4028,27 @@
         <v>0.04652956048571851</v>
       </c>
       <c r="G10">
+        <v>-0.04741587022979035</v>
+      </c>
+      <c r="H10">
+        <v>-0.04389999050472135</v>
+      </c>
+      <c r="I10">
+        <v>0.1306004970318126</v>
+      </c>
+      <c r="J10">
+        <v>0.1369591114761584</v>
+      </c>
+      <c r="K10">
         <v>0.3658090560029196</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>0.3178448146009121</v>
       </c>
-      <c r="I10">
+      <c r="M10">
+        <v>0.004937247084707365</v>
+      </c>
+      <c r="N10">
         <v>0.1061099016016447</v>
       </c>
     </row>
@@ -3916,12 +4076,27 @@
         <v>0.1036156857457567</v>
       </c>
       <c r="G11">
+        <v>-0.06852165581456107</v>
+      </c>
+      <c r="H11">
+        <v>-0.06827472392976511</v>
+      </c>
+      <c r="I11">
+        <v>0.2502190695166919</v>
+      </c>
+      <c r="J11">
+        <v>0.2755060954212785</v>
+      </c>
+      <c r="K11">
         <v>0.2670255822572213</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>0.2398288052876285</v>
       </c>
-      <c r="I11">
+      <c r="M11">
+        <v>0.01276697889469128</v>
+      </c>
+      <c r="N11">
         <v>0.1232147314646722</v>
       </c>
     </row>
@@ -3949,12 +4124,27 @@
         <v>0.1438436975754128</v>
       </c>
       <c r="G12">
+        <v>-0.05728618412063609</v>
+      </c>
+      <c r="H12">
+        <v>-0.021903348292269</v>
+      </c>
+      <c r="I12">
+        <v>0.3017064449083984</v>
+      </c>
+      <c r="J12">
+        <v>0.3095907434430947</v>
+      </c>
+      <c r="K12">
         <v>0.1831177287966473</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>0.08863352678346388</v>
       </c>
-      <c r="I12">
+      <c r="M12">
+        <v>0.02163356718153171</v>
+      </c>
+      <c r="N12">
         <v>0.1503963506652065</v>
       </c>
     </row>
@@ -3982,12 +4172,27 @@
         <v>0.1200135560164813</v>
       </c>
       <c r="G13">
+        <v>-0.06451673272695063</v>
+      </c>
+      <c r="H13">
+        <v>-0.05079357322571852</v>
+      </c>
+      <c r="I13">
+        <v>0.2959878030204715</v>
+      </c>
+      <c r="J13">
+        <v>0.2908206852586812</v>
+      </c>
+      <c r="K13">
         <v>0.2098929798761534</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>0.1692509140876513</v>
       </c>
-      <c r="I13">
+      <c r="M13">
+        <v>0.004278020869720914</v>
+      </c>
+      <c r="N13">
         <v>0.03564614708302967</v>
       </c>
     </row>
@@ -4015,12 +4220,27 @@
         <v>0.08462904195252553</v>
       </c>
       <c r="G14">
+        <v>-0.2251301773533627</v>
+      </c>
+      <c r="H14">
+        <v>-0.2089226982007454</v>
+      </c>
+      <c r="I14">
+        <v>0.3466491094438206</v>
+      </c>
+      <c r="J14">
+        <v>0.3781807821057964</v>
+      </c>
+      <c r="K14">
         <v>0.6901456053744403</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>0.5839335613951601</v>
       </c>
-      <c r="I14">
+      <c r="M14">
+        <v>0.0238695759072966</v>
+      </c>
+      <c r="N14">
         <v>0.2820494638316566</v>
       </c>
     </row>
@@ -4048,12 +4268,27 @@
         <v>0.1429843897118989</v>
       </c>
       <c r="G15">
+        <v>-0.02011357459241891</v>
+      </c>
+      <c r="H15">
+        <v>0.01245102811797821</v>
+      </c>
+      <c r="I15">
+        <v>0.2452147912012159</v>
+      </c>
+      <c r="J15">
+        <v>0.2735177513058196</v>
+      </c>
+      <c r="K15">
         <v>0.09608618268494189</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>0.03152776848639147</v>
       </c>
-      <c r="I15">
+      <c r="M15">
+        <v>0.03043378140750042</v>
+      </c>
+      <c r="N15">
         <v>0.21284688117928</v>
       </c>
     </row>
@@ -4081,12 +4316,27 @@
         <v>0.1800531020574504</v>
       </c>
       <c r="G16">
+        <v>-0.1400534213967494</v>
+      </c>
+      <c r="H16">
+        <v>-0.0814343228412229</v>
+      </c>
+      <c r="I16">
+        <v>0.3128954899528418</v>
+      </c>
+      <c r="J16">
+        <v>0.4415405269561238</v>
+      </c>
+      <c r="K16">
         <v>0.4634924447846058</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>0.1781056135946943</v>
       </c>
-      <c r="I16">
+      <c r="M16">
+        <v>0.09363206777940425</v>
+      </c>
+      <c r="N16">
         <v>0.5200247410873744</v>
       </c>
     </row>
@@ -4114,12 +4364,27 @@
         <v>0.08273968576405483</v>
       </c>
       <c r="G17">
+        <v>-0.01157842023333771</v>
+      </c>
+      <c r="H17">
+        <v>-0.1333930761038905</v>
+      </c>
+      <c r="I17">
+        <v>0.01919878037351398</v>
+      </c>
+      <c r="J17">
+        <v>0.2988724476320001</v>
+      </c>
+      <c r="K17">
         <v>0.6402318026465715</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>0.4620021750699047</v>
       </c>
-      <c r="I17">
+      <c r="M17">
+        <v>0.07892950569396669</v>
+      </c>
+      <c r="N17">
         <v>0.9539497880019334</v>
       </c>
     </row>
@@ -4147,12 +4412,27 @@
         <v>0.0506314807232992</v>
       </c>
       <c r="G18">
+        <v>-0.05007954089581433</v>
+      </c>
+      <c r="H18">
+        <v>-0.149741274388299</v>
+      </c>
+      <c r="I18">
+        <v>0.04572797951180983</v>
+      </c>
+      <c r="J18">
+        <v>0.2510042358348974</v>
+      </c>
+      <c r="K18">
         <v>0.935077162387315</v>
       </c>
-      <c r="H18">
+      <c r="L18">
         <v>0.6330884868122588</v>
       </c>
-      <c r="I18">
+      <c r="M18">
+        <v>0.05280726141530145</v>
+      </c>
+      <c r="N18">
         <v>1.042972882896569</v>
       </c>
     </row>
@@ -4180,12 +4460,27 @@
         <v>0.138393693277807</v>
       </c>
       <c r="G19">
+        <v>-0.0288331038623546</v>
+      </c>
+      <c r="H19">
+        <v>-0.03009911171081869</v>
+      </c>
+      <c r="I19">
+        <v>0.05856228355847189</v>
+      </c>
+      <c r="J19">
+        <v>0.3068864982664326</v>
+      </c>
+      <c r="K19">
         <v>0.5153183658107754</v>
       </c>
-      <c r="H19">
+      <c r="L19">
         <v>0.1072687611114999</v>
       </c>
-      <c r="I19">
+      <c r="M19">
+        <v>0.1235291034297483</v>
+      </c>
+      <c r="N19">
         <v>0.8925919997075304</v>
       </c>
     </row>
@@ -4213,12 +4508,27 @@
         <v>0.1791014165179771</v>
       </c>
       <c r="G20">
+        <v>-0.07366699949852595</v>
+      </c>
+      <c r="H20">
+        <v>-0.02376742659205577</v>
+      </c>
+      <c r="I20">
+        <v>0.3259533121838066</v>
+      </c>
+      <c r="J20">
+        <v>0.38197025962801</v>
+      </c>
+      <c r="K20">
         <v>0.2178086166930522</v>
       </c>
-      <c r="H20">
+      <c r="L20">
         <v>0.08322055867751886</v>
       </c>
-      <c r="I20">
+      <c r="M20">
+        <v>0.05295826017533675</v>
+      </c>
+      <c r="N20">
         <v>0.2956886729593293</v>
       </c>
     </row>
@@ -4246,12 +4556,27 @@
         <v>0.137356392168047</v>
       </c>
       <c r="G21">
+        <v>-0.1059556261268291</v>
+      </c>
+      <c r="H21">
+        <v>-0.06188837641292841</v>
+      </c>
+      <c r="I21">
+        <v>0.3201046675119623</v>
+      </c>
+      <c r="J21">
+        <v>0.3366011607490224</v>
+      </c>
+      <c r="K21">
         <v>0.3295310018982602</v>
       </c>
-      <c r="H21">
+      <c r="L21">
         <v>0.177584349656899</v>
       </c>
-      <c r="I21">
+      <c r="M21">
+        <v>0.03028187147548038</v>
+      </c>
+      <c r="N21">
         <v>0.2204620476521573</v>
       </c>
     </row>
@@ -4279,12 +4604,27 @@
         <v>0.01205948116641295</v>
       </c>
       <c r="G22">
+        <v>-0.06160479578789138</v>
+      </c>
+      <c r="H22">
+        <v>-0.06180072945837493</v>
+      </c>
+      <c r="I22">
+        <v>0.081978049839876</v>
+      </c>
+      <c r="J22">
+        <v>0.08591969179120083</v>
+      </c>
+      <c r="K22">
         <v>0.7932801600072428</v>
       </c>
-      <c r="H22">
+      <c r="L22">
         <v>0.761811663369992</v>
       </c>
-      <c r="I22">
+      <c r="M22">
+        <v>0.001872854140420641</v>
+      </c>
+      <c r="N22">
         <v>0.1553013860693075</v>
       </c>
     </row>
@@ -4312,12 +4652,27 @@
         <v>-0.01694942921151214</v>
       </c>
       <c r="G23">
+        <v>-0.06756165579266077</v>
+      </c>
+      <c r="H23">
+        <v>-0.08785025795450434</v>
+      </c>
+      <c r="I23">
+        <v>0.06838889636490181</v>
+      </c>
+      <c r="J23">
+        <v>0.05395139953148005</v>
+      </c>
+      <c r="K23">
         <v>0.9914266115709048</v>
       </c>
-      <c r="H23">
+      <c r="L23">
         <v>0.652278756421114</v>
       </c>
-      <c r="I23">
+      <c r="M23">
+        <v>-0.01736304949763266</v>
+      </c>
+      <c r="N23">
         <v>1.024403198536006</v>
       </c>
     </row>
@@ -4345,12 +4700,27 @@
         <v>-0.0117614271749583</v>
       </c>
       <c r="G24">
+        <v>-0.08631517321164882</v>
+      </c>
+      <c r="H24">
+        <v>-0.1760520238896194</v>
+      </c>
+      <c r="I24">
+        <v>0.07057146014493497</v>
+      </c>
+      <c r="J24">
+        <v>0.1525291695397028</v>
+      </c>
+      <c r="K24">
         <v>0.8546027696222336</v>
       </c>
-      <c r="H24">
+      <c r="L24">
         <v>0.8969133731340106</v>
       </c>
-      <c r="I24">
+      <c r="M24">
+        <v>-0.003889570641601378</v>
+      </c>
+      <c r="N24">
         <v>0.3307056689415048</v>
       </c>
     </row>
@@ -4378,12 +4748,27 @@
         <v>0.01089852630263505</v>
       </c>
       <c r="G25">
+        <v>-0.05655495430654659</v>
+      </c>
+      <c r="H25">
+        <v>-0.05567526866504795</v>
+      </c>
+      <c r="I25">
+        <v>0.07593187115627156</v>
+      </c>
+      <c r="J25">
+        <v>0.07747232127031804</v>
+      </c>
+      <c r="K25">
         <v>0.7868479992021589</v>
       </c>
-      <c r="H25">
+      <c r="L25">
         <v>0.7611781140002019</v>
       </c>
-      <c r="I25">
+      <c r="M25">
+        <v>0.001210067877772569</v>
+      </c>
+      <c r="N25">
         <v>0.1110304131192488</v>
       </c>
     </row>
@@ -4411,12 +4796,27 @@
         <v>0.00109809062469814</v>
       </c>
       <c r="G26">
+        <v>-0.05400954342278212</v>
+      </c>
+      <c r="H26">
+        <v>-0.05085222620156767</v>
+      </c>
+      <c r="I26">
+        <v>0.04798712685388919</v>
+      </c>
+      <c r="J26">
+        <v>0.05304840745096395</v>
+      </c>
+      <c r="K26">
         <v>0.9152582836582446</v>
       </c>
-      <c r="H26">
+      <c r="L26">
         <v>0.9700392789061131</v>
       </c>
-      <c r="I26">
+      <c r="M26">
+        <v>0.004109298909144601</v>
+      </c>
+      <c r="N26">
         <v>3.742222014029331</v>
       </c>
     </row>
@@ -4444,12 +4844,27 @@
         <v>-0.02565737892202734</v>
       </c>
       <c r="G27">
+        <v>-0.04964882833418579</v>
+      </c>
+      <c r="H27">
+        <v>-0.07537754128049082</v>
+      </c>
+      <c r="I27">
+        <v>0.03809032382554142</v>
+      </c>
+      <c r="J27">
+        <v>0.02406278343643614</v>
+      </c>
+      <c r="K27">
         <v>0.8082632817851638</v>
       </c>
-      <c r="H27">
+      <c r="L27">
         <v>0.3163964120880821</v>
       </c>
-      <c r="I27">
+      <c r="M27">
+        <v>-0.01987812666770515</v>
+      </c>
+      <c r="N27">
         <v>0.7747528197683283</v>
       </c>
     </row>
@@ -4477,12 +4892,27 @@
         <v>-0.0173717316610509</v>
       </c>
       <c r="G28">
+        <v>-0.07336190359816262</v>
+      </c>
+      <c r="H28">
+        <v>-0.06677534721516223</v>
+      </c>
+      <c r="I28">
+        <v>0.02643573002002386</v>
+      </c>
+      <c r="J28">
+        <v>0.03203188389306044</v>
+      </c>
+      <c r="K28">
         <v>0.3627134512113714</v>
       </c>
-      <c r="H28">
+      <c r="L28">
         <v>0.5007015146421375</v>
       </c>
-      <c r="I28">
+      <c r="M28">
+        <v>0.006091355128018484</v>
+      </c>
+      <c r="N28">
         <v>-0.3506475489531012</v>
       </c>
     </row>
@@ -4510,12 +4940,27 @@
         <v>-0.01050142146279757</v>
       </c>
       <c r="G29">
+        <v>-0.05045967907298744</v>
+      </c>
+      <c r="H29">
+        <v>-0.05759033394891405</v>
+      </c>
+      <c r="I29">
+        <v>0.04308902218957878</v>
+      </c>
+      <c r="J29">
+        <v>0.0365874910233189</v>
+      </c>
+      <c r="K29">
         <v>0.886348395356727</v>
       </c>
-      <c r="H29">
+      <c r="L29">
         <v>0.6751061974126994</v>
       </c>
-      <c r="I29">
+      <c r="M29">
+        <v>-0.00681609302109325</v>
+      </c>
+      <c r="N29">
         <v>0.6490638477124263</v>
       </c>
     </row>
@@ -4543,12 +4988,27 @@
         <v>0.02277522382467546</v>
       </c>
       <c r="G30">
+        <v>-0.02122893980772318</v>
+      </c>
+      <c r="H30">
+        <v>-0.0592260925956765</v>
+      </c>
+      <c r="I30">
+        <v>0.1041203778706343</v>
+      </c>
+      <c r="J30">
+        <v>0.1047765402450274</v>
+      </c>
+      <c r="K30">
         <v>0.1962904214813149</v>
       </c>
-      <c r="H30">
+      <c r="L30">
         <v>0.5983402906185249</v>
       </c>
-      <c r="I30">
+      <c r="M30">
+        <v>-0.01867049520678012</v>
+      </c>
+      <c r="N30">
         <v>-0.8197721941398385</v>
       </c>
     </row>
@@ -4576,12 +5036,27 @@
         <v>-0.07297996055591842</v>
       </c>
       <c r="G31">
+        <v>-0.04326735000850045</v>
+      </c>
+      <c r="H31">
+        <v>-0.1945563704357081</v>
+      </c>
+      <c r="I31">
+        <v>0.07653359626444843</v>
+      </c>
+      <c r="J31">
+        <v>0.0485964493238713</v>
+      </c>
+      <c r="K31">
         <v>0.5984265178475416</v>
       </c>
-      <c r="H31">
+      <c r="L31">
         <v>0.2418487866696458</v>
       </c>
-      <c r="I31">
+      <c r="M31">
+        <v>-0.08961308368389241</v>
+      </c>
+      <c r="N31">
         <v>1.227913566974723</v>
       </c>
     </row>
@@ -4609,12 +5084,27 @@
         <v>0.02937910294736257</v>
       </c>
       <c r="G32">
+        <v>-0.003131237250856893</v>
+      </c>
+      <c r="H32">
+        <v>-0.05324150810355685</v>
+      </c>
+      <c r="I32">
+        <v>0.1185439870919354</v>
+      </c>
+      <c r="J32">
+        <v>0.111999713998282</v>
+      </c>
+      <c r="K32">
         <v>0.06261040051753024</v>
       </c>
-      <c r="H32">
+      <c r="L32">
         <v>0.4956970990491106</v>
       </c>
-      <c r="I32">
+      <c r="M32">
+        <v>-0.02832727197317671</v>
+      </c>
+      <c r="N32">
         <v>-0.9641979887517199</v>
       </c>
     </row>
@@ -4642,12 +5132,27 @@
         <v>0.05410108038929114</v>
       </c>
       <c r="G33">
+        <v>-0.01449035479591122</v>
+      </c>
+      <c r="H33">
+        <v>-0.005192391141898955</v>
+      </c>
+      <c r="I33">
+        <v>0.1058181825585226</v>
+      </c>
+      <c r="J33">
+        <v>0.1133945519204812</v>
+      </c>
+      <c r="K33">
         <v>0.1370087080754375</v>
       </c>
-      <c r="H33">
+      <c r="L33">
         <v>0.07333479525477263</v>
       </c>
-      <c r="I33">
+      <c r="M33">
+        <v>0.008437166507985469</v>
+      </c>
+      <c r="N33">
         <v>0.1559519042369353</v>
       </c>
     </row>
@@ -4675,12 +5180,27 @@
         <v>0.001013943777730683</v>
       </c>
       <c r="G34">
+        <v>-0.214434344447725</v>
+      </c>
+      <c r="H34">
+        <v>-0.1745541651677691</v>
+      </c>
+      <c r="I34">
+        <v>0.1588589237348047</v>
+      </c>
+      <c r="J34">
+        <v>0.1765820527232305</v>
+      </c>
+      <c r="K34">
         <v>0.7829832035991393</v>
       </c>
-      <c r="H34">
+      <c r="L34">
         <v>0.9918639497161179</v>
       </c>
-      <c r="I34">
+      <c r="M34">
+        <v>0.0288016541341908</v>
+      </c>
+      <c r="N34">
         <v>28.4055731360688</v>
       </c>
     </row>
@@ -4708,12 +5228,27 @@
         <v>-0.1214189646000131</v>
       </c>
       <c r="G35">
+        <v>-0.1763407941088119</v>
+      </c>
+      <c r="H35">
+        <v>-0.2359474791296797</v>
+      </c>
+      <c r="I35">
+        <v>0.008802651044186691</v>
+      </c>
+      <c r="J35">
+        <v>-0.006890450070346582</v>
+      </c>
+      <c r="K35">
         <v>0.07575006580980549</v>
       </c>
-      <c r="H35">
+      <c r="L35">
         <v>0.0374011069605539</v>
       </c>
-      <c r="I35">
+      <c r="M35">
+        <v>-0.03764989306770053</v>
+      </c>
+      <c r="N35">
         <v>0.3100824751036994</v>
       </c>
     </row>
@@ -4741,12 +5276,27 @@
         <v>-0.04983635163389945</v>
       </c>
       <c r="G36">
+        <v>-0.331133683952227</v>
+      </c>
+      <c r="H36">
+        <v>-0.2113054292457013</v>
+      </c>
+      <c r="I36">
+        <v>0.04835758945707302</v>
+      </c>
+      <c r="J36">
+        <v>0.1116327259779024</v>
+      </c>
+      <c r="K36">
         <v>0.1444962489481212</v>
       </c>
-      <c r="H36">
+      <c r="L36">
         <v>0.5565605669469803</v>
       </c>
-      <c r="I36">
+      <c r="M36">
+        <v>0.09155169561367751</v>
+      </c>
+      <c r="N36">
         <v>-1.837046505454919</v>
       </c>
     </row>
@@ -4774,12 +5324,27 @@
         <v>0.008384829806712128</v>
       </c>
       <c r="G37">
+        <v>-0.2073642987547297</v>
+      </c>
+      <c r="H37">
+        <v>-0.1542571113143208</v>
+      </c>
+      <c r="I37">
+        <v>0.1420907301410921</v>
+      </c>
+      <c r="J37">
+        <v>0.1710267709277451</v>
+      </c>
+      <c r="K37">
         <v>0.7274195121285356</v>
       </c>
-      <c r="H37">
+      <c r="L37">
         <v>0.9261702440535832</v>
       </c>
-      <c r="I37">
+      <c r="M37">
+        <v>0.04102161411353093</v>
+      </c>
+      <c r="N37">
         <v>4.892360973229628</v>
       </c>
     </row>
@@ -4807,12 +5372,27 @@
         <v>-0.001127082198484403</v>
       </c>
       <c r="G38">
+        <v>-0.06253892594527667</v>
+      </c>
+      <c r="H38">
+        <v>-0.06754734627390832</v>
+      </c>
+      <c r="I38">
+        <v>0.06551465804449212</v>
+      </c>
+      <c r="J38">
+        <v>0.06529318187693953</v>
+      </c>
+      <c r="K38">
         <v>0.9670354974406238</v>
       </c>
-      <c r="H38">
+      <c r="L38">
         <v>0.975986062363371</v>
       </c>
-      <c r="I38">
+      <c r="M38">
+        <v>-0.002614948248092133</v>
+      </c>
+      <c r="N38">
         <v>2.320104293731616</v>
       </c>
     </row>
@@ -4840,12 +5420,27 @@
         <v>-0.1716908821234453</v>
       </c>
       <c r="G39">
+        <v>-0.2923387417676085</v>
+      </c>
+      <c r="H39">
+        <v>-0.309886688322127</v>
+      </c>
+      <c r="I39">
+        <v>-0.02233403605039364</v>
+      </c>
+      <c r="J39">
+        <v>-0.03349507592476353</v>
+      </c>
+      <c r="K39">
         <v>0.02218330992632052</v>
       </c>
-      <c r="H39">
+      <c r="L39">
         <v>0.01480784304304851</v>
       </c>
-      <c r="I39">
+      <c r="M39">
+        <v>-0.01435449321444421</v>
+      </c>
+      <c r="N39">
         <v>0.08360661344918344</v>
       </c>
     </row>
@@ -4873,12 +5468,27 @@
         <v>0.0009345757395970147</v>
       </c>
       <c r="G40">
+        <v>-0.05889456407194941</v>
+      </c>
+      <c r="H40">
+        <v>-0.06153147744323366</v>
+      </c>
+      <c r="I40">
+        <v>0.064387933209439</v>
+      </c>
+      <c r="J40">
+        <v>0.06340062892242769</v>
+      </c>
+      <c r="K40">
         <v>0.9363246584767752</v>
       </c>
-      <c r="H40">
+      <c r="L40">
         <v>0.9788438093502901</v>
       </c>
-      <c r="I40">
+      <c r="M40">
+        <v>-0.001812108829147784</v>
+      </c>
+      <c r="N40">
         <v>-1.93896412283199</v>
       </c>
     </row>
@@ -4906,12 +5516,27 @@
         <v>0.01179817357754008</v>
       </c>
       <c r="G41">
+        <v>-0.05309333249996762</v>
+      </c>
+      <c r="H41">
+        <v>-0.04840139721973154</v>
+      </c>
+      <c r="I41">
+        <v>0.06543302546735597</v>
+      </c>
+      <c r="J41">
+        <v>0.0719977443748117</v>
+      </c>
+      <c r="K41">
         <v>0.8490575614099154</v>
       </c>
-      <c r="H41">
+      <c r="L41">
         <v>0.7140489640567028</v>
       </c>
-      <c r="I41">
+      <c r="M41">
+        <v>0.005628327093845901</v>
+      </c>
+      <c r="N41">
         <v>0.4770507110151713</v>
       </c>
     </row>

--- a/results/easq-sensitivity-analysis.xlsx
+++ b/results/easq-sensitivity-analysis.xlsx
@@ -1,22 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9dd429dedc4d5dad/Berkeley/Course Materials/WASH-B/eed-dev/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_75C832DAF3A5EA8624A55D9C2B7FF64AAA4A49E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE53D878-C822-5142-9C0E-9204CEFFECB8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="26180" yWindow="4320" windowWidth="23640" windowHeight="18620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unadj" sheetId="1" r:id="rId1"/>
     <sheet name="adj" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="46">
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>pred.q1</t>
+  </si>
+  <si>
+    <t>pred.q3</t>
+  </si>
+  <si>
+    <t>point.diff</t>
+  </si>
+  <si>
+    <t>lb.diff</t>
+  </si>
+  <si>
+    <t>ub.diff</t>
+  </si>
+  <si>
+    <t>Pval</t>
+  </si>
+  <si>
+    <t>z_age2mo_personal_no4</t>
+  </si>
+  <si>
+    <t>aat1</t>
+  </si>
+  <si>
+    <t>z_age2mo_motor_no4</t>
+  </si>
+  <si>
+    <t>z_age2mo_combined_no4</t>
+  </si>
+  <si>
+    <t>z_age2mo_com_no4</t>
+  </si>
+  <si>
+    <t>z_age2mo_personal_all</t>
+  </si>
+  <si>
+    <t>z_age2mo_motor_all</t>
+  </si>
+  <si>
+    <t>z_age2mo_combined_all</t>
+  </si>
+  <si>
+    <t>z_age2mo_com_all</t>
+  </si>
+  <si>
+    <t>mpo1</t>
+  </si>
+  <si>
+    <t>neo1</t>
+  </si>
+  <si>
+    <t>L_conc_t1</t>
+  </si>
+  <si>
+    <t>M_conc_t1</t>
+  </si>
+  <si>
+    <t>aat2</t>
+  </si>
+  <si>
+    <t>mpo2</t>
+  </si>
+  <si>
+    <t>neo2</t>
+  </si>
+  <si>
+    <t>L_conc_t2</t>
+  </si>
+  <si>
+    <t>M_conc_t2</t>
+  </si>
+  <si>
+    <t>dom</t>
+  </si>
+  <si>
+    <t>N_no4</t>
+  </si>
+  <si>
+    <t>N_all</t>
+  </si>
+  <si>
+    <t>point.diff_no4</t>
+  </si>
+  <si>
+    <t>point.diff_all</t>
+  </si>
+  <si>
+    <t>lb.diff_no4</t>
+  </si>
+  <si>
+    <t>lb.diff_all</t>
+  </si>
+  <si>
+    <t>ub.diff_no4</t>
+  </si>
+  <si>
+    <t>ub.diff_all</t>
+  </si>
+  <si>
+    <t>Pval_no4</t>
+  </si>
+  <si>
+    <t>Pval_all</t>
+  </si>
+  <si>
+    <t>abs_diff</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +213,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -110,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +299,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +351,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,158 +544,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>q1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>q3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pred.q1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>pred.q3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>point.diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lb.diff</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ub.diff</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pval</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
         <v>764</v>
       </c>
       <c r="D2">
-        <v>0.230348825</v>
+        <v>0.23034882500000001</v>
       </c>
       <c r="E2">
-        <v>0.8012372000000001</v>
+        <v>0.80123720000000009</v>
       </c>
       <c r="F2">
-        <v>0.0419345670332736</v>
+        <v>4.1934567033273598E-2</v>
       </c>
       <c r="G2">
-        <v>0.04299751975423131</v>
+        <v>4.2997519754231307E-2</v>
       </c>
       <c r="H2">
-        <v>0.001062952720957721</v>
+        <v>1.0629527209577211E-3</v>
       </c>
       <c r="I2">
-        <v>-0.03714448939531297</v>
+        <v>-3.7144489395312973E-2</v>
       </c>
       <c r="J2">
-        <v>0.03927039483722841</v>
+        <v>3.9270394837228412E-2</v>
       </c>
       <c r="K2">
-        <v>0.9604688695318725</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+        <v>0.96046886953187249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
         <v>759</v>
       </c>
       <c r="D3">
-        <v>0.23013515</v>
+        <v>0.23013515000000001</v>
       </c>
       <c r="E3">
-        <v>0.8013165</v>
+        <v>0.80131649999999999</v>
       </c>
       <c r="F3">
         <v>0.1325259159874605</v>
       </c>
       <c r="G3">
-        <v>0.1235274546259792</v>
+        <v>0.12352745462597919</v>
       </c>
       <c r="H3">
-        <v>-0.008998461361481271</v>
+        <v>-8.9984613614812713E-3</v>
       </c>
       <c r="I3">
-        <v>-0.04043766501103746</v>
+        <v>-4.043766501103746E-2</v>
       </c>
       <c r="J3">
-        <v>0.02244074228807492</v>
+        <v>2.2440742288074921E-2</v>
       </c>
       <c r="K3">
-        <v>0.5867563997725677</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+        <v>0.58675639977256766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
         <v>761</v>
@@ -514,34 +673,30 @@
         <v>0.8014751</v>
       </c>
       <c r="F4">
-        <v>0.03892189728541484</v>
+        <v>3.8921897285414842E-2</v>
       </c>
       <c r="G4">
-        <v>0.02309521865777314</v>
+        <v>2.3095218657773139E-2</v>
       </c>
       <c r="H4">
-        <v>-0.0158266786276417</v>
+        <v>-1.5826678627641699E-2</v>
       </c>
       <c r="I4">
-        <v>-0.07652230803457477</v>
+        <v>-7.6522308034574771E-2</v>
       </c>
       <c r="J4">
-        <v>0.04486895077929137</v>
+        <v>4.4868950779291372E-2</v>
       </c>
       <c r="K4">
         <v>0.6218203181949693</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
         <v>761</v>
@@ -550,163 +705,147 @@
         <v>0.2305625</v>
       </c>
       <c r="E5">
-        <v>0.8011579</v>
+        <v>0.80115789999999998</v>
       </c>
       <c r="F5">
-        <v>-0.07566214564481774</v>
+        <v>-7.5662145644817741E-2</v>
       </c>
       <c r="G5">
-        <v>-0.07261175568379917</v>
+        <v>-7.261175568379917E-2</v>
       </c>
       <c r="H5">
-        <v>0.003050389961018559</v>
+        <v>3.0503899610185591E-3</v>
       </c>
       <c r="I5">
-        <v>-0.04670956379135138</v>
+        <v>-4.6709563791351383E-2</v>
       </c>
       <c r="J5">
-        <v>0.0528103437133885</v>
+        <v>5.2810343713388497E-2</v>
       </c>
       <c r="K5">
-        <v>0.9119640817619526</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+        <v>0.91196408176195265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6">
         <v>765</v>
       </c>
       <c r="D6">
-        <v>0.2297078</v>
+        <v>0.22970779999999999</v>
       </c>
       <c r="E6">
-        <v>0.8011579</v>
+        <v>0.80115789999999998</v>
       </c>
       <c r="F6">
-        <v>0.006159270120829587</v>
+        <v>6.1592701208295873E-3</v>
       </c>
       <c r="G6">
-        <v>0.09108100011855573</v>
+        <v>9.108100011855573E-2</v>
       </c>
       <c r="H6">
-        <v>0.08492172999772614</v>
+        <v>8.4921729997726139E-2</v>
       </c>
       <c r="I6">
-        <v>-0.08521205619896281</v>
+        <v>-8.5212056198962813E-2</v>
       </c>
       <c r="J6">
-        <v>0.2550555161944151</v>
+        <v>0.25505551619441508</v>
       </c>
       <c r="K6">
         <v>0.3329959493332269</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7">
         <v>765</v>
       </c>
       <c r="D7">
-        <v>0.2297078</v>
+        <v>0.22970779999999999</v>
       </c>
       <c r="E7">
-        <v>0.8011579</v>
+        <v>0.80115789999999998</v>
       </c>
       <c r="F7">
         <v>0.1498094796655503</v>
       </c>
       <c r="G7">
-        <v>0.0981887222038044</v>
+        <v>9.8188722203804396E-2</v>
       </c>
       <c r="H7">
-        <v>-0.05162075746174589</v>
+        <v>-5.1620757461745888E-2</v>
       </c>
       <c r="I7">
-        <v>-0.2752888902006794</v>
+        <v>-0.27528889020067943</v>
       </c>
       <c r="J7">
-        <v>0.1720473752771876</v>
+        <v>0.17204737527718761</v>
       </c>
       <c r="K7">
-        <v>0.6640093382022003</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+        <v>0.66400933820220032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
         <v>765</v>
       </c>
       <c r="D8">
-        <v>0.2297078</v>
+        <v>0.22970779999999999</v>
       </c>
       <c r="E8">
-        <v>0.8011579</v>
+        <v>0.80115789999999998</v>
       </c>
       <c r="F8">
-        <v>0.01246785780908882</v>
+        <v>1.2467857809088821E-2</v>
       </c>
       <c r="G8">
-        <v>0.01620269332261811</v>
+        <v>1.620269332261811E-2</v>
       </c>
       <c r="H8">
-        <v>0.003734835513529286</v>
+        <v>3.7348355135292861E-3</v>
       </c>
       <c r="I8">
-        <v>-0.04380016063604917</v>
+        <v>-4.3800160636049169E-2</v>
       </c>
       <c r="J8">
-        <v>0.05126983166310774</v>
+        <v>5.1269831663107737E-2</v>
       </c>
       <c r="K8">
-        <v>0.8866704771970065</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+        <v>0.88667047719700653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9">
         <v>765</v>
       </c>
       <c r="D9">
-        <v>0.2297078</v>
+        <v>0.22970779999999999</v>
       </c>
       <c r="E9">
-        <v>0.8011579</v>
+        <v>0.80115789999999998</v>
       </c>
       <c r="F9">
         <v>-0.1248406856669598</v>
@@ -715,76 +854,68 @@
         <v>-0.1130820784998417</v>
       </c>
       <c r="H9">
-        <v>0.01175860716711812</v>
+        <v>1.175860716711812E-2</v>
       </c>
       <c r="I9">
-        <v>-0.03204552435376228</v>
+        <v>-3.2045524353762282E-2</v>
       </c>
       <c r="J9">
-        <v>0.05556273868799851</v>
+        <v>5.5562738687998513E-2</v>
       </c>
       <c r="K9">
         <v>0.6111611180418326</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
       <c r="C10">
         <v>766</v>
       </c>
       <c r="D10">
-        <v>4285.48065</v>
+        <v>4285.4806500000004</v>
       </c>
       <c r="E10">
-        <v>19821.74375</v>
+        <v>19821.743750000001</v>
       </c>
       <c r="F10">
-        <v>0.0746215381418108</v>
+        <v>7.46215381418108E-2</v>
       </c>
       <c r="G10">
-        <v>0.00788084241190604</v>
+        <v>7.8808424119060395E-3</v>
       </c>
       <c r="H10">
-        <v>-0.06674069572990476</v>
+        <v>-6.6740695729904764E-2</v>
       </c>
       <c r="I10">
-        <v>-0.1334139115675538</v>
+        <v>-0.13341391156755381</v>
       </c>
       <c r="J10">
-        <v>-6.747989225577844e-05</v>
+        <v>-6.747989225577844E-5</v>
       </c>
       <c r="K10">
-        <v>0.04938619032521363</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+        <v>4.938619032521363E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
       <c r="C11">
         <v>761</v>
       </c>
       <c r="D11">
-        <v>4293.9336</v>
+        <v>4293.9336000000003</v>
       </c>
       <c r="E11">
-        <v>19823.689</v>
+        <v>19823.688999999998</v>
       </c>
       <c r="F11">
         <v>0.1103240737599749</v>
@@ -793,7 +924,7 @@
         <v>0.1343157430270778</v>
       </c>
       <c r="H11">
-        <v>0.02399166926710282</v>
+        <v>2.3991669267102819E-2</v>
       </c>
       <c r="I11">
         <v>-0.2270636967169867</v>
@@ -802,499 +933,447 @@
         <v>0.2750470352511924</v>
       </c>
       <c r="K11">
-        <v>0.8616626870182504</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+        <v>0.86166268701825044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12">
         <v>763</v>
       </c>
       <c r="D12">
-        <v>4288.2983</v>
+        <v>4288.2983000000004</v>
       </c>
       <c r="E12">
-        <v>19819.7985</v>
+        <v>19819.798500000001</v>
       </c>
       <c r="F12">
-        <v>0.06007029351630092</v>
+        <v>6.0070293516300922E-2</v>
       </c>
       <c r="G12">
-        <v>-0.05034539319728752</v>
+        <v>-5.0345393197287522E-2</v>
       </c>
       <c r="H12">
         <v>-0.1104156867135884</v>
       </c>
       <c r="I12">
-        <v>-0.2604215903647618</v>
+        <v>-0.26042159036476181</v>
       </c>
       <c r="J12">
-        <v>0.03959021693758492</v>
+        <v>3.9590216937584917E-2</v>
       </c>
       <c r="K12">
         <v>0.1495256910704528</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
       <c r="C13">
         <v>763</v>
       </c>
       <c r="D13">
-        <v>4288.2983</v>
+        <v>4288.2983000000004</v>
       </c>
       <c r="E13">
-        <v>19819.7985</v>
+        <v>19819.798500000001</v>
       </c>
       <c r="F13">
-        <v>-0.04348933699820914</v>
+        <v>-4.3489336998209137E-2</v>
       </c>
       <c r="G13">
         <v>-0.1399115673960033</v>
       </c>
       <c r="H13">
-        <v>-0.09642223039779414</v>
+        <v>-9.6422230397794143E-2</v>
       </c>
       <c r="I13">
-        <v>-0.240371606666659</v>
+        <v>-0.24037160666665899</v>
       </c>
       <c r="J13">
-        <v>0.04752714587107067</v>
+        <v>4.7527145871070667E-2</v>
       </c>
       <c r="K13">
-        <v>0.1904498519366875</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+        <v>0.19044985193668751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
       </c>
       <c r="C14">
         <v>767</v>
       </c>
       <c r="D14">
-        <v>4244.6775</v>
+        <v>4244.6774999999998</v>
       </c>
       <c r="E14">
-        <v>19819.7985</v>
+        <v>19819.798500000001</v>
       </c>
       <c r="F14">
-        <v>0.07546567646788477</v>
+        <v>7.5465676467884768E-2</v>
       </c>
       <c r="G14">
-        <v>0.01297271386818256</v>
+        <v>1.2972713868182561E-2</v>
       </c>
       <c r="H14">
-        <v>-0.0624929625997022</v>
+        <v>-6.2492962599702197E-2</v>
       </c>
       <c r="I14">
         <v>-0.1301798847710062</v>
       </c>
       <c r="J14">
-        <v>0.005193959571601833</v>
+        <v>5.1939595716018333E-3</v>
       </c>
       <c r="K14">
-        <v>0.0699666252065687</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+        <v>6.9966625206568697E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
       <c r="C15">
         <v>767</v>
       </c>
       <c r="D15">
-        <v>4244.6775</v>
+        <v>4244.6774999999998</v>
       </c>
       <c r="E15">
-        <v>19819.7985</v>
+        <v>19819.798500000001</v>
       </c>
       <c r="F15">
-        <v>0.06000436420479705</v>
+        <v>6.0004364204797052E-2</v>
       </c>
       <c r="G15">
         <v>0.1141368994759428</v>
       </c>
       <c r="H15">
-        <v>0.05413253527114577</v>
+        <v>5.4132535271145768E-2</v>
       </c>
       <c r="I15">
-        <v>-0.1964695000191493</v>
+        <v>-0.19646950001914931</v>
       </c>
       <c r="J15">
-        <v>0.3047345705614408</v>
+        <v>0.30473457056144082</v>
       </c>
       <c r="K15">
-        <v>0.685140600682432</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+        <v>0.68514060068243199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
       </c>
       <c r="C16">
         <v>767</v>
       </c>
       <c r="D16">
-        <v>4244.6775</v>
+        <v>4244.6774999999998</v>
       </c>
       <c r="E16">
-        <v>19819.7985</v>
+        <v>19819.798500000001</v>
       </c>
       <c r="F16">
-        <v>0.03960759996684311</v>
+        <v>3.9607599966843113E-2</v>
       </c>
       <c r="G16">
-        <v>0.009179576662104319</v>
+        <v>9.1795766621043193E-3</v>
       </c>
       <c r="H16">
-        <v>-0.03042802330473879</v>
+        <v>-3.0428023304738792E-2</v>
       </c>
       <c r="I16">
-        <v>-0.09564010722536469</v>
+        <v>-9.5640107225364687E-2</v>
       </c>
       <c r="J16">
-        <v>0.03478406061588711</v>
+        <v>3.4784060615887111E-2</v>
       </c>
       <c r="K16">
-        <v>0.3665363238178662</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+        <v>0.36653632381786622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
       </c>
       <c r="C17">
         <v>767</v>
       </c>
       <c r="D17">
-        <v>4244.6775</v>
+        <v>4244.6774999999998</v>
       </c>
       <c r="E17">
-        <v>19819.7985</v>
+        <v>19819.798500000001</v>
       </c>
       <c r="F17">
-        <v>-0.08810203186175078</v>
+        <v>-8.8102031861750779E-2</v>
       </c>
       <c r="G17">
-        <v>-0.1251532684238419</v>
+        <v>-0.12515326842384189</v>
       </c>
       <c r="H17">
-        <v>-0.0370512365620911</v>
+        <v>-3.7051236562091097E-2</v>
       </c>
       <c r="I17">
-        <v>-0.09992400822925179</v>
+        <v>-9.9924008229251793E-2</v>
       </c>
       <c r="J17">
-        <v>0.02582153510506958</v>
+        <v>2.5821535105069581E-2</v>
       </c>
       <c r="K17">
         <v>0.2507866464987985</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
       </c>
       <c r="C18">
         <v>767</v>
       </c>
       <c r="D18">
-        <v>918.33174</v>
+        <v>918.33173999999997</v>
       </c>
       <c r="E18">
-        <v>2332.3492</v>
+        <v>2332.3492000000001</v>
       </c>
       <c r="F18">
-        <v>-0.01122415623964136</v>
+        <v>-1.122415623964136E-2</v>
       </c>
       <c r="G18">
-        <v>0.1284505746468217</v>
+        <v>0.12845057464682169</v>
       </c>
       <c r="H18">
-        <v>0.1396747308864631</v>
+        <v>0.13967473088646309</v>
       </c>
       <c r="I18">
-        <v>-0.01147623342694096</v>
+        <v>-1.1476233426940961E-2</v>
       </c>
       <c r="J18">
-        <v>0.2908256951998672</v>
+        <v>0.29082569519986717</v>
       </c>
       <c r="K18">
-        <v>0.0697202822196643</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+        <v>6.9720282219664295E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
       </c>
       <c r="C19">
         <v>762</v>
       </c>
       <c r="D19">
-        <v>919.5907500000001</v>
+        <v>919.59075000000007</v>
       </c>
       <c r="E19">
-        <v>2332.197125</v>
+        <v>2332.1971250000001</v>
       </c>
       <c r="F19">
-        <v>0.1093381508791628</v>
+        <v>0.10933815087916279</v>
       </c>
       <c r="G19">
         <v>0.1645534296954001</v>
       </c>
       <c r="H19">
-        <v>0.05521527881623735</v>
+        <v>5.5215278816237348E-2</v>
       </c>
       <c r="I19">
-        <v>-0.09161326171673408</v>
+        <v>-9.1613261716734076E-2</v>
       </c>
       <c r="J19">
-        <v>0.2020438193492088</v>
+        <v>0.20204381934920879</v>
       </c>
       <c r="K19">
-        <v>0.470259001929198</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+        <v>0.47025900192919801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
       <c r="C20">
         <v>764</v>
       </c>
       <c r="D20">
-        <v>920.45225</v>
+        <v>920.45225000000005</v>
       </c>
       <c r="E20">
-        <v>2337.7548</v>
+        <v>2337.7548000000002</v>
       </c>
       <c r="F20">
-        <v>-0.0181975572609884</v>
+        <v>-1.8197557260988401E-2</v>
       </c>
       <c r="G20">
-        <v>0.1329510880972322</v>
+        <v>0.13295108809723219</v>
       </c>
       <c r="H20">
-        <v>0.1511486453582206</v>
+        <v>0.15114864535822059</v>
       </c>
       <c r="I20">
-        <v>-0.01109578654878604</v>
+        <v>-1.1095786548786041E-2</v>
       </c>
       <c r="J20">
-        <v>0.3133930772652272</v>
+        <v>0.31339307726522719</v>
       </c>
       <c r="K20">
-        <v>0.06746107569916637</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+        <v>6.7461075699166373E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
       <c r="C21">
         <v>764</v>
       </c>
       <c r="D21">
-        <v>918.74587</v>
+        <v>918.74586999999997</v>
       </c>
       <c r="E21">
-        <v>2332.2831</v>
+        <v>2332.2831000000001</v>
       </c>
       <c r="F21">
-        <v>-0.1211391162921192</v>
+        <v>-0.12113911629211919</v>
       </c>
       <c r="G21">
-        <v>0.0137447893718793</v>
+        <v>1.37447893718793E-2</v>
       </c>
       <c r="H21">
-        <v>0.1348839056639985</v>
+        <v>0.13488390566399849</v>
       </c>
       <c r="I21">
-        <v>-0.03059512777015372</v>
+        <v>-3.0595127770153718E-2</v>
       </c>
       <c r="J21">
-        <v>0.3003629390981506</v>
+        <v>0.30036293909815059</v>
       </c>
       <c r="K21">
-        <v>0.1099988153248812</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+        <v>0.10999881532488121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
       </c>
       <c r="C22">
         <v>768</v>
       </c>
       <c r="D22">
-        <v>917.476365</v>
+        <v>917.47636499999999</v>
       </c>
       <c r="E22">
-        <v>2332.2831</v>
+        <v>2332.2831000000001</v>
       </c>
       <c r="F22">
-        <v>-0.01547239145993308</v>
+        <v>-1.547239145993308E-2</v>
       </c>
       <c r="G22">
-        <v>0.1420151513250315</v>
+        <v>0.14201515132503151</v>
       </c>
       <c r="H22">
-        <v>0.1574875427849645</v>
+        <v>0.15748754278496449</v>
       </c>
       <c r="I22">
-        <v>0.002725500771095818</v>
+        <v>2.7255007710958179E-3</v>
       </c>
       <c r="J22">
-        <v>0.3122495847988332</v>
+        <v>0.31224958479883319</v>
       </c>
       <c r="K22">
-        <v>0.04573193602110219</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+        <v>4.573193602110219E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
       </c>
       <c r="C23">
         <v>768</v>
       </c>
       <c r="D23">
-        <v>917.476365</v>
+        <v>917.47636499999999</v>
       </c>
       <c r="E23">
-        <v>2332.2831</v>
+        <v>2332.2831000000001</v>
       </c>
       <c r="F23">
-        <v>0.08452313430737585</v>
+        <v>8.4523134307375847E-2</v>
       </c>
       <c r="G23">
         <v>0.1880252966863584</v>
       </c>
       <c r="H23">
-        <v>0.1035021623789825</v>
+        <v>0.10350216237898251</v>
       </c>
       <c r="I23">
-        <v>-0.05215811736958288</v>
+        <v>-5.2158117369582882E-2</v>
       </c>
       <c r="J23">
-        <v>0.259162442127548</v>
+        <v>0.25916244212754802</v>
       </c>
       <c r="K23">
-        <v>0.1937881751179691</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+        <v>0.19378817511796911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
       </c>
       <c r="C24">
         <v>768</v>
       </c>
       <c r="D24">
-        <v>917.476365</v>
+        <v>917.47636499999999</v>
       </c>
       <c r="E24">
-        <v>2332.2831</v>
+        <v>2332.2831000000001</v>
       </c>
       <c r="F24">
-        <v>-0.05749951911031789</v>
+        <v>-5.7499519110317893E-2</v>
       </c>
       <c r="G24">
         <v>0.1511009886036988</v>
@@ -1303,64 +1382,56 @@
         <v>0.2086005077140167</v>
       </c>
       <c r="I24">
-        <v>0.03995824281400667</v>
+        <v>3.9958242814006673E-2</v>
       </c>
       <c r="J24">
-        <v>0.3772427726140268</v>
+        <v>0.37724277261402678</v>
       </c>
       <c r="K24">
-        <v>0.01524603902894358</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+        <v>1.524603902894358E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
       </c>
       <c r="C25">
         <v>768</v>
       </c>
       <c r="D25">
-        <v>917.476365</v>
+        <v>917.47636499999999</v>
       </c>
       <c r="E25">
-        <v>2332.2831</v>
+        <v>2332.2831000000001</v>
       </c>
       <c r="F25">
-        <v>-0.2059476543175023</v>
+        <v>-0.20594765431750231</v>
       </c>
       <c r="G25">
-        <v>-0.005424124189817031</v>
+        <v>-5.4241241898170308E-3</v>
       </c>
       <c r="H25">
-        <v>0.2005235301276853</v>
+        <v>0.20052353012768531</v>
       </c>
       <c r="I25">
-        <v>0.009938922282632823</v>
+        <v>9.9389222826328227E-3</v>
       </c>
       <c r="J25">
-        <v>0.3911081379727377</v>
+        <v>0.39110813797273769</v>
       </c>
       <c r="K25">
-        <v>0.03886193394109631</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>3.8861933941096313E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
       </c>
       <c r="C26">
         <v>946</v>
@@ -1369,46 +1440,42 @@
         <v>0.21206395</v>
       </c>
       <c r="E26">
-        <v>0.9839051</v>
+        <v>0.98390509999999998</v>
       </c>
       <c r="F26">
-        <v>-0.005895299820809848</v>
+        <v>-5.8952998208098477E-3</v>
       </c>
       <c r="G26">
-        <v>0.03059114456890792</v>
+        <v>3.0591144568907921E-2</v>
       </c>
       <c r="H26">
-        <v>0.03648644438971776</v>
+        <v>3.6486444389717758E-2</v>
       </c>
       <c r="I26">
         <v>-0.1936982506663138</v>
       </c>
       <c r="J26">
-        <v>0.2666711394457493</v>
+        <v>0.26667113944574927</v>
       </c>
       <c r="K26">
-        <v>0.7688116603615279</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>0.76881166036152793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
       </c>
       <c r="C27">
         <v>944</v>
       </c>
       <c r="D27">
-        <v>0.211418975</v>
+        <v>0.21141897500000001</v>
       </c>
       <c r="E27">
-        <v>0.9848725749999999</v>
+        <v>0.98487257499999992</v>
       </c>
       <c r="F27">
         <v>0.1129751624110039</v>
@@ -1417,28 +1484,24 @@
         <v>0.1129751623728284</v>
       </c>
       <c r="H27">
-        <v>-3.817553734995232e-11</v>
+        <v>-3.8175537349952322E-11</v>
       </c>
       <c r="I27">
-        <v>-2.171950184052144e-06</v>
+        <v>-2.171950184052144E-6</v>
       </c>
       <c r="J27">
-        <v>2.171873832977445e-06</v>
+        <v>2.171873832977445E-6</v>
       </c>
       <c r="K27">
-        <v>0.9999752986052546</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>0.99997529860525458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
       </c>
       <c r="C28">
         <v>943</v>
@@ -1447,124 +1510,112 @@
         <v>0.21103295</v>
       </c>
       <c r="E28">
-        <v>0.9835826</v>
+        <v>0.98358259999999997</v>
       </c>
       <c r="F28">
-        <v>0.07721856083292672</v>
+        <v>7.7218560832926719E-2</v>
       </c>
       <c r="G28">
-        <v>0.07721947944551182</v>
+        <v>7.7219479445511816E-2</v>
       </c>
       <c r="H28">
-        <v>9.19530603561722e-07</v>
+        <v>9.1953060356172196E-7</v>
       </c>
       <c r="I28">
-        <v>-1.346717223281928e-06</v>
+        <v>-1.346717223281928E-6</v>
       </c>
       <c r="J28">
-        <v>3.185778430405371e-06</v>
+        <v>3.1857784304053709E-6</v>
       </c>
       <c r="K28">
-        <v>0.4346082352416721</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>0.43460823524167208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
       </c>
       <c r="C29">
         <v>944</v>
       </c>
       <c r="D29">
-        <v>0.211418975</v>
+        <v>0.21141897500000001</v>
       </c>
       <c r="E29">
-        <v>0.9832601</v>
+        <v>0.98326009999999997</v>
       </c>
       <c r="F29">
-        <v>-6.356270976708882e-05</v>
+        <v>-6.3562709767088824E-5</v>
       </c>
       <c r="G29">
-        <v>-0.005195340088772183</v>
+        <v>-5.1953400887721829E-3</v>
       </c>
       <c r="H29">
-        <v>-0.005131777379005095</v>
+        <v>-5.1317773790050952E-3</v>
       </c>
       <c r="I29">
-        <v>-0.04880011794803286</v>
+        <v>-4.8800117948032858E-2</v>
       </c>
       <c r="J29">
-        <v>0.03853656319002267</v>
+        <v>3.8536563190022667E-2</v>
       </c>
       <c r="K29">
-        <v>0.8292617559056494</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>0.82926175590564943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
       </c>
       <c r="C30">
         <v>948</v>
       </c>
       <c r="D30">
-        <v>0.211418975</v>
+        <v>0.21141897500000001</v>
       </c>
       <c r="E30">
-        <v>0.9832601</v>
+        <v>0.98326009999999997</v>
       </c>
       <c r="F30">
-        <v>-0.02650295648627907</v>
+        <v>-2.650295648627907E-2</v>
       </c>
       <c r="G30">
-        <v>0.04382273361656076</v>
+        <v>4.3822733616560763E-2</v>
       </c>
       <c r="H30">
-        <v>0.07032569010283983</v>
+        <v>7.032569010283983E-2</v>
       </c>
       <c r="I30">
         <v>-0.1688922479081523</v>
       </c>
       <c r="J30">
-        <v>0.309543628113832</v>
+        <v>0.30954362811383201</v>
       </c>
       <c r="K30">
-        <v>0.5762262133322021</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>0.57622621333220214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
       </c>
       <c r="C31">
         <v>948</v>
       </c>
       <c r="D31">
-        <v>0.211418975</v>
+        <v>0.21141897500000001</v>
       </c>
       <c r="E31">
-        <v>0.9832601</v>
+        <v>0.98326009999999997</v>
       </c>
       <c r="F31">
         <v>0.1190109987781155</v>
@@ -1573,154 +1624,138 @@
         <v>0.1190109987648936</v>
       </c>
       <c r="H31">
-        <v>-1.322182768828083e-11</v>
+        <v>-1.3221827688280831E-11</v>
       </c>
       <c r="I31">
-        <v>-1.772816684255837e-06</v>
+        <v>-1.7728166842558369E-6</v>
       </c>
       <c r="J31">
-        <v>1.772790240600461e-06</v>
+        <v>1.772790240600461E-6</v>
       </c>
       <c r="K31">
-        <v>0.9999895188837933</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>0.99998951888379328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
       </c>
       <c r="C32">
         <v>948</v>
       </c>
       <c r="D32">
-        <v>0.211418975</v>
+        <v>0.21141897500000001</v>
       </c>
       <c r="E32">
-        <v>0.9832601</v>
+        <v>0.98326009999999997</v>
       </c>
       <c r="F32">
-        <v>-0.03373798640295309</v>
+        <v>-3.3737986402953092E-2</v>
       </c>
       <c r="G32">
-        <v>0.01672252663753901</v>
+        <v>1.6722526637539009E-2</v>
       </c>
       <c r="H32">
-        <v>0.05046051304049208</v>
+        <v>5.046051304049208E-2</v>
       </c>
       <c r="I32">
-        <v>-0.1727125222650484</v>
+        <v>-0.17271252226504841</v>
       </c>
       <c r="J32">
-        <v>0.2736335483460325</v>
+        <v>0.27363354834603248</v>
       </c>
       <c r="K32">
-        <v>0.6706885987857295</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>0.67068859878572951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
       </c>
       <c r="C33">
         <v>948</v>
       </c>
       <c r="D33">
-        <v>0.211418975</v>
+        <v>0.21141897500000001</v>
       </c>
       <c r="E33">
-        <v>0.9832601</v>
+        <v>0.98326009999999997</v>
       </c>
       <c r="F33">
-        <v>-0.1156341456392247</v>
+        <v>-0.11563414563922469</v>
       </c>
       <c r="G33">
-        <v>-0.08669281269713955</v>
+        <v>-8.6692812697139549E-2</v>
       </c>
       <c r="H33">
-        <v>0.02894133294208512</v>
+        <v>2.8941332942085118E-2</v>
       </c>
       <c r="I33">
         <v>-0.1838326045377664</v>
       </c>
       <c r="J33">
-        <v>0.2417152704219366</v>
+        <v>0.24171527042193661</v>
       </c>
       <c r="K33">
-        <v>0.801943323732609</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+        <v>0.80194332373260901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
       </c>
       <c r="C34">
         <v>946</v>
       </c>
       <c r="D34">
-        <v>2.0094515</v>
+        <v>2.0094514999999999</v>
       </c>
       <c r="E34">
-        <v>8.264853499999999</v>
+        <v>8.2648534999999992</v>
       </c>
       <c r="F34">
         <v>0.1079218441511242</v>
       </c>
       <c r="G34">
-        <v>0.07706962971584981</v>
+        <v>7.7069629715849811E-2</v>
       </c>
       <c r="H34">
-        <v>-0.03085221443527438</v>
+        <v>-3.0852214435274378E-2</v>
       </c>
       <c r="I34">
-        <v>-0.07120631382414391</v>
+        <v>-7.1206313824143913E-2</v>
       </c>
       <c r="J34">
-        <v>0.009501884953595149</v>
+        <v>9.5018849535951494E-3</v>
       </c>
       <c r="K34">
         <v>0.1341844510497002</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
       </c>
       <c r="C35">
         <v>944</v>
       </c>
       <c r="D35">
-        <v>2.0060325</v>
+        <v>2.0060324999999999</v>
       </c>
       <c r="E35">
-        <v>8.2442685</v>
+        <v>8.2442685000000004</v>
       </c>
       <c r="F35">
         <v>0.1044424866977154</v>
@@ -1729,154 +1764,138 @@
         <v>0.1140629071037656</v>
       </c>
       <c r="H35">
-        <v>0.009620420406050234</v>
+        <v>9.6204204060502344E-3</v>
       </c>
       <c r="I35">
-        <v>-0.02788453588585046</v>
+        <v>-2.7884535885850461E-2</v>
       </c>
       <c r="J35">
-        <v>0.04712537669795092</v>
+        <v>4.7125376697950923E-2</v>
       </c>
       <c r="K35">
-        <v>0.6277387371373134</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+        <v>0.62773873713731343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
       </c>
       <c r="C36">
         <v>943</v>
       </c>
       <c r="D36">
-        <v>2.003224</v>
+        <v>2.0032239999999999</v>
       </c>
       <c r="E36">
-        <v>8.254560999999999</v>
+        <v>8.2545609999999989</v>
       </c>
       <c r="F36">
-        <v>0.08114315466035667</v>
+        <v>8.1143154660356667E-2</v>
       </c>
       <c r="G36">
-        <v>0.07685772194672597</v>
+        <v>7.6857721946725965E-2</v>
       </c>
       <c r="H36">
-        <v>-0.004285432713630722</v>
+        <v>-4.2854327136307218E-3</v>
       </c>
       <c r="I36">
-        <v>-0.04294586799628327</v>
+        <v>-4.294586799628327E-2</v>
       </c>
       <c r="J36">
-        <v>0.03437500256902182</v>
+        <v>3.4375002569021818E-2</v>
       </c>
       <c r="K36">
-        <v>0.8391101309721352</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+        <v>0.83911013097213516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
       </c>
       <c r="C37">
         <v>944</v>
       </c>
       <c r="D37">
-        <v>2.0060325</v>
+        <v>2.0060324999999999</v>
       </c>
       <c r="E37">
-        <v>8.2912705</v>
+        <v>8.2912704999999995</v>
       </c>
       <c r="F37">
-        <v>0.007285394038350178</v>
+        <v>7.2853940383501778E-3</v>
       </c>
       <c r="G37">
-        <v>0.09470839230848817</v>
+        <v>9.4708392308488168E-2</v>
       </c>
       <c r="H37">
-        <v>0.08742299827013797</v>
+        <v>8.7422998270137969E-2</v>
       </c>
       <c r="I37">
-        <v>-0.1371194355768482</v>
+        <v>-0.13711943557684819</v>
       </c>
       <c r="J37">
-        <v>0.3119654321171242</v>
+        <v>0.31196543211712419</v>
       </c>
       <c r="K37">
         <v>0.4541203730411344</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
       </c>
       <c r="C38">
         <v>948</v>
       </c>
       <c r="D38">
-        <v>2.0060325</v>
+        <v>2.0060324999999999</v>
       </c>
       <c r="E38">
-        <v>8.2442685</v>
+        <v>8.2442685000000004</v>
       </c>
       <c r="F38">
-        <v>0.1096918193946071</v>
+        <v>0.10969181939460711</v>
       </c>
       <c r="G38">
-        <v>0.08158998353575091</v>
+        <v>8.1589983535750907E-2</v>
       </c>
       <c r="H38">
-        <v>-0.0281018358588562</v>
+        <v>-2.81018358588562E-2</v>
       </c>
       <c r="I38">
-        <v>-0.06917245248175105</v>
+        <v>-6.9172452481751051E-2</v>
       </c>
       <c r="J38">
-        <v>0.01296878076403866</v>
+        <v>1.296878076403866E-2</v>
       </c>
       <c r="K38">
-        <v>0.1809099304725955</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+        <v>0.18090993047259549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
       </c>
       <c r="C39">
         <v>948</v>
       </c>
       <c r="D39">
-        <v>2.0060325</v>
+        <v>2.0060324999999999</v>
       </c>
       <c r="E39">
-        <v>8.2442685</v>
+        <v>8.2442685000000004</v>
       </c>
       <c r="F39">
         <v>0.1088340122304826</v>
@@ -1885,154 +1904,138 @@
         <v>0.1203206052402771</v>
       </c>
       <c r="H39">
-        <v>0.0114865930097945</v>
+        <v>1.14865930097945E-2</v>
       </c>
       <c r="I39">
-        <v>-0.0246944153917832</v>
+        <v>-2.46944153917832E-2</v>
       </c>
       <c r="J39">
-        <v>0.04766760141137219</v>
+        <v>4.766760141137219E-2</v>
       </c>
       <c r="K39">
-        <v>0.5448583309930062</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+        <v>0.54485833099300618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
       </c>
       <c r="C40">
         <v>948</v>
       </c>
       <c r="D40">
-        <v>2.0060325</v>
+        <v>2.0060324999999999</v>
       </c>
       <c r="E40">
-        <v>8.2442685</v>
+        <v>8.2442685000000004</v>
       </c>
       <c r="F40">
-        <v>0.06653234657542602</v>
+        <v>6.6532346575426018E-2</v>
       </c>
       <c r="G40">
-        <v>0.06616456631803866</v>
+        <v>6.6164566318038659E-2</v>
       </c>
       <c r="H40">
-        <v>-0.0003677802573873289</v>
+        <v>-3.677802573873289E-4</v>
       </c>
       <c r="I40">
-        <v>-0.03959848806342327</v>
+        <v>-3.9598488063423268E-2</v>
       </c>
       <c r="J40">
-        <v>0.03886292754864861</v>
+        <v>3.8862927548648611E-2</v>
       </c>
       <c r="K40">
-        <v>0.986773198790769</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+        <v>0.98677319879076897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
       </c>
       <c r="C41">
         <v>948</v>
       </c>
       <c r="D41">
-        <v>2.0060325</v>
+        <v>2.0060324999999999</v>
       </c>
       <c r="E41">
-        <v>8.2442685</v>
+        <v>8.2442685000000004</v>
       </c>
       <c r="F41">
-        <v>-0.04260893563755792</v>
+        <v>-4.2608935637557917E-2</v>
       </c>
       <c r="G41">
-        <v>-0.03304455047307499</v>
+        <v>-3.3044550473074988E-2</v>
       </c>
       <c r="H41">
-        <v>0.009564385164482917</v>
+        <v>9.5643851644829168E-3</v>
       </c>
       <c r="I41">
-        <v>-0.02837804137691621</v>
+        <v>-2.837804137691621E-2</v>
       </c>
       <c r="J41">
-        <v>0.04750681170588204</v>
+        <v>4.7506811705882043E-2</v>
       </c>
       <c r="K41">
-        <v>0.6339435596472874</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+        <v>0.63394355964728744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
       </c>
       <c r="C42">
         <v>1338</v>
       </c>
       <c r="D42">
-        <v>0.25412755</v>
+        <v>0.25412754999999998</v>
       </c>
       <c r="E42">
-        <v>0.889681175</v>
+        <v>0.88968117499999999</v>
       </c>
       <c r="F42">
         <v>0.1099673327950801</v>
       </c>
       <c r="G42">
-        <v>0.2669274840196936</v>
+        <v>0.26692748401969357</v>
       </c>
       <c r="H42">
-        <v>0.1569601512246135</v>
+        <v>0.15696015122461349</v>
       </c>
       <c r="I42">
-        <v>-0.02611861227876405</v>
+        <v>-2.6118612278764049E-2</v>
       </c>
       <c r="J42">
-        <v>0.340038914727991</v>
+        <v>0.34003891472799103</v>
       </c>
       <c r="K42">
-        <v>0.09259852070261805</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+        <v>9.2598520702618051E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
       </c>
       <c r="C43">
         <v>1329</v>
       </c>
       <c r="D43">
-        <v>0.2532013</v>
+        <v>0.25320130000000002</v>
       </c>
       <c r="E43">
-        <v>0.888563</v>
+        <v>0.88856299999999999</v>
       </c>
       <c r="F43">
         <v>0.1213647202325969</v>
@@ -2041,193 +2044,173 @@
         <v>0.1862439009931828</v>
       </c>
       <c r="H43">
-        <v>0.06487918076058591</v>
+        <v>6.4879180760585908E-2</v>
       </c>
       <c r="I43">
         <v>-0.120929256097763</v>
       </c>
       <c r="J43">
-        <v>0.2506876176189349</v>
+        <v>0.25068761761893488</v>
       </c>
       <c r="K43">
-        <v>0.5038169794530788</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+        <v>0.50381697945307879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
       </c>
       <c r="C44">
         <v>1332</v>
       </c>
       <c r="D44">
-        <v>0.25420985</v>
+        <v>0.25420985000000001</v>
       </c>
       <c r="E44">
-        <v>0.891273675</v>
+        <v>0.89127367499999999</v>
       </c>
       <c r="F44">
-        <v>0.09345800622509902</v>
+        <v>9.3458006225099019E-2</v>
       </c>
       <c r="G44">
-        <v>0.1693597453267401</v>
+        <v>0.16935974532674011</v>
       </c>
       <c r="H44">
-        <v>0.07590173910164107</v>
+        <v>7.5901739101641066E-2</v>
       </c>
       <c r="I44">
-        <v>-0.09259778114957566</v>
+        <v>-9.2597781149575661E-2</v>
       </c>
       <c r="J44">
-        <v>0.2444012593528578</v>
+        <v>0.24440125935285781</v>
       </c>
       <c r="K44">
-        <v>0.3839244780239995</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+        <v>0.38392447802399948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
       </c>
       <c r="C45">
         <v>1338</v>
       </c>
       <c r="D45">
-        <v>0.254496125</v>
+        <v>0.25449612500000002</v>
       </c>
       <c r="E45">
-        <v>0.8937132249999999</v>
+        <v>0.89371322499999994</v>
       </c>
       <c r="F45">
-        <v>0.04215199010808558</v>
+        <v>4.2151990108085582E-2</v>
       </c>
       <c r="G45">
-        <v>0.1211039485200719</v>
+        <v>0.12110394852007191</v>
       </c>
       <c r="H45">
-        <v>0.07895195841198628</v>
+        <v>7.8951958411986281E-2</v>
       </c>
       <c r="I45">
-        <v>-0.01800965120333048</v>
+        <v>-1.8009651203330479E-2</v>
       </c>
       <c r="J45">
-        <v>0.175913568027303</v>
+        <v>0.17591356802730301</v>
       </c>
       <c r="K45">
         <v>0.1103750993742061</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
       </c>
       <c r="C46">
         <v>1341</v>
       </c>
       <c r="D46">
-        <v>0.2540864</v>
+        <v>0.25408639999999999</v>
       </c>
       <c r="E46">
-        <v>0.8900539</v>
+        <v>0.89005389999999995</v>
       </c>
       <c r="F46">
         <v>0.1002249340798554</v>
       </c>
       <c r="G46">
-        <v>0.2502921939749468</v>
+        <v>0.25029219397494679</v>
       </c>
       <c r="H46">
-        <v>0.1500672598950913</v>
+        <v>0.15006725989509129</v>
       </c>
       <c r="I46">
-        <v>-0.03872999422696269</v>
+        <v>-3.8729994226962688E-2</v>
       </c>
       <c r="J46">
-        <v>0.3388645140171453</v>
+        <v>0.33886451401714529</v>
       </c>
       <c r="K46">
         <v>0.119228075809969</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
       </c>
       <c r="C47">
         <v>1341</v>
       </c>
       <c r="D47">
-        <v>0.2540864</v>
+        <v>0.25408639999999999</v>
       </c>
       <c r="E47">
-        <v>0.8900539</v>
+        <v>0.89005389999999995</v>
       </c>
       <c r="F47">
-        <v>0.1124568088105909</v>
+        <v>0.11245680881059091</v>
       </c>
       <c r="G47">
-        <v>0.09738654401318594</v>
+        <v>9.7386544013185944E-2</v>
       </c>
       <c r="H47">
-        <v>-0.01507026479740493</v>
+        <v>-1.507026479740493E-2</v>
       </c>
       <c r="I47">
-        <v>-0.08150408702417232</v>
+        <v>-8.150408702417232E-2</v>
       </c>
       <c r="J47">
-        <v>0.05136355742936245</v>
+        <v>5.1363557429362452E-2</v>
       </c>
       <c r="K47">
-        <v>0.669630718554056</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+        <v>0.66963071855405598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
       </c>
       <c r="C48">
         <v>1341</v>
       </c>
       <c r="D48">
-        <v>0.2540864</v>
+        <v>0.25408639999999999</v>
       </c>
       <c r="E48">
-        <v>0.8900539</v>
+        <v>0.89005389999999995</v>
       </c>
       <c r="F48">
         <v>0.1090804302353372</v>
@@ -2239,73 +2222,65 @@
         <v>0.105454250104877</v>
       </c>
       <c r="I48">
-        <v>-0.07764208516258224</v>
+        <v>-7.7642085162582239E-2</v>
       </c>
       <c r="J48">
-        <v>0.2885505853723362</v>
+        <v>0.28855058537233619</v>
       </c>
       <c r="K48">
-        <v>0.2619730618214851</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+        <v>0.26197306182148511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
       </c>
       <c r="C49">
         <v>1341</v>
       </c>
       <c r="D49">
-        <v>0.2540864</v>
+        <v>0.25408639999999999</v>
       </c>
       <c r="E49">
-        <v>0.8900539</v>
+        <v>0.89005389999999995</v>
       </c>
       <c r="F49">
-        <v>0.04027941499515678</v>
+        <v>4.0279414995156783E-2</v>
       </c>
       <c r="G49">
         <v>0.1478400805157811</v>
       </c>
       <c r="H49">
-        <v>0.1075606655206243</v>
+        <v>0.10756066552062429</v>
       </c>
       <c r="I49">
-        <v>-0.0584472064610992</v>
+        <v>-5.8447206461099202E-2</v>
       </c>
       <c r="J49">
-        <v>0.2735685375023479</v>
+        <v>0.27356853750234789</v>
       </c>
       <c r="K49">
         <v>0.2056791428375945</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
       </c>
       <c r="C50">
         <v>1337</v>
       </c>
       <c r="D50">
-        <v>2731.177</v>
+        <v>2731.1770000000001</v>
       </c>
       <c r="E50">
-        <v>10322.586</v>
+        <v>10322.585999999999</v>
       </c>
       <c r="F50">
         <v>0.1553880788489112</v>
@@ -2314,34 +2289,30 @@
         <v>0.1618431582083617</v>
       </c>
       <c r="H50">
-        <v>0.006455079359450477</v>
+        <v>6.455079359450477E-3</v>
       </c>
       <c r="I50">
-        <v>-0.03378123256838825</v>
+        <v>-3.3781232568388248E-2</v>
       </c>
       <c r="J50">
-        <v>0.04669139128728921</v>
+        <v>4.6691391287289212E-2</v>
       </c>
       <c r="K50">
-        <v>0.7659903918888573</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+        <v>0.76599039188885731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
       </c>
       <c r="C51">
         <v>1328</v>
       </c>
       <c r="D51">
-        <v>2726.6665</v>
+        <v>2726.6664999999998</v>
       </c>
       <c r="E51">
         <v>10319.42625</v>
@@ -2353,151 +2324,135 @@
         <v>0.1217524621348836</v>
       </c>
       <c r="H51">
-        <v>0.002524776987732523</v>
+        <v>2.5247769877325228E-3</v>
       </c>
       <c r="I51">
-        <v>-0.03552796054043399</v>
+        <v>-3.5527960540433987E-2</v>
       </c>
       <c r="J51">
-        <v>0.04057751451589903</v>
+        <v>4.0577514515899027E-2</v>
       </c>
       <c r="K51">
-        <v>0.9045864356626154</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+        <v>0.90458643566261543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
       </c>
       <c r="C52">
         <v>1331</v>
       </c>
       <c r="D52">
-        <v>2728.487</v>
+        <v>2728.4870000000001</v>
       </c>
       <c r="E52">
-        <v>10315.122</v>
+        <v>10315.121999999999</v>
       </c>
       <c r="F52">
         <v>0.1043681625887946</v>
       </c>
       <c r="G52">
-        <v>0.09769799559661645</v>
+        <v>9.7697995596616447E-2</v>
       </c>
       <c r="H52">
-        <v>-0.006670166992178135</v>
+        <v>-6.6701669921781347E-3</v>
       </c>
       <c r="I52">
-        <v>-0.0445015456634254</v>
+        <v>-4.4501545663425401E-2</v>
       </c>
       <c r="J52">
-        <v>0.03116121167906913</v>
+        <v>3.1161211679069128E-2</v>
       </c>
       <c r="K52">
-        <v>0.7427056356476787</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+        <v>0.74270563564767866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
       </c>
       <c r="C53">
         <v>1337</v>
       </c>
       <c r="D53">
-        <v>2731.177</v>
+        <v>2731.1770000000001</v>
       </c>
       <c r="E53">
-        <v>10311.871</v>
+        <v>10311.870999999999</v>
       </c>
       <c r="F53">
-        <v>0.06098360756255437</v>
+        <v>6.0983607562554373E-2</v>
       </c>
       <c r="G53">
-        <v>0.05402810394762947</v>
+        <v>5.4028103947629469E-2</v>
       </c>
       <c r="H53">
-        <v>-0.006955503614924903</v>
+        <v>-6.9555036149249027E-3</v>
       </c>
       <c r="I53">
-        <v>-0.04335057922513252</v>
+        <v>-4.3350579225132517E-2</v>
       </c>
       <c r="J53">
-        <v>0.02943957199528271</v>
+        <v>2.9439571995282712E-2</v>
       </c>
       <c r="K53">
-        <v>0.7211265602397594</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+        <v>0.72112656023975941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
       </c>
       <c r="C54">
         <v>1340</v>
       </c>
       <c r="D54">
-        <v>2730.59025</v>
+        <v>2730.5902500000002</v>
       </c>
       <c r="E54">
         <v>10319.42625</v>
       </c>
       <c r="F54">
-        <v>0.1462041490430123</v>
+        <v>0.14620414904301229</v>
       </c>
       <c r="G54">
-        <v>0.1556605356873325</v>
+        <v>0.15566053568733251</v>
       </c>
       <c r="H54">
-        <v>0.009456386644320134</v>
+        <v>9.4563866443201344E-3</v>
       </c>
       <c r="I54">
-        <v>-0.03160183017880359</v>
+        <v>-3.1601830178803587E-2</v>
       </c>
       <c r="J54">
-        <v>0.05051460346744387</v>
+        <v>5.0514603467443867E-2</v>
       </c>
       <c r="K54">
-        <v>0.6646856248062584</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+        <v>0.66468562480625837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
       </c>
       <c r="C55">
         <v>1340</v>
       </c>
       <c r="D55">
-        <v>2730.59025</v>
+        <v>2730.5902500000002</v>
       </c>
       <c r="E55">
         <v>10319.42625</v>
@@ -2506,37 +2461,33 @@
         <v>0.1018980596883846</v>
       </c>
       <c r="G55">
-        <v>0.1018980595778669</v>
+        <v>0.10189805957786691</v>
       </c>
       <c r="H55">
-        <v>-1.105176821951289e-10</v>
+        <v>-1.105176821951289E-10</v>
       </c>
       <c r="I55">
-        <v>-5.371672124749506e-06</v>
+        <v>-5.3716721247495063E-6</v>
       </c>
       <c r="J55">
-        <v>5.371451089385115e-06</v>
+        <v>5.3714510893851146E-6</v>
       </c>
       <c r="K55">
-        <v>0.9999710858575335</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+        <v>0.99997108585753347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
       </c>
       <c r="C56">
         <v>1340</v>
       </c>
       <c r="D56">
-        <v>2730.59025</v>
+        <v>2730.5902500000002</v>
       </c>
       <c r="E56">
         <v>10319.42625</v>
@@ -2548,418 +2499,374 @@
         <v>0.1039275046046885</v>
       </c>
       <c r="H56">
-        <v>-0.003543671427216775</v>
+        <v>-3.543671427216775E-3</v>
       </c>
       <c r="I56">
-        <v>-0.04273770449990458</v>
+        <v>-4.2737704499904577E-2</v>
       </c>
       <c r="J56">
-        <v>0.03565036164547104</v>
+        <v>3.5650361645471043E-2</v>
       </c>
       <c r="K56">
-        <v>0.8692505723144492</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+        <v>0.86925057231444924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
       </c>
       <c r="C57">
         <v>1340</v>
       </c>
       <c r="D57">
-        <v>2730.59025</v>
+        <v>2730.5902500000002</v>
       </c>
       <c r="E57">
         <v>10319.42625</v>
       </c>
       <c r="F57">
-        <v>0.04649193169989694</v>
+        <v>4.6491931699896939E-2</v>
       </c>
       <c r="G57">
-        <v>0.03828587134096724</v>
+        <v>3.828587134096724E-2</v>
       </c>
       <c r="H57">
-        <v>-0.008206060358929689</v>
+        <v>-8.2060603589296892E-3</v>
       </c>
       <c r="I57">
-        <v>-0.04541285540703061</v>
+        <v>-4.5412855407030613E-2</v>
       </c>
       <c r="J57">
-        <v>0.02900073468917122</v>
+        <v>2.900073468917122E-2</v>
       </c>
       <c r="K57">
-        <v>0.678626327400139</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>0.67862632740013895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
       </c>
       <c r="C58">
         <v>1338</v>
       </c>
       <c r="D58">
-        <v>648.7747499999999</v>
+        <v>648.77474999999993</v>
       </c>
       <c r="E58">
-        <v>2078.04175</v>
+        <v>2078.0417499999999</v>
       </c>
       <c r="F58">
-        <v>0.1598160670496528</v>
+        <v>0.15981606704965279</v>
       </c>
       <c r="G58">
-        <v>0.1712554980148188</v>
+        <v>0.17125549801481879</v>
       </c>
       <c r="H58">
-        <v>0.01143943096516591</v>
+        <v>1.1439430965165909E-2</v>
       </c>
       <c r="I58">
-        <v>-0.04113468644453911</v>
+        <v>-4.1134686444539111E-2</v>
       </c>
       <c r="J58">
-        <v>0.06401354837487093</v>
+        <v>6.4013548374870929E-2</v>
       </c>
       <c r="K58">
-        <v>0.6828775636587086</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>0.68287756365870855</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
       </c>
       <c r="C59">
         <v>1329</v>
       </c>
       <c r="D59">
-        <v>648.766</v>
+        <v>648.76599999999996</v>
       </c>
       <c r="E59">
-        <v>2082.658</v>
+        <v>2082.6579999999999</v>
       </c>
       <c r="F59">
         <v>0.1109433929148274</v>
       </c>
       <c r="G59">
-        <v>0.1250356093101833</v>
+        <v>0.12503560931018329</v>
       </c>
       <c r="H59">
-        <v>0.01409221639535589</v>
+        <v>1.409221639535589E-2</v>
       </c>
       <c r="I59">
-        <v>-0.03530853483722517</v>
+        <v>-3.5308534837225167E-2</v>
       </c>
       <c r="J59">
-        <v>0.06349296762793696</v>
+        <v>6.3492967627936964E-2</v>
       </c>
       <c r="K59">
         <v>0.5880566023286411</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
       </c>
       <c r="C60">
         <v>1332</v>
       </c>
       <c r="D60">
-        <v>648.7922500000001</v>
+        <v>648.79225000000008</v>
       </c>
       <c r="E60">
         <v>2079.89725</v>
       </c>
       <c r="F60">
-        <v>0.131986508046903</v>
+        <v>0.13198650804690301</v>
       </c>
       <c r="G60">
-        <v>0.1107737017963455</v>
+        <v>0.11077370179634551</v>
       </c>
       <c r="H60">
-        <v>-0.02121280625055749</v>
+        <v>-2.1212806250557489E-2</v>
       </c>
       <c r="I60">
         <v>-0.1909066501350602</v>
       </c>
       <c r="J60">
-        <v>0.1484810376339452</v>
+        <v>0.14848103763394521</v>
       </c>
       <c r="K60">
-        <v>0.818201335054717</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>0.81820133505471704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
       </c>
       <c r="C61">
         <v>1338</v>
       </c>
       <c r="D61">
-        <v>649.2840000000001</v>
+        <v>649.28400000000011</v>
       </c>
       <c r="E61">
-        <v>2078.04175</v>
+        <v>2078.0417499999999</v>
       </c>
       <c r="F61">
-        <v>0.0778719373055696</v>
+        <v>7.78719373055696E-2</v>
       </c>
       <c r="G61">
-        <v>0.08123000047975362</v>
+        <v>8.1230000479753622E-2</v>
       </c>
       <c r="H61">
-        <v>0.003358063174183998</v>
+        <v>3.3580631741839981E-3</v>
       </c>
       <c r="I61">
         <v>-0.1626041828894163</v>
       </c>
       <c r="J61">
-        <v>0.1693203092377843</v>
+        <v>0.16932030923778429</v>
       </c>
       <c r="K61">
-        <v>0.9713296401395324</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>0.97132964013953238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
       </c>
       <c r="C62">
         <v>1341</v>
       </c>
       <c r="D62">
-        <v>648.766</v>
+        <v>648.76599999999996</v>
       </c>
       <c r="E62">
-        <v>2078.977</v>
+        <v>2078.9769999999999</v>
       </c>
       <c r="F62">
         <v>0.171218894283864</v>
       </c>
       <c r="G62">
-        <v>0.1741957812315034</v>
+        <v>0.17419578123150339</v>
       </c>
       <c r="H62">
-        <v>0.002976886947639412</v>
+        <v>2.976886947639412E-3</v>
       </c>
       <c r="I62">
-        <v>-0.1915855231395192</v>
+        <v>-0.19158552313951921</v>
       </c>
       <c r="J62">
-        <v>0.1975392970347981</v>
+        <v>0.19753929703479811</v>
       </c>
       <c r="K62">
-        <v>0.9783614367587606</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>0.97836143675876064</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
       </c>
       <c r="C63">
         <v>1341</v>
       </c>
       <c r="D63">
-        <v>648.766</v>
+        <v>648.76599999999996</v>
       </c>
       <c r="E63">
-        <v>2078.977</v>
+        <v>2078.9769999999999</v>
       </c>
       <c r="F63">
-        <v>0.09281955664873601</v>
+        <v>9.2819556648736007E-2</v>
       </c>
       <c r="G63">
         <v>0.1052856583527647</v>
       </c>
       <c r="H63">
-        <v>0.01246610170402866</v>
+        <v>1.246610170402866E-2</v>
       </c>
       <c r="I63">
-        <v>-0.03807902035991332</v>
+        <v>-3.807902035991332E-2</v>
       </c>
       <c r="J63">
-        <v>0.06301122376797064</v>
+        <v>6.3011223767970637E-2</v>
       </c>
       <c r="K63">
-        <v>0.6415886703284076</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>0.64158867032840761</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
       </c>
       <c r="C64">
         <v>1341</v>
       </c>
       <c r="D64">
-        <v>648.766</v>
+        <v>648.76599999999996</v>
       </c>
       <c r="E64">
-        <v>2078.977</v>
+        <v>2078.9769999999999</v>
       </c>
       <c r="F64">
-        <v>0.1440937291238849</v>
+        <v>0.14409372912388491</v>
       </c>
       <c r="G64">
         <v>0.1110805075595946</v>
       </c>
       <c r="H64">
-        <v>-0.0330132215642903</v>
+        <v>-3.3013221564290297E-2</v>
       </c>
       <c r="I64">
-        <v>-0.2125277854445705</v>
+        <v>-0.21252778544457049</v>
       </c>
       <c r="J64">
         <v>0.1465013423159898</v>
       </c>
       <c r="K64">
-        <v>0.7316225840750129</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>0.73162258407501291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
       </c>
       <c r="C65">
         <v>1341</v>
       </c>
       <c r="D65">
-        <v>648.766</v>
+        <v>648.76599999999996</v>
       </c>
       <c r="E65">
-        <v>2078.977</v>
+        <v>2078.9769999999999</v>
       </c>
       <c r="F65">
-        <v>0.0229776047665771</v>
+        <v>2.2977604766577099E-2</v>
       </c>
       <c r="G65">
-        <v>0.06196447944247994</v>
+        <v>6.1964479442479937E-2</v>
       </c>
       <c r="H65">
-        <v>0.03898687467590285</v>
+        <v>3.8986874675902852E-2</v>
       </c>
       <c r="I65">
-        <v>-0.009551821790859921</v>
+        <v>-9.5518217908599212E-3</v>
       </c>
       <c r="J65">
-        <v>0.08752557114266561</v>
+        <v>8.7525571142665612E-2</v>
       </c>
       <c r="K65">
         <v>0.1153495885751826</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
       </c>
       <c r="C66">
         <v>1302</v>
       </c>
       <c r="D66">
-        <v>0.146860175</v>
+        <v>0.14686017500000001</v>
       </c>
       <c r="E66">
-        <v>0.5959701500000001</v>
+        <v>0.59597015000000009</v>
       </c>
       <c r="F66">
-        <v>0.1928129574016766</v>
+        <v>0.19281295740167659</v>
       </c>
       <c r="G66">
         <v>0.1537674202033088</v>
       </c>
       <c r="H66">
-        <v>-0.03904553719836785</v>
+        <v>-3.9045537198367848E-2</v>
       </c>
       <c r="I66">
-        <v>-0.1897847687601809</v>
+        <v>-0.18978476876018091</v>
       </c>
       <c r="J66">
         <v>0.1116936943634452</v>
       </c>
       <c r="K66">
-        <v>0.6242272523372143</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+        <v>0.62422725233721432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
       </c>
       <c r="C67">
         <v>1297</v>
@@ -2968,37 +2875,33 @@
         <v>0.1478276</v>
       </c>
       <c r="E67">
-        <v>0.5933744</v>
+        <v>0.59337439999999997</v>
       </c>
       <c r="F67">
         <v>0.1857905896178314</v>
       </c>
       <c r="G67">
-        <v>0.07116708222093321</v>
+        <v>7.1167082220933209E-2</v>
       </c>
       <c r="H67">
-        <v>-0.1146235073968982</v>
+        <v>-0.11462350739689819</v>
       </c>
       <c r="I67">
-        <v>-0.210965459059574</v>
+        <v>-0.21096545905957401</v>
       </c>
       <c r="J67">
-        <v>-0.0182815557342224</v>
+        <v>-1.82815557342224E-2</v>
       </c>
       <c r="K67">
-        <v>0.01956247129909006</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+        <v>1.956247129909006E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
       </c>
       <c r="C68">
         <v>1297</v>
@@ -3013,7 +2916,7 @@
         <v>0.1818830165910699</v>
       </c>
       <c r="G68">
-        <v>0.04766742987424076</v>
+        <v>4.766742987424076E-2</v>
       </c>
       <c r="H68">
         <v>-0.1342155867168292</v>
@@ -3022,61 +2925,53 @@
         <v>-0.2819882004239701</v>
       </c>
       <c r="J68">
-        <v>0.01355702699031167</v>
+        <v>1.3557026990311669E-2</v>
       </c>
       <c r="K68">
-        <v>0.0746667472633718</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+        <v>7.4666747263371802E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
       </c>
       <c r="C69">
         <v>1302</v>
       </c>
       <c r="D69">
-        <v>0.146860175</v>
+        <v>0.14686017500000001</v>
       </c>
       <c r="E69">
-        <v>0.5959701500000001</v>
+        <v>0.59597015000000009</v>
       </c>
       <c r="F69">
-        <v>0.09436903677868781</v>
+        <v>9.4369036778687812E-2</v>
       </c>
       <c r="G69">
-        <v>0.01073425685175397</v>
+        <v>1.073425685175397E-2</v>
       </c>
       <c r="H69">
-        <v>-0.08363477992693383</v>
+        <v>-8.3634779926933828E-2</v>
       </c>
       <c r="I69">
-        <v>-0.2302702692361479</v>
+        <v>-0.23027026923614791</v>
       </c>
       <c r="J69">
-        <v>0.06300070938228028</v>
+        <v>6.3000709382280279E-2</v>
       </c>
       <c r="K69">
         <v>0.2667579303024778</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
       </c>
       <c r="C70">
         <v>1305</v>
@@ -3094,28 +2989,24 @@
         <v>0.1570019746770383</v>
       </c>
       <c r="H70">
-        <v>-0.01632276086875591</v>
+        <v>-1.632276086875591E-2</v>
       </c>
       <c r="I70">
-        <v>-0.1588842077942463</v>
+        <v>-0.15888420779424631</v>
       </c>
       <c r="J70">
-        <v>0.1262386860567345</v>
+        <v>0.12623868605673449</v>
       </c>
       <c r="K70">
-        <v>0.8337229021764141</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+        <v>0.83372290217641409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
       </c>
       <c r="C71">
         <v>1305</v>
@@ -3130,31 +3021,27 @@
         <v>0.1692909907321464</v>
       </c>
       <c r="G71">
-        <v>0.06658720892103155</v>
+        <v>6.6587208921031552E-2</v>
       </c>
       <c r="H71">
-        <v>-0.1027037818111149</v>
+        <v>-0.10270378181111491</v>
       </c>
       <c r="I71">
         <v>-0.1989306245997795</v>
       </c>
       <c r="J71">
-        <v>-0.006476939022450307</v>
+        <v>-6.4769390224503074E-3</v>
       </c>
       <c r="K71">
-        <v>0.03613871297173015</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+        <v>3.6138712971730151E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
       </c>
       <c r="C72">
         <v>1305</v>
@@ -3166,34 +3053,30 @@
         <v>0.5959544</v>
       </c>
       <c r="F72">
-        <v>0.1794890837464025</v>
+        <v>0.17948908374640249</v>
       </c>
       <c r="G72">
-        <v>0.06612164662543342</v>
+        <v>6.612164662543342E-2</v>
       </c>
       <c r="H72">
         <v>-0.1133674371209691</v>
       </c>
       <c r="I72">
-        <v>-0.2623394162133708</v>
+        <v>-0.26233941621337081</v>
       </c>
       <c r="J72">
-        <v>0.03560454197143259</v>
+        <v>3.5604541971432591E-2</v>
       </c>
       <c r="K72">
         <v>0.1360219679608112</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
       </c>
       <c r="C73">
         <v>1305</v>
@@ -3205,334 +3088,302 @@
         <v>0.5959544</v>
       </c>
       <c r="F73">
-        <v>0.0800577479807964</v>
+        <v>8.0057747980796401E-2</v>
       </c>
       <c r="G73">
-        <v>-0.008452333745650674</v>
+        <v>-8.4523337456506743E-3</v>
       </c>
       <c r="H73">
-        <v>-0.08851008172644707</v>
+        <v>-8.8510081726447074E-2</v>
       </c>
       <c r="I73">
-        <v>-0.2349291598226859</v>
+        <v>-0.23492915982268589</v>
       </c>
       <c r="J73">
-        <v>0.05790899636979173</v>
+        <v>5.7908996369791729E-2</v>
       </c>
       <c r="K73">
-        <v>0.2384751022790607</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_no4</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>0.23847510227906071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
       </c>
       <c r="C74">
         <v>1302</v>
       </c>
       <c r="D74">
-        <v>1.026887</v>
+        <v>1.0268870000000001</v>
       </c>
       <c r="E74">
-        <v>4.680760250000001</v>
+        <v>4.6807602500000014</v>
       </c>
       <c r="F74">
         <v>0.1612128197601656</v>
       </c>
       <c r="G74">
-        <v>0.09448951974349599</v>
+        <v>9.4489519743495995E-2</v>
       </c>
       <c r="H74">
-        <v>-0.06664741160750384</v>
+        <v>-6.6647411607503843E-2</v>
       </c>
       <c r="I74">
-        <v>-0.234693604968722</v>
+        <v>-0.23469360496872199</v>
       </c>
       <c r="J74">
-        <v>0.1013987817537143</v>
+        <v>0.10139878175371431</v>
       </c>
       <c r="K74">
-        <v>0.4454264822899703</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_no4</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>0.44542648228997028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
       </c>
       <c r="C75">
         <v>1297</v>
       </c>
       <c r="D75">
-        <v>1.03055</v>
+        <v>1.0305500000000001</v>
       </c>
       <c r="E75">
-        <v>4.683877</v>
+        <v>4.6838769999999998</v>
       </c>
       <c r="F75">
-        <v>0.166017723463751</v>
+        <v>0.16601772346375099</v>
       </c>
       <c r="G75">
-        <v>0.1111690713016062</v>
+        <v>0.11116907130160621</v>
       </c>
       <c r="H75">
-        <v>-0.05484865216214484</v>
+        <v>-5.4848652162144837E-2</v>
       </c>
       <c r="I75">
         <v>-0.1275017641266625</v>
       </c>
       <c r="J75">
-        <v>0.01780445980237285</v>
+        <v>1.780445980237285E-2</v>
       </c>
       <c r="K75">
-        <v>0.1392139934717748</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_no4</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>0.13921399347177479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
       </c>
       <c r="C76">
         <v>1297</v>
       </c>
       <c r="D76">
-        <v>1.03055</v>
+        <v>1.0305500000000001</v>
       </c>
       <c r="E76">
-        <v>4.683877</v>
+        <v>4.6838769999999998</v>
       </c>
       <c r="F76">
-        <v>0.09942930714162043</v>
+        <v>9.9429307141620432E-2</v>
       </c>
       <c r="G76">
-        <v>0.1130390242169941</v>
+        <v>0.11303902421699411</v>
       </c>
       <c r="H76">
-        <v>0.01360971707537369</v>
+        <v>1.360971707537369E-2</v>
       </c>
       <c r="I76">
-        <v>-0.03041545967783975</v>
+        <v>-3.0415459677839748E-2</v>
       </c>
       <c r="J76">
-        <v>0.05763489382858712</v>
+        <v>5.7634893828587122E-2</v>
       </c>
       <c r="K76">
-        <v>0.5559063939360782</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_no4</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>0.55590639393607821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
       </c>
       <c r="C77">
         <v>1302</v>
       </c>
       <c r="D77">
-        <v>1.026887</v>
+        <v>1.0268870000000001</v>
       </c>
       <c r="E77">
-        <v>4.680760250000001</v>
+        <v>4.6807602500000014</v>
       </c>
       <c r="F77">
-        <v>0.03804042990782174</v>
+        <v>3.8040429907821742E-2</v>
       </c>
       <c r="G77">
-        <v>0.03458137753532114</v>
+        <v>3.4581377535321138E-2</v>
       </c>
       <c r="H77">
-        <v>-0.003347583861889903</v>
+        <v>-3.3475838618899031E-3</v>
       </c>
       <c r="I77">
-        <v>-0.1431816165787549</v>
+        <v>-0.14318161657875489</v>
       </c>
       <c r="J77">
         <v>0.1364864488549751</v>
       </c>
       <c r="K77">
-        <v>0.9660315175715569</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>z_age2mo_personal_all</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>0.96603151757155692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
       </c>
       <c r="C78">
         <v>1305</v>
       </c>
       <c r="D78">
-        <v>1.03055</v>
+        <v>1.0305500000000001</v>
       </c>
       <c r="E78">
-        <v>4.683877</v>
+        <v>4.6838769999999998</v>
       </c>
       <c r="F78">
-        <v>0.1605900660892191</v>
+        <v>0.16059006608921911</v>
       </c>
       <c r="G78">
-        <v>0.04419582209692079</v>
+        <v>4.4195822096920787E-2</v>
       </c>
       <c r="H78">
-        <v>-0.1163942439922983</v>
+        <v>-0.11639424399229829</v>
       </c>
       <c r="I78">
-        <v>-0.2912503113734057</v>
+        <v>-0.29125031137340568</v>
       </c>
       <c r="J78">
-        <v>0.05846182338880916</v>
+        <v>5.8461823388809162E-2</v>
       </c>
       <c r="K78">
-        <v>0.1932864360403027</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>z_age2mo_motor_all</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>0.19328643604030271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
       </c>
       <c r="C79">
         <v>1305</v>
       </c>
       <c r="D79">
-        <v>1.03055</v>
+        <v>1.0305500000000001</v>
       </c>
       <c r="E79">
-        <v>4.683877</v>
+        <v>4.6838769999999998</v>
       </c>
       <c r="F79">
-        <v>0.2032466613805519</v>
+        <v>0.20324666138055189</v>
       </c>
       <c r="G79">
-        <v>-0.007659275630748693</v>
+        <v>-7.659275630748693E-3</v>
       </c>
       <c r="H79">
-        <v>-0.2109059370113006</v>
+        <v>-0.21090593701130059</v>
       </c>
       <c r="I79">
-        <v>-0.3577473588514867</v>
+        <v>-0.35774735885148667</v>
       </c>
       <c r="J79">
-        <v>-0.06406451517111447</v>
+        <v>-6.4064515171114472E-2</v>
       </c>
       <c r="K79">
-        <v>0.004916357007366671</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>z_age2mo_combined_all</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>4.9163570073666712E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
       </c>
       <c r="C80">
         <v>1305</v>
       </c>
       <c r="D80">
-        <v>1.03055</v>
+        <v>1.0305500000000001</v>
       </c>
       <c r="E80">
-        <v>4.683877</v>
+        <v>4.6838769999999998</v>
       </c>
       <c r="F80">
-        <v>0.1619622299008563</v>
+        <v>0.16196222990085629</v>
       </c>
       <c r="G80">
-        <v>0.03197720319615588</v>
+        <v>3.1977203196155879E-2</v>
       </c>
       <c r="H80">
         <v>-0.1299850267047005</v>
       </c>
       <c r="I80">
-        <v>-0.2886905967133016</v>
+        <v>-0.28869059671330161</v>
       </c>
       <c r="J80">
-        <v>0.02872054330390059</v>
+        <v>2.872054330390059E-2</v>
       </c>
       <c r="K80">
-        <v>0.1082799889872837</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>z_age2mo_com_all</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>0.10827998898728371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
       </c>
       <c r="C81">
         <v>1305</v>
       </c>
       <c r="D81">
-        <v>1.03055</v>
+        <v>1.0305500000000001</v>
       </c>
       <c r="E81">
-        <v>4.683877</v>
+        <v>4.6838769999999998</v>
       </c>
       <c r="F81">
-        <v>0.01850519644281663</v>
+        <v>1.8505196442816629E-2</v>
       </c>
       <c r="G81">
-        <v>0.04027666471325936</v>
+        <v>4.0276664713259358E-2</v>
       </c>
       <c r="H81">
-        <v>0.02177146827044273</v>
+        <v>2.1771468270442729E-2</v>
       </c>
       <c r="I81">
-        <v>-0.02122728404632909</v>
+        <v>-2.1227284046329089E-2</v>
       </c>
       <c r="J81">
-        <v>0.06477022058721454</v>
+        <v>6.4770220587214544E-2</v>
       </c>
       <c r="K81">
-        <v>0.3258703127825445</v>
+        <v>0.32587031278254452</v>
       </c>
     </row>
   </sheetData>
@@ -3541,95 +3392,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>dom</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>N_no4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>N_all</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>point.diff_no4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>point.diff_all</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lb.diff_no4</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lb.diff_all</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ub.diff_no4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ub.diff_all</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pval_no4</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pval_all</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>abs_diff</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
         <v>696</v>
@@ -3638,46 +3459,42 @@
         <v>697</v>
       </c>
       <c r="E2">
-        <v>-0.01387848757551383</v>
+        <v>-1.3878487575513829E-2</v>
       </c>
       <c r="F2">
-        <v>0.004061609915387797</v>
+        <v>4.0616099153877967E-3</v>
       </c>
       <c r="G2">
-        <v>-0.1971337810105747</v>
+        <v>-0.19713378101057469</v>
       </c>
       <c r="H2">
-        <v>-0.1874413227746138</v>
+        <v>-0.18744132277461381</v>
       </c>
       <c r="I2">
-        <v>0.1693768058595471</v>
+        <v>0.16937680585954709</v>
       </c>
       <c r="J2">
-        <v>0.1955645426053894</v>
+        <v>0.19556454260538941</v>
       </c>
       <c r="K2">
-        <v>0.8908358107859484</v>
+        <v>0.89083581078594842</v>
       </c>
       <c r="L2">
-        <v>0.9699366870424425</v>
+        <v>0.96993668704244251</v>
       </c>
       <c r="M2">
-        <v>0.01794009749090163</v>
+        <v>1.794009749090163E-2</v>
       </c>
       <c r="N2">
-        <v>4.416991750717826</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+        <v>4.4169917507178296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
         <v>687</v>
@@ -3686,46 +3503,42 @@
         <v>693</v>
       </c>
       <c r="E3">
-        <v>-0.0158869548881691</v>
+        <v>-1.5886954888169099E-2</v>
       </c>
       <c r="F3">
-        <v>-0.01103112923333654</v>
+        <v>-1.103112923333654E-2</v>
       </c>
       <c r="G3">
-        <v>-0.04934913209994767</v>
+        <v>-4.9349132099947672E-2</v>
       </c>
       <c r="H3">
-        <v>-0.05202038844381002</v>
+        <v>-5.2020388443810017E-2</v>
       </c>
       <c r="I3">
-        <v>0.01757522232360946</v>
+        <v>1.757522232360946E-2</v>
       </c>
       <c r="J3">
-        <v>0.02995812997713695</v>
+        <v>2.9958129977136951E-2</v>
       </c>
       <c r="K3">
-        <v>0.3579229742257246</v>
+        <v>0.35792297422572461</v>
       </c>
       <c r="L3">
         <v>0.6102119335481796</v>
       </c>
       <c r="M3">
-        <v>0.004855825654832563</v>
+        <v>4.8558256548325634E-3</v>
       </c>
       <c r="N3">
-        <v>-0.4401929804392148</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+        <v>-0.44019298043921479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
         <v>694</v>
@@ -3734,46 +3547,42 @@
         <v>697</v>
       </c>
       <c r="E4">
-        <v>-0.04206534342596702</v>
+        <v>-4.2065343425967017E-2</v>
       </c>
       <c r="F4">
-        <v>-0.01226007688148837</v>
+        <v>-1.226007688148837E-2</v>
       </c>
       <c r="G4">
         <v>-0.1235392847216505</v>
       </c>
       <c r="H4">
-        <v>-0.08427083015366475</v>
+        <v>-8.4270830153664752E-2</v>
       </c>
       <c r="I4">
-        <v>0.03940859786971644</v>
+        <v>3.9408597869716441E-2</v>
       </c>
       <c r="J4">
-        <v>0.05975067639068802</v>
+        <v>5.9750676390688019E-2</v>
       </c>
       <c r="K4">
-        <v>0.3161369188871908</v>
+        <v>0.31613691888719081</v>
       </c>
       <c r="L4">
-        <v>0.7515755187640981</v>
+        <v>0.75157551876409812</v>
       </c>
       <c r="M4">
-        <v>0.02980526654447865</v>
+        <v>2.980526654447865E-2</v>
       </c>
       <c r="N4">
-        <v>-2.431083167959735</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>aat1</t>
-        </is>
+        <v>-2.43108316795974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
         <v>694</v>
@@ -3782,46 +3591,42 @@
         <v>697</v>
       </c>
       <c r="E5">
-        <v>0.008226122415792259</v>
+        <v>8.2261224157922589E-3</v>
       </c>
       <c r="F5">
-        <v>-0.004577919227608795</v>
+        <v>-4.5779192276087953E-3</v>
       </c>
       <c r="G5">
-        <v>-0.02687783783725536</v>
+        <v>-2.687783783725536E-2</v>
       </c>
       <c r="H5">
-        <v>-0.07521343336035076</v>
+        <v>-7.5213433360350759E-2</v>
       </c>
       <c r="I5">
-        <v>0.04333008266883987</v>
+        <v>4.3330082668839871E-2</v>
       </c>
       <c r="J5">
-        <v>0.06605759490513317</v>
+        <v>6.6057594905133174E-2</v>
       </c>
       <c r="K5">
-        <v>0.6589718475708518</v>
+        <v>0.65897184757085181</v>
       </c>
       <c r="L5">
         <v>0.9068374245261932</v>
       </c>
       <c r="M5">
-        <v>-0.01280404164340105</v>
+        <v>-1.280404164340105E-2</v>
       </c>
       <c r="N5">
-        <v>2.796912965650782</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+        <v>2.7969129656507818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6">
         <v>697</v>
@@ -3830,46 +3635,42 @@
         <v>698</v>
       </c>
       <c r="E6">
-        <v>-0.06301393425496915</v>
+        <v>-6.3013934254969151E-2</v>
       </c>
       <c r="F6">
-        <v>-0.03961938015881145</v>
+        <v>-3.9619380158811453E-2</v>
       </c>
       <c r="G6">
-        <v>-0.1391141379120809</v>
+        <v>-0.13911413791208091</v>
       </c>
       <c r="H6">
-        <v>-0.1363341652626426</v>
+        <v>-0.13633416526264261</v>
       </c>
       <c r="I6">
-        <v>0.01308626940214265</v>
+        <v>1.308626940214265E-2</v>
       </c>
       <c r="J6">
-        <v>0.05709540494501975</v>
+        <v>5.7095404945019752E-2</v>
       </c>
       <c r="K6">
         <v>0.1044132714776437</v>
       </c>
       <c r="L6">
-        <v>0.4300399546896693</v>
+        <v>0.43003995468966932</v>
       </c>
       <c r="M6">
-        <v>0.0233945540961577</v>
+        <v>2.3394554096157701E-2</v>
       </c>
       <c r="N6">
         <v>-0.5904825871172722</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
         <v>688</v>
@@ -3881,43 +3682,39 @@
         <v>-0.1179019191862594</v>
       </c>
       <c r="F7">
-        <v>0.002845940188573127</v>
+        <v>2.8459401885731271E-3</v>
       </c>
       <c r="G7">
-        <v>-0.3663534046284498</v>
+        <v>-0.36635340462844979</v>
       </c>
       <c r="H7">
-        <v>-0.0226521299550684</v>
+        <v>-2.2652129955068399E-2</v>
       </c>
       <c r="I7">
-        <v>0.1305495662559311</v>
+        <v>0.13054956625593109</v>
       </c>
       <c r="J7">
-        <v>0.02834401033221466</v>
+        <v>2.8344010332214661E-2</v>
       </c>
       <c r="K7">
-        <v>0.358159918774773</v>
+        <v>0.35815991877477299</v>
       </c>
       <c r="L7">
-        <v>0.837979212387796</v>
+        <v>0.83797921238779605</v>
       </c>
       <c r="M7">
         <v>0.1207478593748325</v>
       </c>
       <c r="N7">
-        <v>42.42810859471084</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+        <v>42.428108594710842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
       </c>
       <c r="C8">
         <v>695</v>
@@ -3926,46 +3723,42 @@
         <v>698</v>
       </c>
       <c r="E8">
-        <v>-0.03492151588580151</v>
+        <v>-3.4921515885801509E-2</v>
       </c>
       <c r="F8">
-        <v>-0.01173506942533759</v>
+        <v>-1.1735069425337591E-2</v>
       </c>
       <c r="G8">
         <v>-0.1117247690417609</v>
       </c>
       <c r="H8">
-        <v>-0.08581850540649706</v>
+        <v>-8.5818505406497061E-2</v>
       </c>
       <c r="I8">
-        <v>0.04188173727015791</v>
+        <v>4.1881737270157912E-2</v>
       </c>
       <c r="J8">
-        <v>0.06234836655582187</v>
+        <v>6.234836655582187E-2</v>
       </c>
       <c r="K8">
         <v>0.379319541882008</v>
       </c>
       <c r="L8">
-        <v>0.768967490819317</v>
+        <v>0.76896749081931703</v>
       </c>
       <c r="M8">
-        <v>0.02318644646046392</v>
+        <v>2.318644646046392E-2</v>
       </c>
       <c r="N8">
-        <v>-1.97582524824278</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>mpo1</t>
-        </is>
+        <v>-1.9758252482427801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9">
         <v>695</v>
@@ -3974,16 +3767,16 @@
         <v>698</v>
       </c>
       <c r="E9">
-        <v>-0.03142382710793844</v>
+        <v>-3.1423827107938437E-2</v>
       </c>
       <c r="F9">
-        <v>0.007406726285990276</v>
+        <v>7.4067262859902764E-3</v>
       </c>
       <c r="G9">
-        <v>-0.2478181722541472</v>
+        <v>-0.24781817225414721</v>
       </c>
       <c r="H9">
-        <v>-0.2157396742184386</v>
+        <v>-0.21573967421843859</v>
       </c>
       <c r="I9">
         <v>0.1849705180382703</v>
@@ -3992,28 +3785,24 @@
         <v>0.2305531267904192</v>
       </c>
       <c r="K9">
-        <v>0.7883804617471568</v>
+        <v>0.78838046174715681</v>
       </c>
       <c r="L9">
-        <v>0.952746537254665</v>
+        <v>0.95274653725466496</v>
       </c>
       <c r="M9">
-        <v>0.03883055339392872</v>
+        <v>3.883055339392872E-2</v>
       </c>
       <c r="N9">
-        <v>5.242606773167275</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+        <v>5.2426067731672754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10">
         <v>698</v>
@@ -4022,46 +3811,42 @@
         <v>699</v>
       </c>
       <c r="E10">
-        <v>0.04159231340101115</v>
+        <v>4.1592313401011147E-2</v>
       </c>
       <c r="F10">
-        <v>0.04652956048571851</v>
+        <v>4.6529560485718512E-2</v>
       </c>
       <c r="G10">
-        <v>-0.04741587022979035</v>
+        <v>-4.7415870229790352E-2</v>
       </c>
       <c r="H10">
-        <v>-0.04389999050472135</v>
+        <v>-4.3899990504721348E-2</v>
       </c>
       <c r="I10">
-        <v>0.1306004970318126</v>
+        <v>0.13060049703181259</v>
       </c>
       <c r="J10">
-        <v>0.1369591114761584</v>
+        <v>0.13695911147615841</v>
       </c>
       <c r="K10">
-        <v>0.3658090560029196</v>
+        <v>0.36580905600291957</v>
       </c>
       <c r="L10">
-        <v>0.3178448146009121</v>
+        <v>0.31784481460091207</v>
       </c>
       <c r="M10">
-        <v>0.004937247084707365</v>
+        <v>4.9372470847073649E-3</v>
       </c>
       <c r="N10">
         <v>0.1061099016016447</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
       <c r="C11">
         <v>689</v>
@@ -4070,46 +3855,42 @@
         <v>695</v>
       </c>
       <c r="E11">
-        <v>0.09084870685106541</v>
+        <v>9.0848706851065414E-2</v>
       </c>
       <c r="F11">
-        <v>0.1036156857457567</v>
+        <v>0.10361568574575671</v>
       </c>
       <c r="G11">
-        <v>-0.06852165581456107</v>
+        <v>-6.8521655814561072E-2</v>
       </c>
       <c r="H11">
-        <v>-0.06827472392976511</v>
+        <v>-6.8274723929765108E-2</v>
       </c>
       <c r="I11">
-        <v>0.2502190695166919</v>
+        <v>0.25021906951669193</v>
       </c>
       <c r="J11">
-        <v>0.2755060954212785</v>
+        <v>0.27550609542127852</v>
       </c>
       <c r="K11">
-        <v>0.2670255822572213</v>
+        <v>0.26702558225722128</v>
       </c>
       <c r="L11">
-        <v>0.2398288052876285</v>
+        <v>0.23982880528762851</v>
       </c>
       <c r="M11">
-        <v>0.01276697889469128</v>
+        <v>1.2766978894691279E-2</v>
       </c>
       <c r="N11">
         <v>0.1232147314646722</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
       <c r="C12">
         <v>696</v>
@@ -4118,46 +3899,42 @@
         <v>699</v>
       </c>
       <c r="E12">
-        <v>0.1222101303938811</v>
+        <v>0.12221013039388109</v>
       </c>
       <c r="F12">
-        <v>0.1438436975754128</v>
+        <v>0.14384369757541279</v>
       </c>
       <c r="G12">
-        <v>-0.05728618412063609</v>
+        <v>-5.7286184120636088E-2</v>
       </c>
       <c r="H12">
-        <v>-0.021903348292269</v>
+        <v>-2.1903348292269E-2</v>
       </c>
       <c r="I12">
-        <v>0.3017064449083984</v>
+        <v>0.30170644490839837</v>
       </c>
       <c r="J12">
-        <v>0.3095907434430947</v>
+        <v>0.30959074344309467</v>
       </c>
       <c r="K12">
-        <v>0.1831177287966473</v>
+        <v>0.18311772879664731</v>
       </c>
       <c r="L12">
-        <v>0.08863352678346388</v>
+        <v>8.8633526783463881E-2</v>
       </c>
       <c r="M12">
-        <v>0.02163356718153171</v>
+        <v>2.1633567181531709E-2</v>
       </c>
       <c r="N12">
-        <v>0.1503963506652065</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>neo1</t>
-        </is>
+        <v>0.15039635066520651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
       <c r="C13">
         <v>696</v>
@@ -4172,40 +3949,36 @@
         <v>0.1200135560164813</v>
       </c>
       <c r="G13">
-        <v>-0.06451673272695063</v>
+        <v>-6.4516732726950632E-2</v>
       </c>
       <c r="H13">
-        <v>-0.05079357322571852</v>
+        <v>-5.0793573225718522E-2</v>
       </c>
       <c r="I13">
-        <v>0.2959878030204715</v>
+        <v>0.29598780302047151</v>
       </c>
       <c r="J13">
-        <v>0.2908206852586812</v>
+        <v>0.29082068525868121</v>
       </c>
       <c r="K13">
-        <v>0.2098929798761534</v>
+        <v>0.20989297987615341</v>
       </c>
       <c r="L13">
-        <v>0.1692509140876513</v>
+        <v>0.16925091408765131</v>
       </c>
       <c r="M13">
-        <v>0.004278020869720914</v>
+        <v>4.2780208697209138E-3</v>
       </c>
       <c r="N13">
-        <v>0.03564614708302967</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>3.564614708302967E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
       <c r="C14">
         <v>865</v>
@@ -4214,46 +3987,42 @@
         <v>867</v>
       </c>
       <c r="E14">
-        <v>0.06075946604522894</v>
+        <v>6.0759466045228937E-2</v>
       </c>
       <c r="F14">
-        <v>0.08462904195252553</v>
+        <v>8.4629041952525533E-2</v>
       </c>
       <c r="G14">
-        <v>-0.2251301773533627</v>
+        <v>-0.22513017735336269</v>
       </c>
       <c r="H14">
-        <v>-0.2089226982007454</v>
+        <v>-0.20892269820074541</v>
       </c>
       <c r="I14">
         <v>0.3466491094438206</v>
       </c>
       <c r="J14">
-        <v>0.3781807821057964</v>
+        <v>0.37818078210579642</v>
       </c>
       <c r="K14">
-        <v>0.6901456053744403</v>
+        <v>0.69014560537444025</v>
       </c>
       <c r="L14">
-        <v>0.5839335613951601</v>
+        <v>0.58393356139516006</v>
       </c>
       <c r="M14">
-        <v>0.0238695759072966</v>
+        <v>2.3869575907296599E-2</v>
       </c>
       <c r="N14">
-        <v>0.2820494638316566</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+        <v>0.28204946383165658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
       </c>
       <c r="C15">
         <v>858</v>
@@ -4265,43 +4034,39 @@
         <v>0.1125506083043985</v>
       </c>
       <c r="F15">
-        <v>0.1429843897118989</v>
+        <v>0.14298438971189889</v>
       </c>
       <c r="G15">
-        <v>-0.02011357459241891</v>
+        <v>-2.0113574592418911E-2</v>
       </c>
       <c r="H15">
-        <v>0.01245102811797821</v>
+        <v>1.245102811797821E-2</v>
       </c>
       <c r="I15">
-        <v>0.2452147912012159</v>
+        <v>0.24521479120121589</v>
       </c>
       <c r="J15">
-        <v>0.2735177513058196</v>
+        <v>0.27351775130581962</v>
       </c>
       <c r="K15">
-        <v>0.09608618268494189</v>
+        <v>9.6086182684941887E-2</v>
       </c>
       <c r="L15">
-        <v>0.03152776848639147</v>
+        <v>3.1527768486391473E-2</v>
       </c>
       <c r="M15">
-        <v>0.03043378140750042</v>
+        <v>3.0433781407500419E-2</v>
       </c>
       <c r="N15">
         <v>0.21284688117928</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
       <c r="C16">
         <v>863</v>
@@ -4310,46 +4075,42 @@
         <v>867</v>
       </c>
       <c r="E16">
-        <v>0.08642103427804618</v>
+        <v>8.6421034278046177E-2</v>
       </c>
       <c r="F16">
         <v>0.1800531020574504</v>
       </c>
       <c r="G16">
-        <v>-0.1400534213967494</v>
+        <v>-0.14005342139674939</v>
       </c>
       <c r="H16">
-        <v>-0.0814343228412229</v>
+        <v>-8.14343228412229E-2</v>
       </c>
       <c r="I16">
-        <v>0.3128954899528418</v>
+        <v>0.31289548995284178</v>
       </c>
       <c r="J16">
-        <v>0.4415405269561238</v>
+        <v>0.44154052695612378</v>
       </c>
       <c r="K16">
-        <v>0.4634924447846058</v>
+        <v>0.46349244478460577</v>
       </c>
       <c r="L16">
-        <v>0.1781056135946943</v>
+        <v>0.17810561359469429</v>
       </c>
       <c r="M16">
-        <v>0.09363206777940425</v>
+        <v>9.3632067779404249E-2</v>
       </c>
       <c r="N16">
         <v>0.5200247410873744</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>L_conc_t1</t>
-        </is>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
       </c>
       <c r="C17">
         <v>864</v>
@@ -4358,46 +4119,42 @@
         <v>867</v>
       </c>
       <c r="E17">
-        <v>0.003810180070088138</v>
+        <v>3.8101800700881378E-3</v>
       </c>
       <c r="F17">
-        <v>0.08273968576405483</v>
+        <v>8.2739685764054827E-2</v>
       </c>
       <c r="G17">
-        <v>-0.01157842023333771</v>
+        <v>-1.1578420233337709E-2</v>
       </c>
       <c r="H17">
-        <v>-0.1333930761038905</v>
+        <v>-0.13339307610389051</v>
       </c>
       <c r="I17">
-        <v>0.01919878037351398</v>
+        <v>1.9198780373513979E-2</v>
       </c>
       <c r="J17">
         <v>0.2988724476320001</v>
       </c>
       <c r="K17">
-        <v>0.6402318026465715</v>
+        <v>0.64023180264657154</v>
       </c>
       <c r="L17">
-        <v>0.4620021750699047</v>
+        <v>0.46200217506990471</v>
       </c>
       <c r="M17">
-        <v>0.07892950569396669</v>
+        <v>7.8929505693966687E-2</v>
       </c>
       <c r="N17">
-        <v>0.9539497880019334</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+        <v>0.95394978800193342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
       </c>
       <c r="C18">
         <v>865</v>
@@ -4406,46 +4163,42 @@
         <v>867</v>
       </c>
       <c r="E18">
-        <v>-0.002175780692002247</v>
+        <v>-2.1757806920022472E-3</v>
       </c>
       <c r="F18">
-        <v>0.0506314807232992</v>
+        <v>5.0631480723299198E-2</v>
       </c>
       <c r="G18">
-        <v>-0.05007954089581433</v>
+        <v>-5.0079540895814331E-2</v>
       </c>
       <c r="H18">
-        <v>-0.149741274388299</v>
+        <v>-0.14974127438829901</v>
       </c>
       <c r="I18">
-        <v>0.04572797951180983</v>
+        <v>4.5727979511809833E-2</v>
       </c>
       <c r="J18">
-        <v>0.2510042358348974</v>
+        <v>0.25100423583489739</v>
       </c>
       <c r="K18">
-        <v>0.935077162387315</v>
+        <v>0.93507716238731498</v>
       </c>
       <c r="L18">
-        <v>0.6330884868122588</v>
+        <v>0.63308848681225882</v>
       </c>
       <c r="M18">
-        <v>0.05280726141530145</v>
+        <v>5.2807261415301447E-2</v>
       </c>
       <c r="N18">
         <v>1.042972882896569</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
       <c r="C19">
         <v>858</v>
@@ -4454,46 +4207,42 @@
         <v>862</v>
       </c>
       <c r="E19">
-        <v>0.01486458984805864</v>
+        <v>1.486458984805864E-2</v>
       </c>
       <c r="F19">
-        <v>0.138393693277807</v>
+        <v>0.13839369327780701</v>
       </c>
       <c r="G19">
-        <v>-0.0288331038623546</v>
+        <v>-2.88331038623546E-2</v>
       </c>
       <c r="H19">
-        <v>-0.03009911171081869</v>
+        <v>-3.009911171081869E-2</v>
       </c>
       <c r="I19">
-        <v>0.05856228355847189</v>
+        <v>5.8562283558471893E-2</v>
       </c>
       <c r="J19">
-        <v>0.3068864982664326</v>
+        <v>0.30688649826643261</v>
       </c>
       <c r="K19">
-        <v>0.5153183658107754</v>
+        <v>0.51531836581077539</v>
       </c>
       <c r="L19">
         <v>0.1072687611114999</v>
       </c>
       <c r="M19">
-        <v>0.1235291034297483</v>
+        <v>0.12352910342974829</v>
       </c>
       <c r="N19">
-        <v>0.8925919997075304</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+        <v>0.89259199970753045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
       </c>
       <c r="C20">
         <v>863</v>
@@ -4502,46 +4251,42 @@
         <v>867</v>
       </c>
       <c r="E20">
-        <v>0.1261431563426403</v>
+        <v>0.12614315634264031</v>
       </c>
       <c r="F20">
-        <v>0.1791014165179771</v>
+        <v>0.17910141651797709</v>
       </c>
       <c r="G20">
-        <v>-0.07366699949852595</v>
+        <v>-7.3666999498525954E-2</v>
       </c>
       <c r="H20">
-        <v>-0.02376742659205577</v>
+        <v>-2.376742659205577E-2</v>
       </c>
       <c r="I20">
-        <v>0.3259533121838066</v>
+        <v>0.32595331218380658</v>
       </c>
       <c r="J20">
-        <v>0.38197025962801</v>
+        <v>0.38197025962801001</v>
       </c>
       <c r="K20">
-        <v>0.2178086166930522</v>
+        <v>0.21780861669305221</v>
       </c>
       <c r="L20">
-        <v>0.08322055867751886</v>
+        <v>8.322055867751886E-2</v>
       </c>
       <c r="M20">
-        <v>0.05295826017533675</v>
+        <v>5.2958260175336752E-2</v>
       </c>
       <c r="N20">
-        <v>0.2956886729593293</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>M_conc_t1</t>
-        </is>
+        <v>0.29568867295932932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
       <c r="C21">
         <v>864</v>
@@ -4550,46 +4295,42 @@
         <v>867</v>
       </c>
       <c r="E21">
-        <v>0.1070745206925666</v>
+        <v>0.10707452069256659</v>
       </c>
       <c r="F21">
-        <v>0.137356392168047</v>
+        <v>0.13735639216804699</v>
       </c>
       <c r="G21">
         <v>-0.1059556261268291</v>
       </c>
       <c r="H21">
-        <v>-0.06188837641292841</v>
+        <v>-6.1888376412928409E-2</v>
       </c>
       <c r="I21">
-        <v>0.3201046675119623</v>
+        <v>0.32010466751196232</v>
       </c>
       <c r="J21">
-        <v>0.3366011607490224</v>
+        <v>0.33660116074902241</v>
       </c>
       <c r="K21">
-        <v>0.3295310018982602</v>
+        <v>0.32953100189826018</v>
       </c>
       <c r="L21">
-        <v>0.177584349656899</v>
+        <v>0.17758434965689901</v>
       </c>
       <c r="M21">
-        <v>0.03028187147548038</v>
+        <v>3.0281871475480379E-2</v>
       </c>
       <c r="N21">
-        <v>0.2204620476521573</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+        <v>0.22046204765215729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
       </c>
       <c r="C22">
         <v>860</v>
@@ -4598,46 +4339,42 @@
         <v>862</v>
       </c>
       <c r="E22">
-        <v>0.01018662702599231</v>
+        <v>1.0186627025992309E-2</v>
       </c>
       <c r="F22">
-        <v>0.01205948116641295</v>
+        <v>1.205948116641295E-2</v>
       </c>
       <c r="G22">
-        <v>-0.06160479578789138</v>
+        <v>-6.1604795787891381E-2</v>
       </c>
       <c r="H22">
-        <v>-0.06180072945837493</v>
+        <v>-6.1800729458374927E-2</v>
       </c>
       <c r="I22">
-        <v>0.081978049839876</v>
+        <v>8.1978049839875999E-2</v>
       </c>
       <c r="J22">
-        <v>0.08591969179120083</v>
+        <v>8.5919691791200833E-2</v>
       </c>
       <c r="K22">
-        <v>0.7932801600072428</v>
+        <v>0.79328016000724277</v>
       </c>
       <c r="L22">
-        <v>0.761811663369992</v>
+        <v>0.76181166336999195</v>
       </c>
       <c r="M22">
-        <v>0.001872854140420641</v>
+        <v>1.872854140420641E-3</v>
       </c>
       <c r="N22">
-        <v>0.1553013860693075</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+        <v>0.15530138606930749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
       </c>
       <c r="C23">
         <v>849</v>
@@ -4646,46 +4383,42 @@
         <v>857</v>
       </c>
       <c r="E23">
-        <v>0.0004136202861205159</v>
+        <v>4.1362028612051591E-4</v>
       </c>
       <c r="F23">
-        <v>-0.01694942921151214</v>
+        <v>-1.694942921151214E-2</v>
       </c>
       <c r="G23">
-        <v>-0.06756165579266077</v>
+        <v>-6.7561655792660769E-2</v>
       </c>
       <c r="H23">
-        <v>-0.08785025795450434</v>
+        <v>-8.7850257954504338E-2</v>
       </c>
       <c r="I23">
-        <v>0.06838889636490181</v>
+        <v>6.8388896364901808E-2</v>
       </c>
       <c r="J23">
-        <v>0.05395139953148005</v>
+        <v>5.3951399531480052E-2</v>
       </c>
       <c r="K23">
-        <v>0.9914266115709048</v>
+        <v>0.99142661157090484</v>
       </c>
       <c r="L23">
-        <v>0.652278756421114</v>
+        <v>0.65227875642111399</v>
       </c>
       <c r="M23">
-        <v>-0.01736304949763266</v>
+        <v>-1.7363049497632659E-2</v>
       </c>
       <c r="N23">
         <v>1.024403198536006</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
       <c r="C24">
         <v>857</v>
@@ -4694,46 +4427,42 @@
         <v>862</v>
       </c>
       <c r="E24">
-        <v>-0.007871856533356925</v>
+        <v>-7.8718565333569246E-3</v>
       </c>
       <c r="F24">
-        <v>-0.0117614271749583</v>
+        <v>-1.1761427174958299E-2</v>
       </c>
       <c r="G24">
-        <v>-0.08631517321164882</v>
+        <v>-8.6315173211648819E-2</v>
       </c>
       <c r="H24">
-        <v>-0.1760520238896194</v>
+        <v>-0.17605202388961941</v>
       </c>
       <c r="I24">
-        <v>0.07057146014493497</v>
+        <v>7.0571460144934969E-2</v>
       </c>
       <c r="J24">
         <v>0.1525291695397028</v>
       </c>
       <c r="K24">
-        <v>0.8546027696222336</v>
+        <v>0.85460276962223358</v>
       </c>
       <c r="L24">
-        <v>0.8969133731340106</v>
+        <v>0.89691337313401065</v>
       </c>
       <c r="M24">
-        <v>-0.003889570641601378</v>
+        <v>-3.8895706416013781E-3</v>
       </c>
       <c r="N24">
-        <v>0.3307056689415048</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>aat2</t>
-        </is>
+        <v>0.33070566894150483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
       </c>
       <c r="C25">
         <v>859</v>
@@ -4742,46 +4471,42 @@
         <v>862</v>
       </c>
       <c r="E25">
-        <v>0.009688458424862482</v>
+        <v>9.6884584248624825E-3</v>
       </c>
       <c r="F25">
-        <v>0.01089852630263505</v>
+        <v>1.0898526302635049E-2</v>
       </c>
       <c r="G25">
-        <v>-0.05655495430654659</v>
+        <v>-5.6554954306546591E-2</v>
       </c>
       <c r="H25">
-        <v>-0.05567526866504795</v>
+        <v>-5.5675268665047947E-2</v>
       </c>
       <c r="I25">
-        <v>0.07593187115627156</v>
+        <v>7.5931871156271563E-2</v>
       </c>
       <c r="J25">
-        <v>0.07747232127031804</v>
+        <v>7.7472321270318042E-2</v>
       </c>
       <c r="K25">
-        <v>0.7868479992021589</v>
+        <v>0.78684799920215887</v>
       </c>
       <c r="L25">
-        <v>0.7611781140002019</v>
+        <v>0.76117811400020186</v>
       </c>
       <c r="M25">
-        <v>0.001210067877772569</v>
+        <v>1.210067877772569E-3</v>
       </c>
       <c r="N25">
         <v>0.1110304131192488</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
       </c>
       <c r="C26">
         <v>860</v>
@@ -4790,46 +4515,42 @@
         <v>862</v>
       </c>
       <c r="E26">
-        <v>-0.00301120828444646</v>
+        <v>-3.0112082844464599E-3</v>
       </c>
       <c r="F26">
-        <v>0.00109809062469814</v>
+        <v>1.0980906246981399E-3</v>
       </c>
       <c r="G26">
-        <v>-0.05400954342278212</v>
+        <v>-5.4009543422782122E-2</v>
       </c>
       <c r="H26">
-        <v>-0.05085222620156767</v>
+        <v>-5.0852226201567673E-2</v>
       </c>
       <c r="I26">
-        <v>0.04798712685388919</v>
+        <v>4.7987126853889193E-2</v>
       </c>
       <c r="J26">
-        <v>0.05304840745096395</v>
+        <v>5.3048407450963952E-2</v>
       </c>
       <c r="K26">
-        <v>0.9152582836582446</v>
+        <v>0.91525828365824458</v>
       </c>
       <c r="L26">
-        <v>0.9700392789061131</v>
+        <v>0.97003927890611308</v>
       </c>
       <c r="M26">
-        <v>0.004109298909144601</v>
+        <v>4.1092989091446007E-3</v>
       </c>
       <c r="N26">
         <v>3.742222014029331</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
       </c>
       <c r="C27">
         <v>849</v>
@@ -4838,46 +4559,42 @@
         <v>857</v>
       </c>
       <c r="E27">
-        <v>-0.005779252254322186</v>
+        <v>-5.7792522543221861E-3</v>
       </c>
       <c r="F27">
-        <v>-0.02565737892202734</v>
+        <v>-2.5657378922027341E-2</v>
       </c>
       <c r="G27">
-        <v>-0.04964882833418579</v>
+        <v>-4.9648828334185789E-2</v>
       </c>
       <c r="H27">
-        <v>-0.07537754128049082</v>
+        <v>-7.5377541280490817E-2</v>
       </c>
       <c r="I27">
-        <v>0.03809032382554142</v>
+        <v>3.8090323825541422E-2</v>
       </c>
       <c r="J27">
-        <v>0.02406278343643614</v>
+        <v>2.4062783436436141E-2</v>
       </c>
       <c r="K27">
-        <v>0.8082632817851638</v>
+        <v>0.80826328178516382</v>
       </c>
       <c r="L27">
-        <v>0.3163964120880821</v>
+        <v>0.31639641208808211</v>
       </c>
       <c r="M27">
-        <v>-0.01987812666770515</v>
+        <v>-1.9878126667705151E-2</v>
       </c>
       <c r="N27">
-        <v>0.7747528197683283</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+        <v>0.77475281976832833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
       </c>
       <c r="C28">
         <v>857</v>
@@ -4886,46 +4603,42 @@
         <v>862</v>
       </c>
       <c r="E28">
-        <v>-0.02346308678906938</v>
+        <v>-2.346308678906938E-2</v>
       </c>
       <c r="F28">
-        <v>-0.0173717316610509</v>
+        <v>-1.7371731661050899E-2</v>
       </c>
       <c r="G28">
-        <v>-0.07336190359816262</v>
+        <v>-7.3361903598162623E-2</v>
       </c>
       <c r="H28">
-        <v>-0.06677534721516223</v>
+        <v>-6.6775347215162234E-2</v>
       </c>
       <c r="I28">
-        <v>0.02643573002002386</v>
+        <v>2.6435730020023859E-2</v>
       </c>
       <c r="J28">
-        <v>0.03203188389306044</v>
+        <v>3.2031883893060442E-2</v>
       </c>
       <c r="K28">
-        <v>0.3627134512113714</v>
+        <v>0.36271345121137138</v>
       </c>
       <c r="L28">
-        <v>0.5007015146421375</v>
+        <v>0.50070151464213752</v>
       </c>
       <c r="M28">
-        <v>0.006091355128018484</v>
+        <v>6.0913551280184844E-3</v>
       </c>
       <c r="N28">
-        <v>-0.3506475489531012</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>mpo2</t>
-        </is>
+        <v>-0.35064754895310118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
       </c>
       <c r="C29">
         <v>859</v>
@@ -4934,46 +4647,42 @@
         <v>862</v>
       </c>
       <c r="E29">
-        <v>-0.003685328441704325</v>
+        <v>-3.6853284417043249E-3</v>
       </c>
       <c r="F29">
-        <v>-0.01050142146279757</v>
+        <v>-1.050142146279757E-2</v>
       </c>
       <c r="G29">
-        <v>-0.05045967907298744</v>
+        <v>-5.0459679072987443E-2</v>
       </c>
       <c r="H29">
-        <v>-0.05759033394891405</v>
+        <v>-5.7590333948914052E-2</v>
       </c>
       <c r="I29">
-        <v>0.04308902218957878</v>
+        <v>4.3089022189578781E-2</v>
       </c>
       <c r="J29">
-        <v>0.0365874910233189</v>
+        <v>3.6587491023318902E-2</v>
       </c>
       <c r="K29">
-        <v>0.886348395356727</v>
+        <v>0.88634839535672705</v>
       </c>
       <c r="L29">
-        <v>0.6751061974126994</v>
+        <v>0.67510619741269939</v>
       </c>
       <c r="M29">
-        <v>-0.00681609302109325</v>
+        <v>-6.81609302109325E-3</v>
       </c>
       <c r="N29">
-        <v>0.6490638477124263</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>0.64906384771242631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
       </c>
       <c r="C30">
         <v>860</v>
@@ -4982,16 +4691,16 @@
         <v>862</v>
       </c>
       <c r="E30">
-        <v>0.04144571903145558</v>
+        <v>4.144571903145558E-2</v>
       </c>
       <c r="F30">
-        <v>0.02277522382467546</v>
+        <v>2.2775223824675461E-2</v>
       </c>
       <c r="G30">
-        <v>-0.02122893980772318</v>
+        <v>-2.1228939807723179E-2</v>
       </c>
       <c r="H30">
-        <v>-0.0592260925956765</v>
+        <v>-5.9226092595676502E-2</v>
       </c>
       <c r="I30">
         <v>0.1041203778706343</v>
@@ -5003,25 +4712,21 @@
         <v>0.1962904214813149</v>
       </c>
       <c r="L30">
-        <v>0.5983402906185249</v>
+        <v>0.59834029061852489</v>
       </c>
       <c r="M30">
-        <v>-0.01867049520678012</v>
+        <v>-1.867049520678012E-2</v>
       </c>
       <c r="N30">
-        <v>-0.8197721941398385</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>-0.81977219413983848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
       </c>
       <c r="C31">
         <v>849</v>
@@ -5030,46 +4735,42 @@
         <v>857</v>
       </c>
       <c r="E31">
-        <v>0.01663312312797399</v>
+        <v>1.6633123127973989E-2</v>
       </c>
       <c r="F31">
-        <v>-0.07297996055591842</v>
+        <v>-7.2979960555918419E-2</v>
       </c>
       <c r="G31">
-        <v>-0.04326735000850045</v>
+        <v>-4.3267350008500453E-2</v>
       </c>
       <c r="H31">
-        <v>-0.1945563704357081</v>
+        <v>-0.19455637043570809</v>
       </c>
       <c r="I31">
-        <v>0.07653359626444843</v>
+        <v>7.6533596264448431E-2</v>
       </c>
       <c r="J31">
-        <v>0.0485964493238713</v>
+        <v>4.8596449323871298E-2</v>
       </c>
       <c r="K31">
-        <v>0.5984265178475416</v>
+        <v>0.59842651784754164</v>
       </c>
       <c r="L31">
-        <v>0.2418487866696458</v>
+        <v>0.24184878666964579</v>
       </c>
       <c r="M31">
-        <v>-0.08961308368389241</v>
+        <v>-8.9613083683892411E-2</v>
       </c>
       <c r="N31">
         <v>1.227913566974723</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
       </c>
       <c r="C32">
         <v>857</v>
@@ -5078,46 +4779,42 @@
         <v>862</v>
       </c>
       <c r="E32">
-        <v>0.05770637492053928</v>
+        <v>5.7706374920539281E-2</v>
       </c>
       <c r="F32">
-        <v>0.02937910294736257</v>
+        <v>2.9379102947362571E-2</v>
       </c>
       <c r="G32">
-        <v>-0.003131237250856893</v>
+        <v>-3.1312372508568928E-3</v>
       </c>
       <c r="H32">
-        <v>-0.05324150810355685</v>
+        <v>-5.324150810355685E-2</v>
       </c>
       <c r="I32">
-        <v>0.1185439870919354</v>
+        <v>0.11854398709193539</v>
       </c>
       <c r="J32">
         <v>0.111999713998282</v>
       </c>
       <c r="K32">
-        <v>0.06261040051753024</v>
+        <v>6.2610400517530237E-2</v>
       </c>
       <c r="L32">
-        <v>0.4956970990491106</v>
+        <v>0.49569709904911058</v>
       </c>
       <c r="M32">
-        <v>-0.02832727197317671</v>
+        <v>-2.832727197317671E-2</v>
       </c>
       <c r="N32">
-        <v>-0.9641979887517199</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>neo2</t>
-        </is>
+        <v>-0.96419798875171991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
       </c>
       <c r="C33">
         <v>859</v>
@@ -5126,16 +4823,16 @@
         <v>862</v>
       </c>
       <c r="E33">
-        <v>0.04566391388130567</v>
+        <v>4.5663913881305668E-2</v>
       </c>
       <c r="F33">
-        <v>0.05410108038929114</v>
+        <v>5.4101080389291137E-2</v>
       </c>
       <c r="G33">
-        <v>-0.01449035479591122</v>
+        <v>-1.4490354795911219E-2</v>
       </c>
       <c r="H33">
-        <v>-0.005192391141898955</v>
+        <v>-5.1923911418989546E-3</v>
       </c>
       <c r="I33">
         <v>0.1058181825585226</v>
@@ -5147,25 +4844,21 @@
         <v>0.1370087080754375</v>
       </c>
       <c r="L33">
-        <v>0.07333479525477263</v>
+        <v>7.3334795254772628E-2</v>
       </c>
       <c r="M33">
-        <v>0.008437166507985469</v>
+        <v>8.4371665079854691E-3</v>
       </c>
       <c r="N33">
-        <v>0.1559519042369353</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+        <v>0.15595190423693531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
       </c>
       <c r="C34">
         <v>844</v>
@@ -5174,46 +4867,42 @@
         <v>846</v>
       </c>
       <c r="E34">
-        <v>-0.02778771035646012</v>
+        <v>-2.7787710356460119E-2</v>
       </c>
       <c r="F34">
-        <v>0.001013943777730683</v>
+        <v>1.013943777730683E-3</v>
       </c>
       <c r="G34">
-        <v>-0.214434344447725</v>
+        <v>-0.21443434444772499</v>
       </c>
       <c r="H34">
-        <v>-0.1745541651677691</v>
+        <v>-0.17455416516776909</v>
       </c>
       <c r="I34">
         <v>0.1588589237348047</v>
       </c>
       <c r="J34">
-        <v>0.1765820527232305</v>
+        <v>0.17658205272323049</v>
       </c>
       <c r="K34">
-        <v>0.7829832035991393</v>
+        <v>0.78298320359913931</v>
       </c>
       <c r="L34">
-        <v>0.9918639497161179</v>
+        <v>0.99186394971611791</v>
       </c>
       <c r="M34">
-        <v>0.0288016541341908</v>
+        <v>2.88016541341908E-2</v>
       </c>
       <c r="N34">
-        <v>28.4055731360688</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+        <v>28.405573136068799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
       </c>
       <c r="C35">
         <v>836</v>
@@ -5222,7 +4911,7 @@
         <v>841</v>
       </c>
       <c r="E35">
-        <v>-0.08376907153231261</v>
+        <v>-8.3769071532312611E-2</v>
       </c>
       <c r="F35">
         <v>-0.1214189646000131</v>
@@ -5234,34 +4923,30 @@
         <v>-0.2359474791296797</v>
       </c>
       <c r="I35">
-        <v>0.008802651044186691</v>
+        <v>8.8026510441866906E-3</v>
       </c>
       <c r="J35">
-        <v>-0.006890450070346582</v>
+        <v>-6.8904500703465821E-3</v>
       </c>
       <c r="K35">
-        <v>0.07575006580980549</v>
+        <v>7.5750065809805492E-2</v>
       </c>
       <c r="L35">
-        <v>0.0374011069605539</v>
+        <v>3.7401106960553897E-2</v>
       </c>
       <c r="M35">
-        <v>-0.03764989306770053</v>
+        <v>-3.7649893067700529E-2</v>
       </c>
       <c r="N35">
-        <v>0.3100824751036994</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+        <v>0.31008247510369941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
       </c>
       <c r="C36">
         <v>841</v>
@@ -5273,43 +4958,39 @@
         <v>-0.141388047247577</v>
       </c>
       <c r="F36">
-        <v>-0.04983635163389945</v>
+        <v>-4.9836351633899448E-2</v>
       </c>
       <c r="G36">
-        <v>-0.331133683952227</v>
+        <v>-0.33113368395222698</v>
       </c>
       <c r="H36">
-        <v>-0.2113054292457013</v>
+        <v>-0.21130542924570131</v>
       </c>
       <c r="I36">
-        <v>0.04835758945707302</v>
+        <v>4.8357589457073018E-2</v>
       </c>
       <c r="J36">
         <v>0.1116327259779024</v>
       </c>
       <c r="K36">
-        <v>0.1444962489481212</v>
+        <v>0.14449624894812119</v>
       </c>
       <c r="L36">
-        <v>0.5565605669469803</v>
+        <v>0.55656056694698031</v>
       </c>
       <c r="M36">
-        <v>0.09155169561367751</v>
+        <v>9.1551695613677514E-2</v>
       </c>
       <c r="N36">
         <v>-1.837046505454919</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>L_conc_t2</t>
-        </is>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
       </c>
       <c r="C37">
         <v>843</v>
@@ -5318,46 +4999,42 @@
         <v>846</v>
       </c>
       <c r="E37">
-        <v>-0.03263678430681881</v>
+        <v>-3.2636784306818808E-2</v>
       </c>
       <c r="F37">
-        <v>0.008384829806712128</v>
+        <v>8.3848298067121275E-3</v>
       </c>
       <c r="G37">
         <v>-0.2073642987547297</v>
       </c>
       <c r="H37">
-        <v>-0.1542571113143208</v>
+        <v>-0.15425711131432079</v>
       </c>
       <c r="I37">
-        <v>0.1420907301410921</v>
+        <v>0.14209073014109211</v>
       </c>
       <c r="J37">
         <v>0.1710267709277451</v>
       </c>
       <c r="K37">
-        <v>0.7274195121285356</v>
+        <v>0.72741951212853562</v>
       </c>
       <c r="L37">
-        <v>0.9261702440535832</v>
+        <v>0.92617024405358317</v>
       </c>
       <c r="M37">
-        <v>0.04102161411353093</v>
+        <v>4.1021614113530933E-2</v>
       </c>
       <c r="N37">
-        <v>4.892360973229628</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>4.8923609732296276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
       </c>
       <c r="C38">
         <v>844</v>
@@ -5366,46 +5043,42 @@
         <v>846</v>
       </c>
       <c r="E38">
-        <v>0.00148786604960773</v>
+        <v>1.48786604960773E-3</v>
       </c>
       <c r="F38">
-        <v>-0.001127082198484403</v>
+        <v>-1.1270821984844029E-3</v>
       </c>
       <c r="G38">
-        <v>-0.06253892594527667</v>
+        <v>-6.2538925945276672E-2</v>
       </c>
       <c r="H38">
-        <v>-0.06754734627390832</v>
+        <v>-6.7547346273908321E-2</v>
       </c>
       <c r="I38">
-        <v>0.06551465804449212</v>
+        <v>6.5514658044492122E-2</v>
       </c>
       <c r="J38">
-        <v>0.06529318187693953</v>
+        <v>6.5293181876939527E-2</v>
       </c>
       <c r="K38">
-        <v>0.9670354974406238</v>
+        <v>0.96703549744062378</v>
       </c>
       <c r="L38">
-        <v>0.975986062363371</v>
+        <v>0.97598606236337104</v>
       </c>
       <c r="M38">
-        <v>-0.002614948248092133</v>
+        <v>-2.614948248092133E-3</v>
       </c>
       <c r="N38">
-        <v>2.320104293731616</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>2.3201042937316161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
       </c>
       <c r="C39">
         <v>836</v>
@@ -5414,46 +5087,42 @@
         <v>841</v>
       </c>
       <c r="E39">
-        <v>-0.1573363889090011</v>
+        <v>-0.15733638890900109</v>
       </c>
       <c r="F39">
         <v>-0.1716908821234453</v>
       </c>
       <c r="G39">
-        <v>-0.2923387417676085</v>
+        <v>-0.29233874176760849</v>
       </c>
       <c r="H39">
-        <v>-0.309886688322127</v>
+        <v>-0.30988668832212701</v>
       </c>
       <c r="I39">
-        <v>-0.02233403605039364</v>
+        <v>-2.2334036050393639E-2</v>
       </c>
       <c r="J39">
-        <v>-0.03349507592476353</v>
+        <v>-3.3495075924763529E-2</v>
       </c>
       <c r="K39">
-        <v>0.02218330992632052</v>
+        <v>2.2183309926320519E-2</v>
       </c>
       <c r="L39">
-        <v>0.01480784304304851</v>
+        <v>1.480784304304851E-2</v>
       </c>
       <c r="M39">
-        <v>-0.01435449321444421</v>
+        <v>-1.435449321444421E-2</v>
       </c>
       <c r="N39">
-        <v>0.08360661344918344</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+        <v>8.3606613449183437E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
       </c>
       <c r="C40">
         <v>841</v>
@@ -5462,46 +5131,42 @@
         <v>846</v>
       </c>
       <c r="E40">
-        <v>0.002746684568744799</v>
+        <v>2.7466845687447992E-3</v>
       </c>
       <c r="F40">
-        <v>0.0009345757395970147</v>
+        <v>9.345757395970147E-4</v>
       </c>
       <c r="G40">
-        <v>-0.05889456407194941</v>
+        <v>-5.8894564071949408E-2</v>
       </c>
       <c r="H40">
-        <v>-0.06153147744323366</v>
+        <v>-6.1531477443233659E-2</v>
       </c>
       <c r="I40">
-        <v>0.064387933209439</v>
+        <v>6.4387933209439002E-2</v>
       </c>
       <c r="J40">
-        <v>0.06340062892242769</v>
+        <v>6.340062892242769E-2</v>
       </c>
       <c r="K40">
-        <v>0.9363246584767752</v>
+        <v>0.93632465847677515</v>
       </c>
       <c r="L40">
-        <v>0.9788438093502901</v>
+        <v>0.97884380935029014</v>
       </c>
       <c r="M40">
-        <v>-0.001812108829147784</v>
+        <v>-1.8121088291477841E-3</v>
       </c>
       <c r="N40">
         <v>-1.93896412283199</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>M_conc_t2</t>
-        </is>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
       </c>
       <c r="C41">
         <v>843</v>
@@ -5510,34 +5175,34 @@
         <v>846</v>
       </c>
       <c r="E41">
-        <v>0.006169846483694176</v>
+        <v>6.1698464836941764E-3</v>
       </c>
       <c r="F41">
-        <v>0.01179817357754008</v>
+        <v>1.179817357754008E-2</v>
       </c>
       <c r="G41">
-        <v>-0.05309333249996762</v>
+        <v>-5.3093332499967623E-2</v>
       </c>
       <c r="H41">
-        <v>-0.04840139721973154</v>
+        <v>-4.8401397219731537E-2</v>
       </c>
       <c r="I41">
-        <v>0.06543302546735597</v>
+        <v>6.5433025467355965E-2</v>
       </c>
       <c r="J41">
-        <v>0.0719977443748117</v>
+        <v>7.1997744374811698E-2</v>
       </c>
       <c r="K41">
         <v>0.8490575614099154</v>
       </c>
       <c r="L41">
-        <v>0.7140489640567028</v>
+        <v>0.71404896405670282</v>
       </c>
       <c r="M41">
-        <v>0.005628327093845901</v>
+        <v>5.6283270938459013E-3</v>
       </c>
       <c r="N41">
-        <v>0.4770507110151713</v>
+        <v>0.47705071101517132</v>
       </c>
     </row>
   </sheetData>
